--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matej\PycharmProjects\pythonProject\Python_projects\HEXAGONS\Hexagons-Diploma_thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94225C74-DB55-490A-BA12-B568579E5862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F48AC5B-5E1F-4765-9CAB-2F8D310DA13F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{735BFD8D-33DF-4D6F-9FA3-FBF8D607A82B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{735BFD8D-33DF-4D6F-9FA3-FBF8D607A82B}"/>
   </bookViews>
   <sheets>
     <sheet name="tah poměry směrnice" sheetId="6" r:id="rId1"/>
@@ -185,11 +185,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="170" formatCode="0.000000000"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -400,7 +401,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -466,12 +467,13 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Čárka" xfId="1" builtinId="3"/>
@@ -1022,13 +1024,13 @@
       <selection activeCell="C28" sqref="C28:C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="24" width="11.42578125" customWidth="1"/>
+    <col min="2" max="24" width="11.44140625" customWidth="1"/>
     <col min="28" max="28" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B1" s="5" t="s">
         <v>29</v>
       </c>
@@ -1087,7 +1089,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1147,7 +1149,7 @@
         <v>1.0909599999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1207,7 +1209,7 @@
         <v>1.1308100000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1267,10 +1269,10 @@
         <v>1.1221000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B6" s="20">
         <f t="shared" ref="B6:B8" si="1">B2/B$2</f>
         <v>1</v>
@@ -1360,7 +1362,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B7" s="21">
         <f t="shared" si="1"/>
         <v>1.0981750052724248</v>
@@ -1457,7 +1459,7 @@
         <v>2.0627511715397878E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B8" s="19">
         <f t="shared" si="1"/>
         <v>1.1340176859204183</v>
@@ -1554,7 +1556,7 @@
         <v>1.9090360575963441E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="str">
         <f>ROUND(B6,3) &amp; " : " &amp; ROUND(B7,3) &amp; " : " &amp; ROUND(B8,3)</f>
         <v>1 : 1,098 : 1,134</v>
@@ -1626,7 +1628,7 @@
         <v>1 : 1,037 : 1,029</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="M15" t="s">
         <v>22</v>
       </c>
@@ -1640,7 +1642,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B16" s="20"/>
       <c r="C16" s="20">
         <f t="shared" ref="C16:K16" si="9">C6</f>
@@ -1723,7 +1725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B17" s="21"/>
       <c r="C17" s="21">
         <f t="shared" ref="C17:K17" si="11">C7</f>
@@ -1806,7 +1808,7 @@
         <v>1.0034299996454781</v>
       </c>
     </row>
-    <row r="18" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B18" s="19"/>
       <c r="C18" s="19">
         <f t="shared" ref="C18:K18" si="17">C8</f>
@@ -1889,7 +1891,7 @@
         <v>0.98825527097778409</v>
       </c>
     </row>
-    <row r="20" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B20" s="20"/>
       <c r="C20" s="20">
         <f t="shared" ref="C20:K20" si="18">C16</f>
@@ -1971,7 +1973,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B21" s="21"/>
       <c r="C21" s="21">
         <f t="shared" ref="C21:K21" si="20">C17</f>
@@ -2059,7 +2061,7 @@
         <v>2.0627511715397878E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B22" s="19"/>
       <c r="C22" s="19">
         <f t="shared" ref="C22:K22" si="22">C18</f>
@@ -2147,7 +2149,7 @@
         <v>1.9090360575963441E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -2164,7 +2166,7 @@
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
     </row>
-    <row r="28" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:28" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B28" s="15" t="s">
         <v>28</v>
       </c>
@@ -2180,7 +2182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:28" x14ac:dyDescent="0.3">
       <c r="C29" s="18">
         <f t="shared" ref="C29:C30" si="23">AVERAGE(B21:K21)</f>
         <v>1.0714496639565989</v>
@@ -2190,7 +2192,7 @@
         <v>1.0297956439946756</v>
       </c>
     </row>
-    <row r="30" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:28" x14ac:dyDescent="0.3">
       <c r="C30" s="16">
         <f t="shared" si="23"/>
         <v>1.0690313466704719</v>
@@ -2210,17 +2212,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{720D639E-012C-4C02-B27E-8503BA75C80D}">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="16" width="11.42578125" customWidth="1"/>
+    <col min="2" max="16" width="11.44140625" customWidth="1"/>
     <col min="20" max="20" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
@@ -2265,7 +2267,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2312,7 +2314,7 @@
         <v>12.956469999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2359,7 +2361,7 @@
         <v>13.40963</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -2406,7 +2408,7 @@
         <v>12.764620000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B6" s="20">
         <f t="shared" ref="B6:E8" si="0">B2/B$2</f>
         <v>1</v>
@@ -2474,7 +2476,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B7" s="21">
         <f t="shared" si="0"/>
         <v>1.0164565442143119</v>
@@ -2545,7 +2547,7 @@
         <v>1.3851705679183099E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B8" s="19">
         <f t="shared" si="0"/>
         <v>0.9725301723756048</v>
@@ -2616,7 +2618,7 @@
         <v>1.4436833803392066E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="str">
         <f>ROUND(B6,3) &amp; " : " &amp; ROUND(B7,3) &amp; " : " &amp; ROUND(B8,3)</f>
         <v>1 : 1,016 : 0,973</v>
@@ -2674,7 +2676,7 @@
         <v>1 : 1,035 : 0,985</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="R15" t="s">
         <v>22</v>
       </c>
@@ -2682,7 +2684,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B16" s="20">
         <f>B6</f>
         <v>1</v>
@@ -2749,7 +2751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B17" s="21">
         <f t="shared" ref="B17:P18" si="7">B7</f>
         <v>1.0164565442143119</v>
@@ -2816,7 +2818,7 @@
         <v>0.98010530309339405</v>
       </c>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B18" s="19">
         <f t="shared" si="7"/>
         <v>0.9725301723756048</v>
@@ -2883,7 +2885,7 @@
         <v>0.94202509109942745</v>
       </c>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B20" s="20">
         <f>B16</f>
         <v>1</v>
@@ -2945,7 +2947,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B21" s="21">
         <f t="shared" ref="B21:P21" si="13">B17</f>
         <v>1.0164565442143119</v>
@@ -3010,7 +3012,7 @@
         <v>9.882901514823841E-3</v>
       </c>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B22" s="19">
         <f t="shared" ref="B22:P22" si="14">B18</f>
         <v>0.9725301723756048</v>
@@ -3075,7 +3077,7 @@
         <v>1.1803317239831301E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="G23" s="3"/>
@@ -3089,7 +3091,7 @@
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
     </row>
-    <row r="28" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="G28" s="15" t="s">
         <v>28</v>
       </c>
@@ -3098,13 +3100,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:20" x14ac:dyDescent="0.3">
       <c r="H29" s="18">
         <f>R21</f>
         <v>1.0254819163243878</v>
       </c>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.3">
       <c r="H30" s="16">
         <f>R22</f>
         <v>0.98004469483338286</v>
@@ -3117,19 +3119,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FD28D1F-EC51-40D4-8F22-11710C4C6050}">
-  <dimension ref="B1:AC12"/>
+  <dimension ref="B1:AC19"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="AA12" sqref="AA12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="28" max="28" width="8.42578125" customWidth="1"/>
+    <col min="28" max="28" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>1</v>
       </c>
@@ -3164,7 +3166,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -3241,7 +3243,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>27.12</v>
       </c>
@@ -3322,13 +3324,13 @@
         <v>2.8372789115646264</v>
       </c>
     </row>
-    <row r="4" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:29" x14ac:dyDescent="0.3">
       <c r="Y4">
         <f>MIN(B3:V3)</f>
         <v>18.28</v>
       </c>
     </row>
-    <row r="6" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:29" x14ac:dyDescent="0.3">
       <c r="Y6" t="s">
         <v>20</v>
       </c>
@@ -3342,7 +3344,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B7">
         <f t="shared" ref="B7:I7" si="0">B3</f>
         <v>27.12</v>
@@ -3436,13 +3438,13 @@
         <v>2.0081440443213294</v>
       </c>
     </row>
-    <row r="8" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:29" x14ac:dyDescent="0.3">
       <c r="Y8">
         <f>MIN(B7:V7)</f>
         <v>20.3</v>
       </c>
     </row>
-    <row r="10" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:29" x14ac:dyDescent="0.3">
       <c r="Y10" t="s">
         <v>20</v>
       </c>
@@ -3456,7 +3458,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B11">
         <f t="shared" ref="B11:I11" si="2">B7</f>
         <v>27.12</v>
@@ -3542,10 +3544,20 @@
         <v>1.7642906574394459</v>
       </c>
     </row>
-    <row r="12" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:29" x14ac:dyDescent="0.3">
       <c r="Y12">
         <f>MIN(B11:V11)</f>
         <v>20.67</v>
+      </c>
+    </row>
+    <row r="19" spans="27:28" x14ac:dyDescent="0.3">
+      <c r="AA19">
+        <f>TAN(RADIANS(AA11))</f>
+        <v>0.43336043250341694</v>
+      </c>
+      <c r="AB19" s="33">
+        <f>TAN(RADIANS(AB11))</f>
+        <v>0.44079503684620319</v>
       </c>
     </row>
   </sheetData>
@@ -3557,22 +3569,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8838BAC-ACBB-4429-9C84-8CBEDE63B1B6}">
   <dimension ref="A1:BC317"/>
   <sheetViews>
-    <sheetView topLeftCell="AF113" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AU130" sqref="AU130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.7" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="8.85546875" style="9"/>
+    <col min="2" max="2" width="8.88671875" style="9"/>
     <col min="3" max="4" width="16" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.85546875" style="11"/>
-    <col min="45" max="45" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.88671875" style="11"/>
+    <col min="45" max="45" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:55" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -3580,7 +3592,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:55" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:55" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="27">
         <v>1</v>
       </c>
@@ -3655,7 +3667,7 @@
       </c>
       <c r="BC2" s="22"/>
     </row>
-    <row r="3" spans="1:55" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:55" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="27"/>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
@@ -3691,7 +3703,7 @@
       <c r="BB3" s="29"/>
       <c r="BC3" s="22"/>
     </row>
-    <row r="4" spans="1:55" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:55" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="27"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
@@ -3736,7 +3748,7 @@
       </c>
       <c r="BC4" s="22"/>
     </row>
-    <row r="5" spans="1:55" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:55" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="27"/>
       <c r="C5" s="28"/>
       <c r="D5" s="28">
@@ -3781,7 +3793,7 @@
       <c r="BB5" s="29"/>
       <c r="BC5" s="22"/>
     </row>
-    <row r="6" spans="1:55" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:55" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="27"/>
       <c r="C6" s="28"/>
       <c r="D6" s="28"/>
@@ -3826,7 +3838,7 @@
       </c>
       <c r="BC6" s="22"/>
     </row>
-    <row r="7" spans="1:55" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:55" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="27"/>
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
@@ -3861,7 +3873,7 @@
       <c r="BB7" s="29"/>
       <c r="BC7" s="22"/>
     </row>
-    <row r="8" spans="1:55" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:55" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="27"/>
       <c r="C8" s="28"/>
       <c r="D8" s="28">
@@ -3916,7 +3928,7 @@
       </c>
       <c r="BC8" s="22"/>
     </row>
-    <row r="9" spans="1:55" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:55" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="27"/>
       <c r="C9" s="28"/>
       <c r="D9" s="28"/>
@@ -3951,7 +3963,7 @@
       <c r="BB9" s="29"/>
       <c r="BC9" s="22"/>
     </row>
-    <row r="10" spans="1:55" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:55" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="27"/>
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
@@ -3996,7 +4008,7 @@
       </c>
       <c r="BC10" s="22"/>
     </row>
-    <row r="11" spans="1:55" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:55" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="27"/>
       <c r="C11" s="28"/>
       <c r="D11" s="28">
@@ -4041,7 +4053,7 @@
       <c r="BB11" s="29"/>
       <c r="BC11" s="22"/>
     </row>
-    <row r="12" spans="1:55" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:55" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="27"/>
       <c r="C12" s="28"/>
       <c r="D12" s="28"/>
@@ -4086,7 +4098,7 @@
       </c>
       <c r="BC12" s="22"/>
     </row>
-    <row r="13" spans="1:55" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:55" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="27"/>
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
@@ -4121,7 +4133,7 @@
       <c r="BB13" s="29"/>
       <c r="BC13" s="22"/>
     </row>
-    <row r="14" spans="1:55" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:55" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="27"/>
       <c r="C14" s="28"/>
       <c r="D14" s="28">
@@ -4186,7 +4198,7 @@
       </c>
       <c r="BC14" s="22"/>
     </row>
-    <row r="15" spans="1:55" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:55" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="27"/>
       <c r="C15" s="28"/>
       <c r="D15" s="28"/>
@@ -4221,7 +4233,7 @@
       <c r="BB15" s="29"/>
       <c r="BC15" s="22"/>
     </row>
-    <row r="16" spans="1:55" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:55" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="27"/>
       <c r="C16" s="28"/>
       <c r="D16" s="28"/>
@@ -4266,7 +4278,7 @@
       </c>
       <c r="BC16" s="22"/>
     </row>
-    <row r="17" spans="2:55" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:55" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="27"/>
       <c r="C17" s="28"/>
       <c r="D17" s="28">
@@ -4311,7 +4323,7 @@
       <c r="BB17" s="29"/>
       <c r="BC17" s="22"/>
     </row>
-    <row r="18" spans="2:55" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:55" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="27"/>
       <c r="C18" s="28"/>
       <c r="D18" s="28"/>
@@ -4356,7 +4368,7 @@
       </c>
       <c r="BC18" s="22"/>
     </row>
-    <row r="19" spans="2:55" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:55" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="27"/>
       <c r="C19" s="28"/>
       <c r="D19" s="28"/>
@@ -4397,7 +4409,7 @@
       <c r="BB19" s="29"/>
       <c r="BC19" s="22"/>
     </row>
-    <row r="20" spans="2:55" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:55" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="27">
         <v>2</v>
       </c>
@@ -4427,7 +4439,7 @@
       <c r="L20" s="29">
         <v>7</v>
       </c>
-      <c r="M20" s="31">
+      <c r="M20" s="32">
         <v>46.99</v>
       </c>
       <c r="N20" s="30">
@@ -4463,7 +4475,7 @@
       </c>
       <c r="BC20" s="22"/>
     </row>
-    <row r="21" spans="2:55" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:55" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="27"/>
       <c r="C21" s="28"/>
       <c r="D21" s="28"/>
@@ -4478,7 +4490,7 @@
         <v>2.52</v>
       </c>
       <c r="L21" s="29"/>
-      <c r="M21" s="31"/>
+      <c r="M21" s="32"/>
       <c r="N21" s="30"/>
       <c r="T21" s="11">
         <v>88.78</v>
@@ -4500,7 +4512,7 @@
       <c r="BB21" s="29"/>
       <c r="BC21" s="22"/>
     </row>
-    <row r="22" spans="2:55" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:55" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="27"/>
       <c r="C22" s="28"/>
       <c r="D22" s="28"/>
@@ -4515,7 +4527,7 @@
         <v>2.54</v>
       </c>
       <c r="L22" s="29"/>
-      <c r="M22" s="31"/>
+      <c r="M22" s="32"/>
       <c r="N22" s="30"/>
       <c r="T22" s="11">
         <v>88.4</v>
@@ -4547,7 +4559,7 @@
       </c>
       <c r="BC22" s="22"/>
     </row>
-    <row r="23" spans="2:55" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:55" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="27"/>
       <c r="C23" s="28"/>
       <c r="D23" s="28">
@@ -4572,7 +4584,7 @@
       <c r="L23" s="29">
         <v>8</v>
       </c>
-      <c r="M23" s="32">
+      <c r="M23" s="31">
         <v>46.88</v>
       </c>
       <c r="N23" s="30"/>
@@ -4596,7 +4608,7 @@
       <c r="BB23" s="29"/>
       <c r="BC23" s="22"/>
     </row>
-    <row r="24" spans="2:55" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:55" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="27"/>
       <c r="C24" s="28"/>
       <c r="D24" s="28"/>
@@ -4611,7 +4623,7 @@
         <v>2.5099999999999998</v>
       </c>
       <c r="L24" s="29"/>
-      <c r="M24" s="32"/>
+      <c r="M24" s="31"/>
       <c r="N24" s="30"/>
       <c r="T24" s="11">
         <v>87.77</v>
@@ -4643,7 +4655,7 @@
       </c>
       <c r="BC24" s="22"/>
     </row>
-    <row r="25" spans="2:55" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:55" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="27"/>
       <c r="C25" s="28"/>
       <c r="D25" s="28"/>
@@ -4658,7 +4670,7 @@
         <v>2.5</v>
       </c>
       <c r="L25" s="29"/>
-      <c r="M25" s="32"/>
+      <c r="M25" s="31"/>
       <c r="N25" s="30"/>
       <c r="T25" s="11">
         <v>87.81</v>
@@ -4680,7 +4692,7 @@
       <c r="BB25" s="29"/>
       <c r="BC25" s="22"/>
     </row>
-    <row r="26" spans="2:55" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:55" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="27"/>
       <c r="C26" s="28"/>
       <c r="D26" s="28">
@@ -4750,7 +4762,7 @@
       </c>
       <c r="BC26" s="22"/>
     </row>
-    <row r="27" spans="2:55" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:55" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="27"/>
       <c r="C27" s="28"/>
       <c r="D27" s="28"/>
@@ -4785,7 +4797,7 @@
       <c r="BB27" s="29"/>
       <c r="BC27" s="22"/>
     </row>
-    <row r="28" spans="2:55" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:55" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="27"/>
       <c r="C28" s="28"/>
       <c r="D28" s="28"/>
@@ -4830,7 +4842,7 @@
       </c>
       <c r="BC28" s="22"/>
     </row>
-    <row r="29" spans="2:55" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:55" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="27"/>
       <c r="C29" s="28"/>
       <c r="D29" s="28">
@@ -4872,7 +4884,7 @@
       <c r="BB29" s="29"/>
       <c r="BC29" s="22"/>
     </row>
-    <row r="30" spans="2:55" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:55" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="27"/>
       <c r="C30" s="28"/>
       <c r="D30" s="28"/>
@@ -4914,7 +4926,7 @@
       </c>
       <c r="BC30" s="22"/>
     </row>
-    <row r="31" spans="2:55" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:55" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="27"/>
       <c r="C31" s="28"/>
       <c r="D31" s="28"/>
@@ -4950,7 +4962,7 @@
       <c r="BB31" s="29"/>
       <c r="BC31" s="22"/>
     </row>
-    <row r="32" spans="2:55" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:55" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="27"/>
       <c r="C32" s="28"/>
       <c r="D32" s="28">
@@ -5002,7 +5014,7 @@
       </c>
       <c r="BC32" s="22"/>
     </row>
-    <row r="33" spans="2:55" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:55" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="27"/>
       <c r="C33" s="28"/>
       <c r="D33" s="28"/>
@@ -5034,7 +5046,7 @@
       <c r="BB33" s="29"/>
       <c r="BC33" s="22"/>
     </row>
-    <row r="34" spans="2:55" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:55" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="27"/>
       <c r="C34" s="28"/>
       <c r="D34" s="28"/>
@@ -5076,7 +5088,7 @@
       </c>
       <c r="BC34" s="22"/>
     </row>
-    <row r="35" spans="2:55" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:55" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="27"/>
       <c r="C35" s="28"/>
       <c r="D35" s="28">
@@ -5118,7 +5130,7 @@
       <c r="BB35" s="29"/>
       <c r="BC35" s="22"/>
     </row>
-    <row r="36" spans="2:55" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:55" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="27"/>
       <c r="C36" s="28"/>
       <c r="D36" s="28"/>
@@ -5160,7 +5172,7 @@
       </c>
       <c r="BC36" s="22"/>
     </row>
-    <row r="37" spans="2:55" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:55" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="27"/>
       <c r="C37" s="28"/>
       <c r="D37" s="28"/>
@@ -5192,7 +5204,7 @@
       <c r="BB37" s="29"/>
       <c r="BC37" s="22"/>
     </row>
-    <row r="38" spans="2:55" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:55" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="27">
         <v>3</v>
       </c>
@@ -5259,7 +5271,7 @@
       </c>
       <c r="BC38" s="22"/>
     </row>
-    <row r="39" spans="2:55" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:55" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="27"/>
       <c r="C39" s="28"/>
       <c r="D39" s="28"/>
@@ -5291,7 +5303,7 @@
       <c r="BB39" s="29"/>
       <c r="BC39" s="22"/>
     </row>
-    <row r="40" spans="2:55" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:55" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="27"/>
       <c r="C40" s="28"/>
       <c r="D40" s="28"/>
@@ -5333,7 +5345,7 @@
       </c>
       <c r="BC40" s="22"/>
     </row>
-    <row r="41" spans="2:55" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:55" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="27"/>
       <c r="C41" s="28"/>
       <c r="D41" s="28">
@@ -5375,7 +5387,7 @@
       <c r="BB41" s="29"/>
       <c r="BC41" s="22"/>
     </row>
-    <row r="42" spans="2:55" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:55" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="27"/>
       <c r="C42" s="28"/>
       <c r="D42" s="28"/>
@@ -5417,7 +5429,7 @@
       </c>
       <c r="BC42" s="22"/>
     </row>
-    <row r="43" spans="2:55" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:55" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="27"/>
       <c r="C43" s="28"/>
       <c r="D43" s="28"/>
@@ -5455,7 +5467,7 @@
       <c r="BB43" s="29"/>
       <c r="BC43" s="22"/>
     </row>
-    <row r="44" spans="2:55" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:55" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="27"/>
       <c r="C44" s="28"/>
       <c r="D44" s="28">
@@ -5480,7 +5492,7 @@
       <c r="L44" s="29">
         <v>7</v>
       </c>
-      <c r="M44" s="31">
+      <c r="M44" s="32">
         <v>47.1</v>
       </c>
       <c r="N44" s="30">
@@ -5513,7 +5525,7 @@
       </c>
       <c r="BC44" s="22"/>
     </row>
-    <row r="45" spans="2:55" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:55" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="27"/>
       <c r="C45" s="28"/>
       <c r="D45" s="28"/>
@@ -5528,7 +5540,7 @@
         <v>2.52</v>
       </c>
       <c r="L45" s="29"/>
-      <c r="M45" s="31"/>
+      <c r="M45" s="32"/>
       <c r="N45" s="30"/>
       <c r="AR45" s="27"/>
       <c r="AS45" s="28"/>
@@ -5547,7 +5559,7 @@
       <c r="BB45" s="29"/>
       <c r="BC45" s="22"/>
     </row>
-    <row r="46" spans="2:55" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:55" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="27"/>
       <c r="C46" s="28"/>
       <c r="D46" s="28"/>
@@ -5562,7 +5574,7 @@
         <v>2.52</v>
       </c>
       <c r="L46" s="29"/>
-      <c r="M46" s="31"/>
+      <c r="M46" s="32"/>
       <c r="N46" s="30"/>
       <c r="AR46" s="27"/>
       <c r="AS46" s="28"/>
@@ -5591,7 +5603,7 @@
       </c>
       <c r="BC46" s="22"/>
     </row>
-    <row r="47" spans="2:55" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:55" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="27"/>
       <c r="C47" s="28"/>
       <c r="D47" s="28">
@@ -5616,7 +5628,7 @@
       <c r="L47" s="29">
         <v>8</v>
       </c>
-      <c r="M47" s="32">
+      <c r="M47" s="31">
         <v>47.01</v>
       </c>
       <c r="N47" s="30"/>
@@ -5637,7 +5649,7 @@
       <c r="BB47" s="29"/>
       <c r="BC47" s="22"/>
     </row>
-    <row r="48" spans="2:55" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:55" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="27"/>
       <c r="C48" s="28"/>
       <c r="D48" s="28"/>
@@ -5652,7 +5664,7 @@
         <v>2.52</v>
       </c>
       <c r="L48" s="29"/>
-      <c r="M48" s="32"/>
+      <c r="M48" s="31"/>
       <c r="N48" s="30"/>
       <c r="AR48" s="27"/>
       <c r="AS48" s="28"/>
@@ -5681,7 +5693,7 @@
       </c>
       <c r="BC48" s="22"/>
     </row>
-    <row r="49" spans="2:55" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:55" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="27"/>
       <c r="C49" s="28"/>
       <c r="D49" s="28"/>
@@ -5696,7 +5708,7 @@
         <v>2.48</v>
       </c>
       <c r="L49" s="29"/>
-      <c r="M49" s="32"/>
+      <c r="M49" s="31"/>
       <c r="N49" s="30"/>
       <c r="AR49" s="27"/>
       <c r="AS49" s="28"/>
@@ -5715,7 +5727,7 @@
       <c r="BB49" s="29"/>
       <c r="BC49" s="22"/>
     </row>
-    <row r="50" spans="2:55" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:55" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="27"/>
       <c r="C50" s="28"/>
       <c r="D50" s="28">
@@ -5782,7 +5794,7 @@
       </c>
       <c r="BC50" s="22"/>
     </row>
-    <row r="51" spans="2:55" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:55" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="27"/>
       <c r="C51" s="28"/>
       <c r="D51" s="28"/>
@@ -5814,7 +5826,7 @@
       <c r="BB51" s="29"/>
       <c r="BC51" s="22"/>
     </row>
-    <row r="52" spans="2:55" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:55" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="27"/>
       <c r="C52" s="28"/>
       <c r="D52" s="28"/>
@@ -5856,7 +5868,7 @@
       </c>
       <c r="BC52" s="22"/>
     </row>
-    <row r="53" spans="2:55" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:55" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="27"/>
       <c r="C53" s="28"/>
       <c r="D53" s="28">
@@ -5898,7 +5910,7 @@
       <c r="BB53" s="29"/>
       <c r="BC53" s="22"/>
     </row>
-    <row r="54" spans="2:55" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:55" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="27"/>
       <c r="C54" s="28"/>
       <c r="D54" s="28"/>
@@ -5940,7 +5952,7 @@
       </c>
       <c r="BC54" s="22"/>
     </row>
-    <row r="55" spans="2:55" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:55" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="27"/>
       <c r="C55" s="28"/>
       <c r="D55" s="28"/>
@@ -5972,7 +5984,7 @@
       <c r="BB55" s="29"/>
       <c r="BC55" s="22"/>
     </row>
-    <row r="56" spans="2:55" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:55" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="27">
         <v>4</v>
       </c>
@@ -6029,7 +6041,7 @@
       </c>
       <c r="BC56" s="22"/>
     </row>
-    <row r="57" spans="2:55" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:55" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="27"/>
       <c r="C57" s="28"/>
       <c r="D57" s="28"/>
@@ -6061,7 +6073,7 @@
       <c r="BB57" s="29"/>
       <c r="BC57" s="22"/>
     </row>
-    <row r="58" spans="2:55" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:55" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="27"/>
       <c r="C58" s="28"/>
       <c r="D58" s="28"/>
@@ -6103,7 +6115,7 @@
       </c>
       <c r="BC58" s="22"/>
     </row>
-    <row r="59" spans="2:55" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:55" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="27"/>
       <c r="C59" s="28"/>
       <c r="D59" s="28">
@@ -6145,7 +6157,7 @@
       <c r="BB59" s="29"/>
       <c r="BC59" s="22"/>
     </row>
-    <row r="60" spans="2:55" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:55" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60" s="27"/>
       <c r="C60" s="28"/>
       <c r="D60" s="28"/>
@@ -6187,7 +6199,7 @@
       </c>
       <c r="BC60" s="22"/>
     </row>
-    <row r="61" spans="2:55" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:55" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="27"/>
       <c r="C61" s="28"/>
       <c r="D61" s="28"/>
@@ -6219,7 +6231,7 @@
       <c r="BB61" s="29"/>
       <c r="BC61" s="22"/>
     </row>
-    <row r="62" spans="2:55" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:55" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62" s="27"/>
       <c r="C62" s="28"/>
       <c r="D62" s="28">
@@ -6281,7 +6293,7 @@
       </c>
       <c r="BC62" s="22"/>
     </row>
-    <row r="63" spans="2:55" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:55" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" s="27"/>
       <c r="C63" s="28"/>
       <c r="D63" s="28"/>
@@ -6313,7 +6325,7 @@
       <c r="BB63" s="29"/>
       <c r="BC63" s="22"/>
     </row>
-    <row r="64" spans="2:55" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:55" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="27"/>
       <c r="C64" s="28"/>
       <c r="D64" s="28"/>
@@ -6355,7 +6367,7 @@
       </c>
       <c r="BC64" s="22"/>
     </row>
-    <row r="65" spans="2:55" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:55" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65" s="27"/>
       <c r="C65" s="28"/>
       <c r="D65" s="28">
@@ -6397,7 +6409,7 @@
       <c r="BB65" s="29"/>
       <c r="BC65" s="22"/>
     </row>
-    <row r="66" spans="2:55" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:55" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="27"/>
       <c r="C66" s="28"/>
       <c r="D66" s="28"/>
@@ -6439,7 +6451,7 @@
       </c>
       <c r="BC66" s="22"/>
     </row>
-    <row r="67" spans="2:55" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:55" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B67" s="27"/>
       <c r="C67" s="28"/>
       <c r="D67" s="28"/>
@@ -6477,7 +6489,7 @@
       <c r="BB67" s="29"/>
       <c r="BC67" s="22"/>
     </row>
-    <row r="68" spans="2:55" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:55" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B68" s="27"/>
       <c r="C68" s="28"/>
       <c r="D68" s="28">
@@ -6502,7 +6514,7 @@
       <c r="L68" s="29">
         <v>7</v>
       </c>
-      <c r="M68" s="31">
+      <c r="M68" s="32">
         <v>46.79</v>
       </c>
       <c r="N68" s="30">
@@ -6535,7 +6547,7 @@
       </c>
       <c r="BC68" s="22"/>
     </row>
-    <row r="69" spans="2:55" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:55" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69" s="27"/>
       <c r="C69" s="28"/>
       <c r="D69" s="28"/>
@@ -6550,7 +6562,7 @@
         <v>2.54</v>
       </c>
       <c r="L69" s="29"/>
-      <c r="M69" s="31"/>
+      <c r="M69" s="32"/>
       <c r="N69" s="30"/>
       <c r="AR69" s="27"/>
       <c r="AS69" s="28"/>
@@ -6569,7 +6581,7 @@
       <c r="BB69" s="29"/>
       <c r="BC69" s="22"/>
     </row>
-    <row r="70" spans="2:55" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:55" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="27"/>
       <c r="C70" s="28"/>
       <c r="D70" s="28"/>
@@ -6584,7 +6596,7 @@
         <v>2.5099999999999998</v>
       </c>
       <c r="L70" s="29"/>
-      <c r="M70" s="31"/>
+      <c r="M70" s="32"/>
       <c r="N70" s="30"/>
       <c r="AR70" s="27"/>
       <c r="AS70" s="28"/>
@@ -6613,7 +6625,7 @@
       </c>
       <c r="BC70" s="22"/>
     </row>
-    <row r="71" spans="2:55" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:55" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71" s="27"/>
       <c r="C71" s="28"/>
       <c r="D71" s="28">
@@ -6638,7 +6650,7 @@
       <c r="L71" s="29">
         <v>8</v>
       </c>
-      <c r="M71" s="32">
+      <c r="M71" s="31">
         <v>47.02</v>
       </c>
       <c r="N71" s="30"/>
@@ -6659,7 +6671,7 @@
       <c r="BB71" s="29"/>
       <c r="BC71" s="22"/>
     </row>
-    <row r="72" spans="2:55" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:55" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B72" s="27"/>
       <c r="C72" s="28"/>
       <c r="D72" s="28"/>
@@ -6674,7 +6686,7 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="L72" s="29"/>
-      <c r="M72" s="32"/>
+      <c r="M72" s="31"/>
       <c r="N72" s="30"/>
       <c r="AR72" s="27"/>
       <c r="AS72" s="28"/>
@@ -6703,7 +6715,7 @@
       </c>
       <c r="BC72" s="22"/>
     </row>
-    <row r="73" spans="2:55" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:55" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B73" s="27"/>
       <c r="C73" s="28"/>
       <c r="D73" s="28"/>
@@ -6718,7 +6730,7 @@
         <v>2.52</v>
       </c>
       <c r="L73" s="29"/>
-      <c r="M73" s="32"/>
+      <c r="M73" s="31"/>
       <c r="N73" s="30"/>
       <c r="AR73" s="27"/>
       <c r="AS73" s="28"/>
@@ -6737,7 +6749,7 @@
       <c r="BB73" s="29"/>
       <c r="BC73" s="22"/>
     </row>
-    <row r="74" spans="2:55" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:55" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B74" s="27">
         <v>5</v>
       </c>
@@ -6790,7 +6802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:55" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:55" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="27"/>
       <c r="C75" s="28"/>
       <c r="D75" s="28"/>
@@ -6813,7 +6825,7 @@
       </c>
       <c r="BB75" s="29"/>
     </row>
-    <row r="76" spans="2:55" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:55" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B76" s="27"/>
       <c r="C76" s="28"/>
       <c r="D76" s="28"/>
@@ -6841,7 +6853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="2:55" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:55" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B77" s="27"/>
       <c r="C77" s="28"/>
       <c r="D77" s="28">
@@ -6874,7 +6886,7 @@
       </c>
       <c r="BB77" s="29"/>
     </row>
-    <row r="78" spans="2:55" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:55" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B78" s="27"/>
       <c r="C78" s="28"/>
       <c r="D78" s="28"/>
@@ -6902,7 +6914,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="2:55" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:55" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="27"/>
       <c r="C79" s="28"/>
       <c r="D79" s="28"/>
@@ -6929,7 +6941,7 @@
       </c>
       <c r="BB79" s="29"/>
     </row>
-    <row r="80" spans="2:55" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:55" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B80" s="27"/>
       <c r="C80" s="28"/>
       <c r="D80" s="28">
@@ -6967,7 +6979,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="2:54" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:54" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B81" s="27"/>
       <c r="C81" s="28"/>
       <c r="D81" s="28"/>
@@ -6990,7 +7002,7 @@
       </c>
       <c r="BB81" s="29"/>
     </row>
-    <row r="82" spans="2:54" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:54" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B82" s="27"/>
       <c r="C82" s="28"/>
       <c r="D82" s="28"/>
@@ -7018,7 +7030,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="2:54" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:54" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B83" s="27"/>
       <c r="C83" s="28"/>
       <c r="D83" s="28">
@@ -7051,7 +7063,7 @@
       </c>
       <c r="BB83" s="29"/>
     </row>
-    <row r="84" spans="2:54" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:54" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B84" s="27"/>
       <c r="C84" s="28"/>
       <c r="D84" s="28"/>
@@ -7079,7 +7091,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="2:54" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:54" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B85" s="27"/>
       <c r="C85" s="28"/>
       <c r="D85" s="28"/>
@@ -7102,7 +7114,7 @@
       </c>
       <c r="BB85" s="29"/>
     </row>
-    <row r="86" spans="2:54" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:54" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B86" s="27"/>
       <c r="C86" s="28"/>
       <c r="D86" s="28">
@@ -7145,7 +7157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:54" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:54" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B87" s="27"/>
       <c r="C87" s="28"/>
       <c r="D87" s="28"/>
@@ -7168,7 +7180,7 @@
       </c>
       <c r="BB87" s="29"/>
     </row>
-    <row r="88" spans="2:54" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:54" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B88" s="27"/>
       <c r="C88" s="28"/>
       <c r="D88" s="28"/>
@@ -7196,7 +7208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="2:54" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:54" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B89" s="27"/>
       <c r="C89" s="28"/>
       <c r="D89" s="28">
@@ -7229,7 +7241,7 @@
       </c>
       <c r="BB89" s="29"/>
     </row>
-    <row r="90" spans="2:54" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:54" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B90" s="27"/>
       <c r="C90" s="28"/>
       <c r="D90" s="28"/>
@@ -7257,7 +7269,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="2:54" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:54" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B91" s="27"/>
       <c r="C91" s="28"/>
       <c r="D91" s="28"/>
@@ -7286,7 +7298,7 @@
       </c>
       <c r="BB91" s="29"/>
     </row>
-    <row r="92" spans="2:54" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:54" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B92" s="27">
         <v>6</v>
       </c>
@@ -7316,7 +7328,7 @@
       <c r="L92" s="29">
         <v>7</v>
       </c>
-      <c r="M92" s="31">
+      <c r="M92" s="32">
         <v>47.08</v>
       </c>
       <c r="N92" s="30">
@@ -7335,7 +7347,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="2:54" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:54" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B93" s="27"/>
       <c r="C93" s="28"/>
       <c r="D93" s="28"/>
@@ -7350,7 +7362,7 @@
         <v>2.5299999999999998</v>
       </c>
       <c r="L93" s="29"/>
-      <c r="M93" s="31"/>
+      <c r="M93" s="32"/>
       <c r="N93" s="30"/>
       <c r="AX93" s="27"/>
       <c r="AY93" s="28"/>
@@ -7360,7 +7372,7 @@
       </c>
       <c r="BB93" s="29"/>
     </row>
-    <row r="94" spans="2:54" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:54" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B94" s="27"/>
       <c r="C94" s="28"/>
       <c r="D94" s="28"/>
@@ -7375,7 +7387,7 @@
         <v>2.4700000000000002</v>
       </c>
       <c r="L94" s="29"/>
-      <c r="M94" s="31"/>
+      <c r="M94" s="32"/>
       <c r="N94" s="30"/>
       <c r="AX94" s="27"/>
       <c r="AY94" s="28"/>
@@ -7390,7 +7402,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="2:54" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:54" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B95" s="27"/>
       <c r="C95" s="28"/>
       <c r="D95" s="28">
@@ -7415,7 +7427,7 @@
       <c r="L95" s="29">
         <v>8</v>
       </c>
-      <c r="M95" s="32">
+      <c r="M95" s="31">
         <v>47.04</v>
       </c>
       <c r="N95" s="30"/>
@@ -7427,7 +7439,7 @@
       </c>
       <c r="BB95" s="29"/>
     </row>
-    <row r="96" spans="2:54" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:54" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B96" s="27"/>
       <c r="C96" s="28"/>
       <c r="D96" s="28"/>
@@ -7442,7 +7454,7 @@
         <v>2.54</v>
       </c>
       <c r="L96" s="29"/>
-      <c r="M96" s="32"/>
+      <c r="M96" s="31"/>
       <c r="N96" s="30"/>
       <c r="AX96" s="27"/>
       <c r="AY96" s="28"/>
@@ -7457,7 +7469,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="2:54" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:54" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B97" s="27"/>
       <c r="C97" s="28"/>
       <c r="D97" s="28"/>
@@ -7472,7 +7484,7 @@
         <v>2.4900000000000002</v>
       </c>
       <c r="L97" s="29"/>
-      <c r="M97" s="32"/>
+      <c r="M97" s="31"/>
       <c r="N97" s="30"/>
       <c r="AX97" s="27"/>
       <c r="AY97" s="28"/>
@@ -7482,7 +7494,7 @@
       </c>
       <c r="BB97" s="29"/>
     </row>
-    <row r="98" spans="2:54" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:54" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B98" s="27"/>
       <c r="C98" s="28"/>
       <c r="D98" s="28">
@@ -7530,7 +7542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="2:54" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:54" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B99" s="27"/>
       <c r="C99" s="28"/>
       <c r="D99" s="28"/>
@@ -7553,7 +7565,7 @@
       </c>
       <c r="BB99" s="29"/>
     </row>
-    <row r="100" spans="2:54" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:54" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B100" s="27"/>
       <c r="C100" s="28"/>
       <c r="D100" s="28"/>
@@ -7581,7 +7593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="2:54" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:54" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B101" s="27"/>
       <c r="C101" s="28"/>
       <c r="D101" s="28">
@@ -7614,7 +7626,7 @@
       </c>
       <c r="BB101" s="29"/>
     </row>
-    <row r="102" spans="2:54" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:54" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B102" s="27"/>
       <c r="C102" s="28"/>
       <c r="D102" s="28"/>
@@ -7642,7 +7654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="2:54" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:54" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B103" s="27"/>
       <c r="C103" s="28"/>
       <c r="D103" s="28"/>
@@ -7665,7 +7677,7 @@
       </c>
       <c r="BB103" s="29"/>
     </row>
-    <row r="104" spans="2:54" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:54" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B104" s="27"/>
       <c r="C104" s="28"/>
       <c r="D104" s="28">
@@ -7703,7 +7715,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="2:54" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:54" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B105" s="27"/>
       <c r="C105" s="28"/>
       <c r="D105" s="28"/>
@@ -7726,7 +7738,7 @@
       </c>
       <c r="BB105" s="29"/>
     </row>
-    <row r="106" spans="2:54" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:54" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B106" s="27"/>
       <c r="C106" s="28"/>
       <c r="D106" s="28"/>
@@ -7754,7 +7766,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="2:54" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:54" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B107" s="27"/>
       <c r="C107" s="28"/>
       <c r="D107" s="28">
@@ -7787,7 +7799,7 @@
       </c>
       <c r="BB107" s="29"/>
     </row>
-    <row r="108" spans="2:54" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:54" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B108" s="27"/>
       <c r="C108" s="28"/>
       <c r="D108" s="28"/>
@@ -7815,7 +7827,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="109" spans="2:54" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:54" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B109" s="27"/>
       <c r="C109" s="28"/>
       <c r="D109" s="28"/>
@@ -7838,7 +7850,7 @@
       </c>
       <c r="BB109" s="29"/>
     </row>
-    <row r="110" spans="2:54" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:54" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F110" s="10"/>
       <c r="H110" s="27"/>
       <c r="I110" s="28"/>
@@ -7870,7 +7882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="2:54" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:54" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F111" s="10"/>
       <c r="H111" s="27"/>
       <c r="I111" s="28"/>
@@ -7887,7 +7899,7 @@
       </c>
       <c r="BB111" s="29"/>
     </row>
-    <row r="112" spans="2:54" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:54" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F112" s="10"/>
       <c r="H112" s="27"/>
       <c r="I112" s="28"/>
@@ -7909,7 +7921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="3:54" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:54" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C113" s="14">
         <f>AVERAGE(C2:C109)</f>
         <v>2.6406481481481485</v>
@@ -7940,7 +7952,7 @@
       </c>
       <c r="BB113" s="29"/>
     </row>
-    <row r="114" spans="3:54" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:54" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F114" s="10"/>
       <c r="H114" s="27"/>
       <c r="I114" s="28"/>
@@ -7962,7 +7974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="3:54" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:54" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F115" s="10"/>
       <c r="H115" s="27"/>
       <c r="I115" s="28"/>
@@ -7985,7 +7997,7 @@
       </c>
       <c r="BB115" s="29"/>
     </row>
-    <row r="116" spans="3:54" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:54" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F116" s="10"/>
       <c r="H116" s="27"/>
       <c r="I116" s="28"/>
@@ -7999,7 +8011,7 @@
       <c r="L116" s="29">
         <v>7</v>
       </c>
-      <c r="M116" s="31">
+      <c r="M116" s="32">
         <v>47.06</v>
       </c>
       <c r="N116" s="30">
@@ -8018,7 +8030,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="3:54" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:54" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F117" s="10"/>
       <c r="H117" s="27"/>
       <c r="I117" s="28"/>
@@ -8027,7 +8039,7 @@
         <v>2.54</v>
       </c>
       <c r="L117" s="29"/>
-      <c r="M117" s="31"/>
+      <c r="M117" s="32"/>
       <c r="N117" s="30"/>
       <c r="AX117" s="27"/>
       <c r="AY117" s="28"/>
@@ -8037,7 +8049,7 @@
       </c>
       <c r="BB117" s="29"/>
     </row>
-    <row r="118" spans="3:54" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:54" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F118" s="10"/>
       <c r="H118" s="27"/>
       <c r="I118" s="28"/>
@@ -8046,7 +8058,7 @@
         <v>2.5299999999999998</v>
       </c>
       <c r="L118" s="29"/>
-      <c r="M118" s="31"/>
+      <c r="M118" s="32"/>
       <c r="N118" s="30"/>
       <c r="AX118" s="27"/>
       <c r="AY118" s="28"/>
@@ -8061,7 +8073,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="3:54" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:54" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H119" s="27"/>
       <c r="I119" s="28"/>
       <c r="J119" s="28">
@@ -8074,7 +8086,7 @@
       <c r="L119" s="29">
         <v>8</v>
       </c>
-      <c r="M119" s="32">
+      <c r="M119" s="31">
         <v>46.81</v>
       </c>
       <c r="N119" s="30"/>
@@ -8086,7 +8098,7 @@
       </c>
       <c r="BB119" s="29"/>
     </row>
-    <row r="120" spans="3:54" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:54" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H120" s="27"/>
       <c r="I120" s="28"/>
       <c r="J120" s="28"/>
@@ -8094,7 +8106,7 @@
         <v>2.5299999999999998</v>
       </c>
       <c r="L120" s="29"/>
-      <c r="M120" s="32"/>
+      <c r="M120" s="31"/>
       <c r="N120" s="30"/>
       <c r="AX120" s="27"/>
       <c r="AY120" s="28"/>
@@ -8109,7 +8121,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="3:54" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:54" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H121" s="27"/>
       <c r="I121" s="28"/>
       <c r="J121" s="28"/>
@@ -8117,7 +8129,7 @@
         <v>2.52</v>
       </c>
       <c r="L121" s="29"/>
-      <c r="M121" s="32"/>
+      <c r="M121" s="31"/>
       <c r="N121" s="30"/>
       <c r="AX121" s="27"/>
       <c r="AY121" s="28"/>
@@ -8127,7 +8139,7 @@
       </c>
       <c r="BB121" s="29"/>
     </row>
-    <row r="122" spans="3:54" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:54" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H122" s="27">
         <v>6</v>
       </c>
@@ -8163,7 +8175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="3:54" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:54" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H123" s="27"/>
       <c r="I123" s="28"/>
       <c r="J123" s="28"/>
@@ -8179,7 +8191,7 @@
       </c>
       <c r="BB123" s="29"/>
     </row>
-    <row r="124" spans="3:54" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:54" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H124" s="27"/>
       <c r="I124" s="28"/>
       <c r="J124" s="28"/>
@@ -8200,7 +8212,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="3:54" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:54" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H125" s="27"/>
       <c r="I125" s="28"/>
       <c r="J125" s="28">
@@ -8221,7 +8233,7 @@
       </c>
       <c r="BB125" s="29"/>
     </row>
-    <row r="126" spans="3:54" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:54" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H126" s="27"/>
       <c r="I126" s="28"/>
       <c r="J126" s="28"/>
@@ -8242,7 +8254,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="3:54" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:54" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H127" s="27"/>
       <c r="I127" s="28"/>
       <c r="J127" s="28"/>
@@ -8258,7 +8270,7 @@
       </c>
       <c r="BB127" s="29"/>
     </row>
-    <row r="128" spans="3:54" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:54" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H128" s="27"/>
       <c r="I128" s="28"/>
       <c r="J128" s="28">
@@ -8284,7 +8296,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="8:54" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="8:54" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H129" s="27"/>
       <c r="I129" s="28"/>
       <c r="J129" s="28"/>
@@ -8300,7 +8312,7 @@
       </c>
       <c r="BB129" s="29"/>
     </row>
-    <row r="130" spans="8:54" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="8:54" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H130" s="27"/>
       <c r="I130" s="28"/>
       <c r="J130" s="28"/>
@@ -8321,7 +8333,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="8:54" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="8:54" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H131" s="27"/>
       <c r="I131" s="28"/>
       <c r="J131" s="28">
@@ -8342,7 +8354,7 @@
       </c>
       <c r="BB131" s="29"/>
     </row>
-    <row r="132" spans="8:54" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="8:54" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H132" s="27"/>
       <c r="I132" s="28"/>
       <c r="J132" s="28"/>
@@ -8363,7 +8375,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="133" spans="8:54" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="8:54" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H133" s="27"/>
       <c r="I133" s="28"/>
       <c r="J133" s="28"/>
@@ -8379,7 +8391,7 @@
       </c>
       <c r="BB133" s="29"/>
     </row>
-    <row r="134" spans="8:54" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="8:54" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H134" s="27"/>
       <c r="I134" s="28"/>
       <c r="J134" s="28">
@@ -8410,7 +8422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="8:54" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="8:54" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H135" s="27"/>
       <c r="I135" s="28"/>
       <c r="J135" s="28"/>
@@ -8426,7 +8438,7 @@
       </c>
       <c r="BB135" s="29"/>
     </row>
-    <row r="136" spans="8:54" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="8:54" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H136" s="27"/>
       <c r="I136" s="28"/>
       <c r="J136" s="28"/>
@@ -8447,7 +8459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="8:54" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="8:54" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H137" s="27"/>
       <c r="I137" s="28"/>
       <c r="J137" s="28">
@@ -8468,7 +8480,7 @@
       </c>
       <c r="BB137" s="29"/>
     </row>
-    <row r="138" spans="8:54" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="8:54" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H138" s="27"/>
       <c r="I138" s="28"/>
       <c r="J138" s="28"/>
@@ -8489,7 +8501,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="8:54" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="8:54" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H139" s="27"/>
       <c r="I139" s="28"/>
       <c r="J139" s="28"/>
@@ -8511,7 +8523,7 @@
       </c>
       <c r="BB139" s="29"/>
     </row>
-    <row r="140" spans="8:54" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="8:54" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H140" s="27"/>
       <c r="I140" s="28"/>
       <c r="J140" s="28">
@@ -8524,7 +8536,7 @@
       <c r="L140" s="29">
         <v>7</v>
       </c>
-      <c r="M140" s="31">
+      <c r="M140" s="32">
         <v>47.01</v>
       </c>
       <c r="N140" s="30">
@@ -8543,7 +8555,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="8:54" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="8:54" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H141" s="27"/>
       <c r="I141" s="28"/>
       <c r="J141" s="28"/>
@@ -8551,7 +8563,7 @@
         <v>2.5099999999999998</v>
       </c>
       <c r="L141" s="29"/>
-      <c r="M141" s="31"/>
+      <c r="M141" s="32"/>
       <c r="N141" s="30"/>
       <c r="AX141" s="27"/>
       <c r="AY141" s="28"/>
@@ -8561,7 +8573,7 @@
       </c>
       <c r="BB141" s="29"/>
     </row>
-    <row r="142" spans="8:54" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="8:54" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H142" s="27"/>
       <c r="I142" s="28"/>
       <c r="J142" s="28"/>
@@ -8569,7 +8581,7 @@
         <v>2.5299999999999998</v>
       </c>
       <c r="L142" s="29"/>
-      <c r="M142" s="31"/>
+      <c r="M142" s="32"/>
       <c r="N142" s="30"/>
       <c r="AX142" s="27"/>
       <c r="AY142" s="28"/>
@@ -8584,7 +8596,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="8:54" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="8:54" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H143" s="27"/>
       <c r="I143" s="28"/>
       <c r="J143" s="28">
@@ -8597,7 +8609,7 @@
       <c r="L143" s="29">
         <v>8</v>
       </c>
-      <c r="M143" s="32">
+      <c r="M143" s="31">
         <v>46.96</v>
       </c>
       <c r="N143" s="30"/>
@@ -8609,7 +8621,7 @@
       </c>
       <c r="BB143" s="29"/>
     </row>
-    <row r="144" spans="8:54" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="8:54" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H144" s="27"/>
       <c r="I144" s="28"/>
       <c r="J144" s="28"/>
@@ -8617,7 +8629,7 @@
         <v>2.54</v>
       </c>
       <c r="L144" s="29"/>
-      <c r="M144" s="32"/>
+      <c r="M144" s="31"/>
       <c r="N144" s="30"/>
       <c r="AX144" s="27"/>
       <c r="AY144" s="28"/>
@@ -8632,7 +8644,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="145" spans="8:54" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="8:54" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H145" s="27"/>
       <c r="I145" s="28"/>
       <c r="J145" s="28"/>
@@ -8640,7 +8652,7 @@
         <v>2.5099999999999998</v>
       </c>
       <c r="L145" s="29"/>
-      <c r="M145" s="32"/>
+      <c r="M145" s="31"/>
       <c r="N145" s="30"/>
       <c r="AX145" s="27"/>
       <c r="AY145" s="28"/>
@@ -8650,7 +8662,7 @@
       </c>
       <c r="BB145" s="29"/>
     </row>
-    <row r="146" spans="8:54" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="8:54" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H146" s="27">
         <v>7</v>
       </c>
@@ -8686,7 +8698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="8:54" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="8:54" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H147" s="27"/>
       <c r="I147" s="28"/>
       <c r="J147" s="28"/>
@@ -8702,7 +8714,7 @@
       </c>
       <c r="BB147" s="29"/>
     </row>
-    <row r="148" spans="8:54" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="8:54" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H148" s="27"/>
       <c r="I148" s="28"/>
       <c r="J148" s="28"/>
@@ -8723,7 +8735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="8:54" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="8:54" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H149" s="27"/>
       <c r="I149" s="28"/>
       <c r="J149" s="28">
@@ -8744,7 +8756,7 @@
       </c>
       <c r="BB149" s="29"/>
     </row>
-    <row r="150" spans="8:54" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="8:54" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H150" s="27"/>
       <c r="I150" s="28"/>
       <c r="J150" s="28"/>
@@ -8765,7 +8777,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="8:54" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="8:54" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H151" s="27"/>
       <c r="I151" s="28"/>
       <c r="J151" s="28"/>
@@ -8781,7 +8793,7 @@
       </c>
       <c r="BB151" s="29"/>
     </row>
-    <row r="152" spans="8:54" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="8:54" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H152" s="27"/>
       <c r="I152" s="28"/>
       <c r="J152" s="28">
@@ -8807,7 +8819,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="8:54" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="8:54" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H153" s="27"/>
       <c r="I153" s="28"/>
       <c r="J153" s="28"/>
@@ -8823,7 +8835,7 @@
       </c>
       <c r="BB153" s="29"/>
     </row>
-    <row r="154" spans="8:54" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="8:54" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H154" s="27"/>
       <c r="I154" s="28"/>
       <c r="J154" s="28"/>
@@ -8844,7 +8856,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="8:54" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="8:54" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H155" s="27"/>
       <c r="I155" s="28"/>
       <c r="J155" s="28">
@@ -8865,7 +8877,7 @@
       </c>
       <c r="BB155" s="29"/>
     </row>
-    <row r="156" spans="8:54" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="8:54" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H156" s="27"/>
       <c r="I156" s="28"/>
       <c r="J156" s="28"/>
@@ -8886,7 +8898,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="157" spans="8:54" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="8:54" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H157" s="27"/>
       <c r="I157" s="28"/>
       <c r="J157" s="28"/>
@@ -8902,7 +8914,7 @@
       </c>
       <c r="BB157" s="29"/>
     </row>
-    <row r="158" spans="8:54" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="8:54" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H158" s="27"/>
       <c r="I158" s="28"/>
       <c r="J158" s="28">
@@ -8917,7 +8929,7 @@
       </c>
       <c r="BA158" s="7"/>
     </row>
-    <row r="159" spans="8:54" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="8:54" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H159" s="27"/>
       <c r="I159" s="28"/>
       <c r="J159" s="28"/>
@@ -8926,7 +8938,7 @@
       </c>
       <c r="L159" s="29"/>
     </row>
-    <row r="160" spans="8:54" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="8:54" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H160" s="27"/>
       <c r="I160" s="28"/>
       <c r="J160" s="28"/>
@@ -8935,7 +8947,7 @@
       </c>
       <c r="L160" s="29"/>
     </row>
-    <row r="161" spans="8:53" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="8:53" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H161" s="27"/>
       <c r="I161" s="28"/>
       <c r="J161" s="28">
@@ -8949,7 +8961,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="162" spans="8:53" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="8:53" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H162" s="27"/>
       <c r="I162" s="28"/>
       <c r="J162" s="28"/>
@@ -8958,7 +8970,7 @@
       </c>
       <c r="L162" s="29"/>
     </row>
-    <row r="163" spans="8:53" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="8:53" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H163" s="27"/>
       <c r="I163" s="28"/>
       <c r="J163" s="28"/>
@@ -8982,7 +8994,7 @@
         <v>15.127307692307681</v>
       </c>
     </row>
-    <row r="164" spans="8:53" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="8:53" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H164" s="27"/>
       <c r="I164" s="28"/>
       <c r="J164" s="28">
@@ -8995,10 +9007,10 @@
       <c r="L164" s="29">
         <v>7</v>
       </c>
-      <c r="M164" s="31"/>
+      <c r="M164" s="32"/>
       <c r="N164" s="30"/>
     </row>
-    <row r="165" spans="8:53" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="8:53" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H165" s="27"/>
       <c r="I165" s="28"/>
       <c r="J165" s="28"/>
@@ -9006,10 +9018,10 @@
         <v>2.5299999999999998</v>
       </c>
       <c r="L165" s="29"/>
-      <c r="M165" s="31"/>
+      <c r="M165" s="32"/>
       <c r="N165" s="30"/>
     </row>
-    <row r="166" spans="8:53" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="8:53" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H166" s="27"/>
       <c r="I166" s="28"/>
       <c r="J166" s="28"/>
@@ -9017,10 +9029,10 @@
         <v>2.5</v>
       </c>
       <c r="L166" s="29"/>
-      <c r="M166" s="31"/>
+      <c r="M166" s="32"/>
       <c r="N166" s="30"/>
     </row>
-    <row r="167" spans="8:53" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="8:53" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H167" s="27"/>
       <c r="I167" s="28"/>
       <c r="J167" s="28">
@@ -9033,10 +9045,10 @@
       <c r="L167" s="29">
         <v>8</v>
       </c>
-      <c r="M167" s="32"/>
+      <c r="M167" s="31"/>
       <c r="N167" s="30"/>
     </row>
-    <row r="168" spans="8:53" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="8:53" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H168" s="27"/>
       <c r="I168" s="28"/>
       <c r="J168" s="28"/>
@@ -9044,10 +9056,10 @@
         <v>2.52</v>
       </c>
       <c r="L168" s="29"/>
-      <c r="M168" s="32"/>
+      <c r="M168" s="31"/>
       <c r="N168" s="30"/>
     </row>
-    <row r="169" spans="8:53" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="8:53" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H169" s="27"/>
       <c r="I169" s="28"/>
       <c r="J169" s="28"/>
@@ -9055,10 +9067,10 @@
         <v>2.48</v>
       </c>
       <c r="L169" s="29"/>
-      <c r="M169" s="32"/>
+      <c r="M169" s="31"/>
       <c r="N169" s="30"/>
     </row>
-    <row r="170" spans="8:53" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="8:53" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H170" s="27">
         <v>8</v>
       </c>
@@ -9077,7 +9089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="8:53" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="8:53" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H171" s="27"/>
       <c r="I171" s="28"/>
       <c r="J171" s="28"/>
@@ -9086,7 +9098,7 @@
       </c>
       <c r="L171" s="29"/>
     </row>
-    <row r="172" spans="8:53" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="8:53" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H172" s="27"/>
       <c r="I172" s="28"/>
       <c r="J172" s="28"/>
@@ -9095,7 +9107,7 @@
       </c>
       <c r="L172" s="29"/>
     </row>
-    <row r="173" spans="8:53" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="8:53" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H173" s="27"/>
       <c r="I173" s="28"/>
       <c r="J173" s="28">
@@ -9109,7 +9121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="8:53" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="8:53" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H174" s="27"/>
       <c r="I174" s="28"/>
       <c r="J174" s="28"/>
@@ -9118,7 +9130,7 @@
       </c>
       <c r="L174" s="29"/>
     </row>
-    <row r="175" spans="8:53" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="8:53" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H175" s="27"/>
       <c r="I175" s="28"/>
       <c r="J175" s="28"/>
@@ -9127,7 +9139,7 @@
       </c>
       <c r="L175" s="29"/>
     </row>
-    <row r="176" spans="8:53" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="8:53" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H176" s="27"/>
       <c r="I176" s="28"/>
       <c r="J176" s="28">
@@ -9141,7 +9153,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H177" s="27"/>
       <c r="I177" s="28"/>
       <c r="J177" s="28"/>
@@ -9150,7 +9162,7 @@
       </c>
       <c r="L177" s="29"/>
     </row>
-    <row r="178" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H178" s="27"/>
       <c r="I178" s="28"/>
       <c r="J178" s="28"/>
@@ -9159,7 +9171,7 @@
       </c>
       <c r="L178" s="29"/>
     </row>
-    <row r="179" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H179" s="27"/>
       <c r="I179" s="28"/>
       <c r="J179" s="28">
@@ -9173,7 +9185,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H180" s="27"/>
       <c r="I180" s="28"/>
       <c r="J180" s="28"/>
@@ -9182,7 +9194,7 @@
       </c>
       <c r="L180" s="29"/>
     </row>
-    <row r="181" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H181" s="27"/>
       <c r="I181" s="28"/>
       <c r="J181" s="28"/>
@@ -9191,7 +9203,7 @@
       </c>
       <c r="L181" s="29"/>
     </row>
-    <row r="182" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H182" s="27"/>
       <c r="I182" s="28"/>
       <c r="J182" s="28">
@@ -9205,7 +9217,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H183" s="27"/>
       <c r="I183" s="28"/>
       <c r="J183" s="28"/>
@@ -9214,7 +9226,7 @@
       </c>
       <c r="L183" s="29"/>
     </row>
-    <row r="184" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H184" s="27"/>
       <c r="I184" s="28"/>
       <c r="J184" s="28"/>
@@ -9223,7 +9235,7 @@
       </c>
       <c r="L184" s="29"/>
     </row>
-    <row r="185" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H185" s="27"/>
       <c r="I185" s="28"/>
       <c r="J185" s="28">
@@ -9237,7 +9249,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="186" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H186" s="27"/>
       <c r="I186" s="28"/>
       <c r="J186" s="28"/>
@@ -9246,7 +9258,7 @@
       </c>
       <c r="L186" s="29"/>
     </row>
-    <row r="187" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H187" s="27"/>
       <c r="I187" s="28"/>
       <c r="J187" s="28"/>
@@ -9261,7 +9273,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="188" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H188" s="27"/>
       <c r="I188" s="28"/>
       <c r="J188" s="28">
@@ -9274,10 +9286,10 @@
       <c r="L188" s="29">
         <v>7</v>
       </c>
-      <c r="M188" s="31"/>
+      <c r="M188" s="32"/>
       <c r="N188" s="30"/>
     </row>
-    <row r="189" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H189" s="27"/>
       <c r="I189" s="28"/>
       <c r="J189" s="28"/>
@@ -9285,10 +9297,10 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="L189" s="29"/>
-      <c r="M189" s="31"/>
+      <c r="M189" s="32"/>
       <c r="N189" s="30"/>
     </row>
-    <row r="190" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H190" s="27"/>
       <c r="I190" s="28"/>
       <c r="J190" s="28"/>
@@ -9296,10 +9308,10 @@
         <v>2.44</v>
       </c>
       <c r="L190" s="29"/>
-      <c r="M190" s="31"/>
+      <c r="M190" s="32"/>
       <c r="N190" s="30"/>
     </row>
-    <row r="191" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H191" s="27"/>
       <c r="I191" s="28"/>
       <c r="J191" s="28">
@@ -9312,10 +9324,10 @@
       <c r="L191" s="29">
         <v>8</v>
       </c>
-      <c r="M191" s="32"/>
+      <c r="M191" s="31"/>
       <c r="N191" s="30"/>
     </row>
-    <row r="192" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H192" s="27"/>
       <c r="I192" s="28"/>
       <c r="J192" s="28"/>
@@ -9323,10 +9335,10 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="L192" s="29"/>
-      <c r="M192" s="32"/>
+      <c r="M192" s="31"/>
       <c r="N192" s="30"/>
     </row>
-    <row r="193" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H193" s="27"/>
       <c r="I193" s="28"/>
       <c r="J193" s="28"/>
@@ -9334,10 +9346,10 @@
         <v>2.5099999999999998</v>
       </c>
       <c r="L193" s="29"/>
-      <c r="M193" s="32"/>
+      <c r="M193" s="31"/>
       <c r="N193" s="30"/>
     </row>
-    <row r="194" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H194" s="27">
         <v>9</v>
       </c>
@@ -9356,7 +9368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H195" s="27"/>
       <c r="I195" s="28"/>
       <c r="J195" s="28"/>
@@ -9365,7 +9377,7 @@
       </c>
       <c r="L195" s="29"/>
     </row>
-    <row r="196" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H196" s="27"/>
       <c r="I196" s="28"/>
       <c r="J196" s="28"/>
@@ -9374,7 +9386,7 @@
       </c>
       <c r="L196" s="29"/>
     </row>
-    <row r="197" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H197" s="27"/>
       <c r="I197" s="28"/>
       <c r="J197" s="28">
@@ -9388,7 +9400,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H198" s="27"/>
       <c r="I198" s="28"/>
       <c r="J198" s="28"/>
@@ -9397,7 +9409,7 @@
       </c>
       <c r="L198" s="29"/>
     </row>
-    <row r="199" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H199" s="27"/>
       <c r="I199" s="28"/>
       <c r="J199" s="28"/>
@@ -9406,7 +9418,7 @@
       </c>
       <c r="L199" s="29"/>
     </row>
-    <row r="200" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H200" s="27"/>
       <c r="I200" s="28"/>
       <c r="J200" s="28">
@@ -9420,7 +9432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="201" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H201" s="27"/>
       <c r="I201" s="28"/>
       <c r="J201" s="28"/>
@@ -9429,7 +9441,7 @@
       </c>
       <c r="L201" s="29"/>
     </row>
-    <row r="202" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H202" s="27"/>
       <c r="I202" s="28"/>
       <c r="J202" s="28"/>
@@ -9438,7 +9450,7 @@
       </c>
       <c r="L202" s="29"/>
     </row>
-    <row r="203" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H203" s="27"/>
       <c r="I203" s="28"/>
       <c r="J203" s="28">
@@ -9452,7 +9464,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H204" s="27"/>
       <c r="I204" s="28"/>
       <c r="J204" s="28"/>
@@ -9461,7 +9473,7 @@
       </c>
       <c r="L204" s="29"/>
     </row>
-    <row r="205" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H205" s="27"/>
       <c r="I205" s="28"/>
       <c r="J205" s="28"/>
@@ -9470,7 +9482,7 @@
       </c>
       <c r="L205" s="29"/>
     </row>
-    <row r="206" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H206" s="27"/>
       <c r="I206" s="28"/>
       <c r="J206" s="28">
@@ -9484,7 +9496,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H207" s="27"/>
       <c r="I207" s="28"/>
       <c r="J207" s="28"/>
@@ -9493,7 +9505,7 @@
       </c>
       <c r="L207" s="29"/>
     </row>
-    <row r="208" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H208" s="27"/>
       <c r="I208" s="28"/>
       <c r="J208" s="28"/>
@@ -9502,7 +9514,7 @@
       </c>
       <c r="L208" s="29"/>
     </row>
-    <row r="209" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H209" s="27"/>
       <c r="I209" s="28"/>
       <c r="J209" s="28">
@@ -9516,7 +9528,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="210" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H210" s="27"/>
       <c r="I210" s="28"/>
       <c r="J210" s="28"/>
@@ -9525,7 +9537,7 @@
       </c>
       <c r="L210" s="29"/>
     </row>
-    <row r="211" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H211" s="27"/>
       <c r="I211" s="28"/>
       <c r="J211" s="28"/>
@@ -9540,7 +9552,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="212" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H212" s="27"/>
       <c r="I212" s="28"/>
       <c r="J212" s="28">
@@ -9553,10 +9565,10 @@
       <c r="L212" s="29">
         <v>7</v>
       </c>
-      <c r="M212" s="31"/>
+      <c r="M212" s="32"/>
       <c r="N212" s="30"/>
     </row>
-    <row r="213" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H213" s="27"/>
       <c r="I213" s="28"/>
       <c r="J213" s="28"/>
@@ -9564,10 +9576,10 @@
         <v>2.56</v>
       </c>
       <c r="L213" s="29"/>
-      <c r="M213" s="31"/>
+      <c r="M213" s="32"/>
       <c r="N213" s="30"/>
     </row>
-    <row r="214" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H214" s="27"/>
       <c r="I214" s="28"/>
       <c r="J214" s="28"/>
@@ -9575,10 +9587,10 @@
         <v>2.52</v>
       </c>
       <c r="L214" s="29"/>
-      <c r="M214" s="31"/>
+      <c r="M214" s="32"/>
       <c r="N214" s="30"/>
     </row>
-    <row r="215" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H215" s="27"/>
       <c r="I215" s="28"/>
       <c r="J215" s="28">
@@ -9591,10 +9603,10 @@
       <c r="L215" s="29">
         <v>8</v>
       </c>
-      <c r="M215" s="32"/>
+      <c r="M215" s="31"/>
       <c r="N215" s="30"/>
     </row>
-    <row r="216" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H216" s="27"/>
       <c r="I216" s="28"/>
       <c r="J216" s="28"/>
@@ -9602,10 +9614,10 @@
         <v>2.56</v>
       </c>
       <c r="L216" s="29"/>
-      <c r="M216" s="32"/>
+      <c r="M216" s="31"/>
       <c r="N216" s="30"/>
     </row>
-    <row r="217" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H217" s="27"/>
       <c r="I217" s="28"/>
       <c r="J217" s="28"/>
@@ -9613,10 +9625,10 @@
         <v>2.46</v>
       </c>
       <c r="L217" s="29"/>
-      <c r="M217" s="32"/>
+      <c r="M217" s="31"/>
       <c r="N217" s="30"/>
     </row>
-    <row r="218" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H218" s="27">
         <v>10</v>
       </c>
@@ -9635,7 +9647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H219" s="27"/>
       <c r="I219" s="28"/>
       <c r="J219" s="28"/>
@@ -9644,7 +9656,7 @@
       </c>
       <c r="L219" s="29"/>
     </row>
-    <row r="220" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H220" s="27"/>
       <c r="I220" s="28"/>
       <c r="J220" s="28"/>
@@ -9653,7 +9665,7 @@
       </c>
       <c r="L220" s="29"/>
     </row>
-    <row r="221" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H221" s="27"/>
       <c r="I221" s="28"/>
       <c r="J221" s="28">
@@ -9667,7 +9679,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H222" s="27"/>
       <c r="I222" s="28"/>
       <c r="J222" s="28"/>
@@ -9676,7 +9688,7 @@
       </c>
       <c r="L222" s="29"/>
     </row>
-    <row r="223" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H223" s="27"/>
       <c r="I223" s="28"/>
       <c r="J223" s="28"/>
@@ -9685,7 +9697,7 @@
       </c>
       <c r="L223" s="29"/>
     </row>
-    <row r="224" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H224" s="27"/>
       <c r="I224" s="28"/>
       <c r="J224" s="28">
@@ -9699,7 +9711,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="225" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H225" s="27"/>
       <c r="I225" s="28"/>
       <c r="J225" s="28"/>
@@ -9708,7 +9720,7 @@
       </c>
       <c r="L225" s="29"/>
     </row>
-    <row r="226" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H226" s="27"/>
       <c r="I226" s="28"/>
       <c r="J226" s="28"/>
@@ -9717,7 +9729,7 @@
       </c>
       <c r="L226" s="29"/>
     </row>
-    <row r="227" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H227" s="27"/>
       <c r="I227" s="28"/>
       <c r="J227" s="28">
@@ -9731,7 +9743,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H228" s="27"/>
       <c r="I228" s="28"/>
       <c r="J228" s="28"/>
@@ -9740,7 +9752,7 @@
       </c>
       <c r="L228" s="29"/>
     </row>
-    <row r="229" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H229" s="27"/>
       <c r="I229" s="28"/>
       <c r="J229" s="28"/>
@@ -9749,7 +9761,7 @@
       </c>
       <c r="L229" s="29"/>
     </row>
-    <row r="230" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H230" s="27"/>
       <c r="I230" s="28"/>
       <c r="J230" s="28">
@@ -9763,7 +9775,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="231" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H231" s="27"/>
       <c r="I231" s="28"/>
       <c r="J231" s="28"/>
@@ -9772,7 +9784,7 @@
       </c>
       <c r="L231" s="29"/>
     </row>
-    <row r="232" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H232" s="27"/>
       <c r="I232" s="28"/>
       <c r="J232" s="28"/>
@@ -9781,7 +9793,7 @@
       </c>
       <c r="L232" s="29"/>
     </row>
-    <row r="233" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H233" s="27"/>
       <c r="I233" s="28"/>
       <c r="J233" s="28">
@@ -9795,7 +9807,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="234" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H234" s="27"/>
       <c r="I234" s="28"/>
       <c r="J234" s="28"/>
@@ -9804,7 +9816,7 @@
       </c>
       <c r="L234" s="29"/>
     </row>
-    <row r="235" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H235" s="27"/>
       <c r="I235" s="28"/>
       <c r="J235" s="28"/>
@@ -9819,7 +9831,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="236" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H236" s="27"/>
       <c r="I236" s="28"/>
       <c r="J236" s="28">
@@ -9832,10 +9844,10 @@
       <c r="L236" s="29">
         <v>7</v>
       </c>
-      <c r="M236" s="31"/>
+      <c r="M236" s="32"/>
       <c r="N236" s="30"/>
     </row>
-    <row r="237" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H237" s="27"/>
       <c r="I237" s="28"/>
       <c r="J237" s="28"/>
@@ -9843,10 +9855,10 @@
         <v>2.57</v>
       </c>
       <c r="L237" s="29"/>
-      <c r="M237" s="31"/>
+      <c r="M237" s="32"/>
       <c r="N237" s="30"/>
     </row>
-    <row r="238" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H238" s="27"/>
       <c r="I238" s="28"/>
       <c r="J238" s="28"/>
@@ -9854,10 +9866,10 @@
         <v>2.52</v>
       </c>
       <c r="L238" s="29"/>
-      <c r="M238" s="31"/>
+      <c r="M238" s="32"/>
       <c r="N238" s="30"/>
     </row>
-    <row r="239" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H239" s="27"/>
       <c r="I239" s="28"/>
       <c r="J239" s="28">
@@ -9870,10 +9882,10 @@
       <c r="L239" s="29">
         <v>8</v>
       </c>
-      <c r="M239" s="32"/>
+      <c r="M239" s="31"/>
       <c r="N239" s="30"/>
     </row>
-    <row r="240" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H240" s="27"/>
       <c r="I240" s="28"/>
       <c r="J240" s="28"/>
@@ -9881,10 +9893,10 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="L240" s="29"/>
-      <c r="M240" s="32"/>
+      <c r="M240" s="31"/>
       <c r="N240" s="30"/>
     </row>
-    <row r="241" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H241" s="27"/>
       <c r="I241" s="28"/>
       <c r="J241" s="28"/>
@@ -9892,10 +9904,10 @@
         <v>2.5099999999999998</v>
       </c>
       <c r="L241" s="29"/>
-      <c r="M241" s="32"/>
+      <c r="M241" s="31"/>
       <c r="N241" s="30"/>
     </row>
-    <row r="242" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H242" s="27">
         <v>11</v>
       </c>
@@ -9914,7 +9926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H243" s="27"/>
       <c r="I243" s="28"/>
       <c r="J243" s="28"/>
@@ -9923,7 +9935,7 @@
       </c>
       <c r="L243" s="29"/>
     </row>
-    <row r="244" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H244" s="27"/>
       <c r="I244" s="28"/>
       <c r="J244" s="28"/>
@@ -9932,7 +9944,7 @@
       </c>
       <c r="L244" s="29"/>
     </row>
-    <row r="245" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H245" s="27"/>
       <c r="I245" s="28"/>
       <c r="J245" s="28">
@@ -9946,7 +9958,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="246" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H246" s="27"/>
       <c r="I246" s="28"/>
       <c r="J246" s="28"/>
@@ -9955,7 +9967,7 @@
       </c>
       <c r="L246" s="29"/>
     </row>
-    <row r="247" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H247" s="27"/>
       <c r="I247" s="28"/>
       <c r="J247" s="28"/>
@@ -9964,7 +9976,7 @@
       </c>
       <c r="L247" s="29"/>
     </row>
-    <row r="248" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H248" s="27"/>
       <c r="I248" s="28"/>
       <c r="J248" s="28">
@@ -9978,7 +9990,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="249" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H249" s="27"/>
       <c r="I249" s="28"/>
       <c r="J249" s="28"/>
@@ -9987,7 +9999,7 @@
       </c>
       <c r="L249" s="29"/>
     </row>
-    <row r="250" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H250" s="27"/>
       <c r="I250" s="28"/>
       <c r="J250" s="28"/>
@@ -9996,7 +10008,7 @@
       </c>
       <c r="L250" s="29"/>
     </row>
-    <row r="251" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H251" s="27"/>
       <c r="I251" s="28"/>
       <c r="J251" s="28">
@@ -10010,7 +10022,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="252" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H252" s="27"/>
       <c r="I252" s="28"/>
       <c r="J252" s="28"/>
@@ -10019,7 +10031,7 @@
       </c>
       <c r="L252" s="29"/>
     </row>
-    <row r="253" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H253" s="27"/>
       <c r="I253" s="28"/>
       <c r="J253" s="28"/>
@@ -10028,7 +10040,7 @@
       </c>
       <c r="L253" s="29"/>
     </row>
-    <row r="254" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H254" s="27"/>
       <c r="I254" s="28"/>
       <c r="J254" s="28">
@@ -10042,7 +10054,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="255" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H255" s="27"/>
       <c r="I255" s="28"/>
       <c r="J255" s="28"/>
@@ -10051,7 +10063,7 @@
       </c>
       <c r="L255" s="29"/>
     </row>
-    <row r="256" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H256" s="27"/>
       <c r="I256" s="28"/>
       <c r="J256" s="28"/>
@@ -10060,7 +10072,7 @@
       </c>
       <c r="L256" s="29"/>
     </row>
-    <row r="257" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H257" s="27"/>
       <c r="I257" s="28"/>
       <c r="J257" s="28">
@@ -10074,7 +10086,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="258" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H258" s="27"/>
       <c r="I258" s="28"/>
       <c r="J258" s="28"/>
@@ -10083,7 +10095,7 @@
       </c>
       <c r="L258" s="29"/>
     </row>
-    <row r="259" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H259" s="27"/>
       <c r="I259" s="28"/>
       <c r="J259" s="28"/>
@@ -10098,7 +10110,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="260" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H260" s="27"/>
       <c r="I260" s="28"/>
       <c r="J260" s="28">
@@ -10111,10 +10123,10 @@
       <c r="L260" s="29">
         <v>7</v>
       </c>
-      <c r="M260" s="31"/>
+      <c r="M260" s="32"/>
       <c r="N260" s="30"/>
     </row>
-    <row r="261" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H261" s="27"/>
       <c r="I261" s="28"/>
       <c r="J261" s="28"/>
@@ -10122,10 +10134,10 @@
         <v>2.57</v>
       </c>
       <c r="L261" s="29"/>
-      <c r="M261" s="31"/>
+      <c r="M261" s="32"/>
       <c r="N261" s="30"/>
     </row>
-    <row r="262" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H262" s="27"/>
       <c r="I262" s="28"/>
       <c r="J262" s="28"/>
@@ -10133,10 +10145,10 @@
         <v>2.5</v>
       </c>
       <c r="L262" s="29"/>
-      <c r="M262" s="31"/>
+      <c r="M262" s="32"/>
       <c r="N262" s="30"/>
     </row>
-    <row r="263" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H263" s="27"/>
       <c r="I263" s="28"/>
       <c r="J263" s="28">
@@ -10149,10 +10161,10 @@
       <c r="L263" s="29">
         <v>8</v>
       </c>
-      <c r="M263" s="32"/>
+      <c r="M263" s="31"/>
       <c r="N263" s="30"/>
     </row>
-    <row r="264" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H264" s="27"/>
       <c r="I264" s="28"/>
       <c r="J264" s="28"/>
@@ -10160,10 +10172,10 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="L264" s="29"/>
-      <c r="M264" s="32"/>
+      <c r="M264" s="31"/>
       <c r="N264" s="30"/>
     </row>
-    <row r="265" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H265" s="27"/>
       <c r="I265" s="28"/>
       <c r="J265" s="28"/>
@@ -10171,10 +10183,10 @@
         <v>2.54</v>
       </c>
       <c r="L265" s="29"/>
-      <c r="M265" s="32"/>
+      <c r="M265" s="31"/>
       <c r="N265" s="30"/>
     </row>
-    <row r="266" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H266" s="27">
         <v>12</v>
       </c>
@@ -10193,7 +10205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H267" s="27"/>
       <c r="I267" s="28"/>
       <c r="J267" s="28"/>
@@ -10202,7 +10214,7 @@
       </c>
       <c r="L267" s="29"/>
     </row>
-    <row r="268" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H268" s="27"/>
       <c r="I268" s="28"/>
       <c r="J268" s="28"/>
@@ -10211,7 +10223,7 @@
       </c>
       <c r="L268" s="29"/>
     </row>
-    <row r="269" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H269" s="27"/>
       <c r="I269" s="28"/>
       <c r="J269" s="28">
@@ -10225,7 +10237,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="270" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H270" s="27"/>
       <c r="I270" s="28"/>
       <c r="J270" s="28"/>
@@ -10234,7 +10246,7 @@
       </c>
       <c r="L270" s="29"/>
     </row>
-    <row r="271" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H271" s="27"/>
       <c r="I271" s="28"/>
       <c r="J271" s="28"/>
@@ -10243,7 +10255,7 @@
       </c>
       <c r="L271" s="29"/>
     </row>
-    <row r="272" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H272" s="27"/>
       <c r="I272" s="28"/>
       <c r="J272" s="28">
@@ -10257,7 +10269,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="273" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H273" s="27"/>
       <c r="I273" s="28"/>
       <c r="J273" s="28"/>
@@ -10266,7 +10278,7 @@
       </c>
       <c r="L273" s="29"/>
     </row>
-    <row r="274" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H274" s="27"/>
       <c r="I274" s="28"/>
       <c r="J274" s="28"/>
@@ -10275,7 +10287,7 @@
       </c>
       <c r="L274" s="29"/>
     </row>
-    <row r="275" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H275" s="27"/>
       <c r="I275" s="28"/>
       <c r="J275" s="28">
@@ -10289,7 +10301,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="276" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H276" s="27"/>
       <c r="I276" s="28"/>
       <c r="J276" s="28"/>
@@ -10298,7 +10310,7 @@
       </c>
       <c r="L276" s="29"/>
     </row>
-    <row r="277" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H277" s="27"/>
       <c r="I277" s="28"/>
       <c r="J277" s="28"/>
@@ -10307,7 +10319,7 @@
       </c>
       <c r="L277" s="29"/>
     </row>
-    <row r="278" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H278" s="27"/>
       <c r="I278" s="28"/>
       <c r="J278" s="28">
@@ -10321,7 +10333,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="279" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H279" s="27"/>
       <c r="I279" s="28"/>
       <c r="J279" s="28"/>
@@ -10330,7 +10342,7 @@
       </c>
       <c r="L279" s="29"/>
     </row>
-    <row r="280" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H280" s="27"/>
       <c r="I280" s="28"/>
       <c r="J280" s="28"/>
@@ -10339,7 +10351,7 @@
       </c>
       <c r="L280" s="29"/>
     </row>
-    <row r="281" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H281" s="27"/>
       <c r="I281" s="28"/>
       <c r="J281" s="28">
@@ -10353,7 +10365,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="282" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H282" s="27"/>
       <c r="I282" s="28"/>
       <c r="J282" s="28"/>
@@ -10362,7 +10374,7 @@
       </c>
       <c r="L282" s="29"/>
     </row>
-    <row r="283" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H283" s="27"/>
       <c r="I283" s="28"/>
       <c r="J283" s="28"/>
@@ -10377,7 +10389,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="284" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H284" s="27"/>
       <c r="I284" s="28"/>
       <c r="J284" s="28">
@@ -10390,10 +10402,10 @@
       <c r="L284" s="29">
         <v>7</v>
       </c>
-      <c r="M284" s="31"/>
+      <c r="M284" s="32"/>
       <c r="N284" s="30"/>
     </row>
-    <row r="285" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H285" s="27"/>
       <c r="I285" s="28"/>
       <c r="J285" s="28"/>
@@ -10401,10 +10413,10 @@
         <v>2.56</v>
       </c>
       <c r="L285" s="29"/>
-      <c r="M285" s="31"/>
+      <c r="M285" s="32"/>
       <c r="N285" s="30"/>
     </row>
-    <row r="286" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H286" s="27"/>
       <c r="I286" s="28"/>
       <c r="J286" s="28"/>
@@ -10412,10 +10424,10 @@
         <v>2.57</v>
       </c>
       <c r="L286" s="29"/>
-      <c r="M286" s="31"/>
+      <c r="M286" s="32"/>
       <c r="N286" s="30"/>
     </row>
-    <row r="287" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H287" s="27"/>
       <c r="I287" s="28"/>
       <c r="J287" s="28">
@@ -10428,10 +10440,10 @@
       <c r="L287" s="29">
         <v>8</v>
       </c>
-      <c r="M287" s="32"/>
+      <c r="M287" s="31"/>
       <c r="N287" s="30"/>
     </row>
-    <row r="288" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H288" s="27"/>
       <c r="I288" s="28"/>
       <c r="J288" s="28"/>
@@ -10439,10 +10451,10 @@
         <v>2.58</v>
       </c>
       <c r="L288" s="29"/>
-      <c r="M288" s="32"/>
+      <c r="M288" s="31"/>
       <c r="N288" s="30"/>
     </row>
-    <row r="289" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H289" s="27"/>
       <c r="I289" s="28"/>
       <c r="J289" s="28"/>
@@ -10450,10 +10462,10 @@
         <v>2.4500000000000002</v>
       </c>
       <c r="L289" s="29"/>
-      <c r="M289" s="32"/>
+      <c r="M289" s="31"/>
       <c r="N289" s="30"/>
     </row>
-    <row r="290" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H290" s="27">
         <v>13</v>
       </c>
@@ -10472,7 +10484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H291" s="27"/>
       <c r="I291" s="28"/>
       <c r="J291" s="28"/>
@@ -10481,7 +10493,7 @@
       </c>
       <c r="L291" s="29"/>
     </row>
-    <row r="292" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H292" s="27"/>
       <c r="I292" s="28"/>
       <c r="J292" s="28"/>
@@ -10490,7 +10502,7 @@
       </c>
       <c r="L292" s="29"/>
     </row>
-    <row r="293" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H293" s="27"/>
       <c r="I293" s="28"/>
       <c r="J293" s="28">
@@ -10504,7 +10516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="294" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H294" s="27"/>
       <c r="I294" s="28"/>
       <c r="J294" s="28"/>
@@ -10513,7 +10525,7 @@
       </c>
       <c r="L294" s="29"/>
     </row>
-    <row r="295" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H295" s="27"/>
       <c r="I295" s="28"/>
       <c r="J295" s="28"/>
@@ -10522,7 +10534,7 @@
       </c>
       <c r="L295" s="29"/>
     </row>
-    <row r="296" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H296" s="27"/>
       <c r="I296" s="28"/>
       <c r="J296" s="28">
@@ -10536,7 +10548,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="297" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H297" s="27"/>
       <c r="I297" s="28"/>
       <c r="J297" s="28"/>
@@ -10545,7 +10557,7 @@
       </c>
       <c r="L297" s="29"/>
     </row>
-    <row r="298" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H298" s="27"/>
       <c r="I298" s="28"/>
       <c r="J298" s="28"/>
@@ -10554,7 +10566,7 @@
       </c>
       <c r="L298" s="29"/>
     </row>
-    <row r="299" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H299" s="27"/>
       <c r="I299" s="28"/>
       <c r="J299" s="28">
@@ -10568,7 +10580,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="300" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H300" s="27"/>
       <c r="I300" s="28"/>
       <c r="J300" s="28"/>
@@ -10577,7 +10589,7 @@
       </c>
       <c r="L300" s="29"/>
     </row>
-    <row r="301" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H301" s="27"/>
       <c r="I301" s="28"/>
       <c r="J301" s="28"/>
@@ -10586,7 +10598,7 @@
       </c>
       <c r="L301" s="29"/>
     </row>
-    <row r="302" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H302" s="27"/>
       <c r="I302" s="28"/>
       <c r="J302" s="28">
@@ -10600,7 +10612,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="303" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H303" s="27"/>
       <c r="I303" s="28"/>
       <c r="J303" s="28"/>
@@ -10609,7 +10621,7 @@
       </c>
       <c r="L303" s="29"/>
     </row>
-    <row r="304" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H304" s="27"/>
       <c r="I304" s="28"/>
       <c r="J304" s="28"/>
@@ -10618,7 +10630,7 @@
       </c>
       <c r="L304" s="29"/>
     </row>
-    <row r="305" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H305" s="27"/>
       <c r="I305" s="28"/>
       <c r="J305" s="28">
@@ -10632,7 +10644,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="306" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H306" s="27"/>
       <c r="I306" s="28"/>
       <c r="J306" s="28"/>
@@ -10641,7 +10653,7 @@
       </c>
       <c r="L306" s="29"/>
     </row>
-    <row r="307" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H307" s="27"/>
       <c r="I307" s="28"/>
       <c r="J307" s="28"/>
@@ -10656,7 +10668,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="308" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H308" s="27"/>
       <c r="I308" s="28"/>
       <c r="J308" s="28">
@@ -10669,10 +10681,10 @@
       <c r="L308" s="29">
         <v>7</v>
       </c>
-      <c r="M308" s="31"/>
+      <c r="M308" s="32"/>
       <c r="N308" s="30"/>
     </row>
-    <row r="309" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H309" s="27"/>
       <c r="I309" s="28"/>
       <c r="J309" s="28"/>
@@ -10680,10 +10692,10 @@
         <v>2.57</v>
       </c>
       <c r="L309" s="29"/>
-      <c r="M309" s="31"/>
+      <c r="M309" s="32"/>
       <c r="N309" s="30"/>
     </row>
-    <row r="310" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H310" s="27"/>
       <c r="I310" s="28"/>
       <c r="J310" s="28"/>
@@ -10691,10 +10703,10 @@
         <v>2.54</v>
       </c>
       <c r="L310" s="29"/>
-      <c r="M310" s="31"/>
+      <c r="M310" s="32"/>
       <c r="N310" s="30"/>
     </row>
-    <row r="311" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H311" s="27"/>
       <c r="I311" s="28"/>
       <c r="J311" s="28">
@@ -10707,10 +10719,10 @@
       <c r="L311" s="29">
         <v>8</v>
       </c>
-      <c r="M311" s="32"/>
+      <c r="M311" s="31"/>
       <c r="N311" s="30"/>
     </row>
-    <row r="312" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H312" s="27"/>
       <c r="I312" s="28"/>
       <c r="J312" s="28"/>
@@ -10718,10 +10730,10 @@
         <v>2.57</v>
       </c>
       <c r="L312" s="29"/>
-      <c r="M312" s="32"/>
+      <c r="M312" s="31"/>
       <c r="N312" s="30"/>
     </row>
-    <row r="313" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H313" s="27"/>
       <c r="I313" s="28"/>
       <c r="J313" s="28"/>
@@ -10729,10 +10741,10 @@
         <v>2.52</v>
       </c>
       <c r="L313" s="29"/>
-      <c r="M313" s="32"/>
+      <c r="M313" s="31"/>
       <c r="N313" s="30"/>
     </row>
-    <row r="317" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="8:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I317" s="14">
         <f>AVERAGE(I2:I313)</f>
         <v>2.6444871794871792</v>
@@ -10754,90 +10766,521 @@
     </row>
   </sheetData>
   <mergeCells count="623">
-    <mergeCell ref="AX146:AX157"/>
-    <mergeCell ref="AY146:AY157"/>
-    <mergeCell ref="AZ146:AZ147"/>
-    <mergeCell ref="BB146:BB147"/>
-    <mergeCell ref="AZ148:AZ149"/>
-    <mergeCell ref="BB148:BB149"/>
-    <mergeCell ref="AZ150:AZ151"/>
-    <mergeCell ref="BB150:BB151"/>
-    <mergeCell ref="AZ152:AZ153"/>
-    <mergeCell ref="BB152:BB153"/>
-    <mergeCell ref="AZ154:AZ155"/>
-    <mergeCell ref="BB154:BB155"/>
-    <mergeCell ref="AZ156:AZ157"/>
-    <mergeCell ref="BB156:BB157"/>
-    <mergeCell ref="AX134:AX145"/>
-    <mergeCell ref="AY134:AY145"/>
-    <mergeCell ref="AZ134:AZ135"/>
-    <mergeCell ref="BB134:BB135"/>
-    <mergeCell ref="AZ136:AZ137"/>
-    <mergeCell ref="BB136:BB137"/>
-    <mergeCell ref="AZ138:AZ139"/>
-    <mergeCell ref="BB138:BB139"/>
-    <mergeCell ref="AZ140:AZ141"/>
-    <mergeCell ref="BB140:BB141"/>
-    <mergeCell ref="AZ142:AZ143"/>
-    <mergeCell ref="BB142:BB143"/>
-    <mergeCell ref="AZ144:AZ145"/>
-    <mergeCell ref="BB144:BB145"/>
-    <mergeCell ref="AX122:AX133"/>
-    <mergeCell ref="AY122:AY133"/>
-    <mergeCell ref="AZ122:AZ123"/>
-    <mergeCell ref="BB122:BB123"/>
-    <mergeCell ref="AZ124:AZ125"/>
-    <mergeCell ref="BB124:BB125"/>
-    <mergeCell ref="AZ126:AZ127"/>
-    <mergeCell ref="BB126:BB127"/>
-    <mergeCell ref="AZ128:AZ129"/>
-    <mergeCell ref="BB128:BB129"/>
-    <mergeCell ref="AZ130:AZ131"/>
-    <mergeCell ref="BB130:BB131"/>
-    <mergeCell ref="AZ132:AZ133"/>
-    <mergeCell ref="BB132:BB133"/>
-    <mergeCell ref="AX110:AX121"/>
-    <mergeCell ref="AY110:AY121"/>
-    <mergeCell ref="AZ110:AZ111"/>
-    <mergeCell ref="BB110:BB111"/>
-    <mergeCell ref="AZ112:AZ113"/>
-    <mergeCell ref="BB112:BB113"/>
-    <mergeCell ref="AZ114:AZ115"/>
-    <mergeCell ref="BB114:BB115"/>
-    <mergeCell ref="AZ116:AZ117"/>
-    <mergeCell ref="BB116:BB117"/>
-    <mergeCell ref="AZ118:AZ119"/>
-    <mergeCell ref="BB118:BB119"/>
-    <mergeCell ref="AZ120:AZ121"/>
-    <mergeCell ref="BB120:BB121"/>
-    <mergeCell ref="AX98:AX109"/>
-    <mergeCell ref="AY98:AY109"/>
-    <mergeCell ref="AZ98:AZ99"/>
-    <mergeCell ref="BB98:BB99"/>
-    <mergeCell ref="AZ100:AZ101"/>
-    <mergeCell ref="BB100:BB101"/>
-    <mergeCell ref="AZ102:AZ103"/>
-    <mergeCell ref="BB102:BB103"/>
-    <mergeCell ref="AZ104:AZ105"/>
-    <mergeCell ref="BB104:BB105"/>
-    <mergeCell ref="AZ106:AZ107"/>
-    <mergeCell ref="BB106:BB107"/>
-    <mergeCell ref="AZ108:AZ109"/>
-    <mergeCell ref="BB108:BB109"/>
-    <mergeCell ref="AX86:AX97"/>
-    <mergeCell ref="AY86:AY97"/>
-    <mergeCell ref="AZ86:AZ87"/>
-    <mergeCell ref="BB86:BB87"/>
-    <mergeCell ref="AZ88:AZ89"/>
-    <mergeCell ref="BB88:BB89"/>
-    <mergeCell ref="AZ90:AZ91"/>
-    <mergeCell ref="BB90:BB91"/>
-    <mergeCell ref="AZ92:AZ93"/>
-    <mergeCell ref="BB92:BB93"/>
-    <mergeCell ref="AZ94:AZ95"/>
-    <mergeCell ref="BB94:BB95"/>
-    <mergeCell ref="AZ96:AZ97"/>
-    <mergeCell ref="BB96:BB97"/>
+    <mergeCell ref="B2:B19"/>
+    <mergeCell ref="B20:B37"/>
+    <mergeCell ref="C20:C37"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="J8:J10"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="C2:C19"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="B56:B73"/>
+    <mergeCell ref="C56:C73"/>
+    <mergeCell ref="D56:D58"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="D62:D64"/>
+    <mergeCell ref="D65:D67"/>
+    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="D71:D73"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="B38:B55"/>
+    <mergeCell ref="C38:C55"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="D47:D49"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="D53:D55"/>
+    <mergeCell ref="B92:B109"/>
+    <mergeCell ref="C92:C109"/>
+    <mergeCell ref="D92:D94"/>
+    <mergeCell ref="D95:D97"/>
+    <mergeCell ref="D98:D100"/>
+    <mergeCell ref="D101:D103"/>
+    <mergeCell ref="D104:D106"/>
+    <mergeCell ref="D107:D109"/>
+    <mergeCell ref="B74:B91"/>
+    <mergeCell ref="C74:C91"/>
+    <mergeCell ref="D74:D76"/>
+    <mergeCell ref="D77:D79"/>
+    <mergeCell ref="D80:D82"/>
+    <mergeCell ref="D83:D85"/>
+    <mergeCell ref="D86:D88"/>
+    <mergeCell ref="D89:D91"/>
+    <mergeCell ref="F32:F34"/>
+    <mergeCell ref="F35:F37"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="F56:F58"/>
+    <mergeCell ref="F59:F61"/>
+    <mergeCell ref="F62:F64"/>
+    <mergeCell ref="F65:F67"/>
+    <mergeCell ref="F68:F70"/>
+    <mergeCell ref="F71:F73"/>
+    <mergeCell ref="F38:F40"/>
+    <mergeCell ref="F41:F43"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="F47:F49"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="F53:F55"/>
+    <mergeCell ref="F92:F94"/>
+    <mergeCell ref="F95:F97"/>
+    <mergeCell ref="F98:F100"/>
+    <mergeCell ref="F101:F103"/>
+    <mergeCell ref="F104:F106"/>
+    <mergeCell ref="F107:F109"/>
+    <mergeCell ref="F74:F76"/>
+    <mergeCell ref="F77:F79"/>
+    <mergeCell ref="F80:F82"/>
+    <mergeCell ref="F83:F85"/>
+    <mergeCell ref="F86:F88"/>
+    <mergeCell ref="F89:F91"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="L5:L7"/>
+    <mergeCell ref="L8:L10"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="L14:L16"/>
+    <mergeCell ref="L17:L19"/>
+    <mergeCell ref="H2:H25"/>
+    <mergeCell ref="H74:H97"/>
+    <mergeCell ref="H98:H121"/>
+    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="I2:I25"/>
+    <mergeCell ref="J35:J37"/>
+    <mergeCell ref="L35:L37"/>
+    <mergeCell ref="J38:J40"/>
+    <mergeCell ref="L38:L40"/>
+    <mergeCell ref="J41:J43"/>
+    <mergeCell ref="L41:L43"/>
+    <mergeCell ref="L20:L22"/>
+    <mergeCell ref="L23:L25"/>
+    <mergeCell ref="H26:H49"/>
+    <mergeCell ref="I26:I49"/>
+    <mergeCell ref="J26:J28"/>
+    <mergeCell ref="L26:L28"/>
+    <mergeCell ref="J29:J31"/>
+    <mergeCell ref="L29:L31"/>
+    <mergeCell ref="J32:J34"/>
+    <mergeCell ref="L32:L34"/>
+    <mergeCell ref="J44:J46"/>
+    <mergeCell ref="L44:L46"/>
+    <mergeCell ref="J47:J49"/>
+    <mergeCell ref="L47:L49"/>
+    <mergeCell ref="H50:H73"/>
+    <mergeCell ref="I50:I73"/>
+    <mergeCell ref="J50:J52"/>
+    <mergeCell ref="L50:L52"/>
+    <mergeCell ref="J53:J55"/>
+    <mergeCell ref="L53:L55"/>
+    <mergeCell ref="J65:J67"/>
+    <mergeCell ref="L65:L67"/>
+    <mergeCell ref="J68:J70"/>
+    <mergeCell ref="L68:L70"/>
+    <mergeCell ref="J71:J73"/>
+    <mergeCell ref="L71:L73"/>
+    <mergeCell ref="J56:J58"/>
+    <mergeCell ref="L56:L58"/>
+    <mergeCell ref="J59:J61"/>
+    <mergeCell ref="L59:L61"/>
+    <mergeCell ref="J62:J64"/>
+    <mergeCell ref="L62:L64"/>
+    <mergeCell ref="L86:L88"/>
+    <mergeCell ref="J89:J91"/>
+    <mergeCell ref="L89:L91"/>
+    <mergeCell ref="J92:J94"/>
+    <mergeCell ref="L92:L94"/>
+    <mergeCell ref="J95:J97"/>
+    <mergeCell ref="L95:L97"/>
+    <mergeCell ref="I74:I97"/>
+    <mergeCell ref="J74:J76"/>
+    <mergeCell ref="L74:L76"/>
+    <mergeCell ref="J77:J79"/>
+    <mergeCell ref="L77:L79"/>
+    <mergeCell ref="J80:J82"/>
+    <mergeCell ref="L80:L82"/>
+    <mergeCell ref="J83:J85"/>
+    <mergeCell ref="L83:L85"/>
+    <mergeCell ref="J86:J88"/>
+    <mergeCell ref="L110:L112"/>
+    <mergeCell ref="J113:J115"/>
+    <mergeCell ref="L113:L115"/>
+    <mergeCell ref="J116:J118"/>
+    <mergeCell ref="L116:L118"/>
+    <mergeCell ref="J119:J121"/>
+    <mergeCell ref="L119:L121"/>
+    <mergeCell ref="I98:I121"/>
+    <mergeCell ref="J98:J100"/>
+    <mergeCell ref="L98:L100"/>
+    <mergeCell ref="J101:J103"/>
+    <mergeCell ref="L101:L103"/>
+    <mergeCell ref="J104:J106"/>
+    <mergeCell ref="L104:L106"/>
+    <mergeCell ref="J107:J109"/>
+    <mergeCell ref="L107:L109"/>
+    <mergeCell ref="J110:J112"/>
+    <mergeCell ref="J134:J136"/>
+    <mergeCell ref="L134:L136"/>
+    <mergeCell ref="J137:J139"/>
+    <mergeCell ref="L137:L139"/>
+    <mergeCell ref="J140:J142"/>
+    <mergeCell ref="L140:L142"/>
+    <mergeCell ref="H122:H145"/>
+    <mergeCell ref="I122:I145"/>
+    <mergeCell ref="J122:J124"/>
+    <mergeCell ref="L122:L124"/>
+    <mergeCell ref="J125:J127"/>
+    <mergeCell ref="L125:L127"/>
+    <mergeCell ref="J128:J130"/>
+    <mergeCell ref="L128:L130"/>
+    <mergeCell ref="J131:J133"/>
+    <mergeCell ref="L131:L133"/>
+    <mergeCell ref="J155:J157"/>
+    <mergeCell ref="L155:L157"/>
+    <mergeCell ref="J158:J160"/>
+    <mergeCell ref="L158:L160"/>
+    <mergeCell ref="J161:J163"/>
+    <mergeCell ref="L161:L163"/>
+    <mergeCell ref="J143:J145"/>
+    <mergeCell ref="L143:L145"/>
+    <mergeCell ref="H146:H169"/>
+    <mergeCell ref="I146:I169"/>
+    <mergeCell ref="J146:J148"/>
+    <mergeCell ref="L146:L148"/>
+    <mergeCell ref="J149:J151"/>
+    <mergeCell ref="L149:L151"/>
+    <mergeCell ref="J152:J154"/>
+    <mergeCell ref="L152:L154"/>
+    <mergeCell ref="J164:J166"/>
+    <mergeCell ref="L164:L166"/>
+    <mergeCell ref="J167:J169"/>
+    <mergeCell ref="L167:L169"/>
+    <mergeCell ref="H170:H193"/>
+    <mergeCell ref="I170:I193"/>
+    <mergeCell ref="J170:J172"/>
+    <mergeCell ref="L170:L172"/>
+    <mergeCell ref="J173:J175"/>
+    <mergeCell ref="L173:L175"/>
+    <mergeCell ref="J185:J187"/>
+    <mergeCell ref="L185:L187"/>
+    <mergeCell ref="J188:J190"/>
+    <mergeCell ref="L188:L190"/>
+    <mergeCell ref="J191:J193"/>
+    <mergeCell ref="L191:L193"/>
+    <mergeCell ref="J176:J178"/>
+    <mergeCell ref="L176:L178"/>
+    <mergeCell ref="J179:J181"/>
+    <mergeCell ref="L179:L181"/>
+    <mergeCell ref="J182:J184"/>
+    <mergeCell ref="L182:L184"/>
+    <mergeCell ref="J206:J208"/>
+    <mergeCell ref="L206:L208"/>
+    <mergeCell ref="J209:J211"/>
+    <mergeCell ref="L209:L211"/>
+    <mergeCell ref="J212:J214"/>
+    <mergeCell ref="L212:L214"/>
+    <mergeCell ref="H194:H217"/>
+    <mergeCell ref="I194:I217"/>
+    <mergeCell ref="J194:J196"/>
+    <mergeCell ref="L194:L196"/>
+    <mergeCell ref="J197:J199"/>
+    <mergeCell ref="L197:L199"/>
+    <mergeCell ref="J200:J202"/>
+    <mergeCell ref="L200:L202"/>
+    <mergeCell ref="J203:J205"/>
+    <mergeCell ref="L203:L205"/>
+    <mergeCell ref="J227:J229"/>
+    <mergeCell ref="L227:L229"/>
+    <mergeCell ref="J230:J232"/>
+    <mergeCell ref="L230:L232"/>
+    <mergeCell ref="J233:J235"/>
+    <mergeCell ref="L233:L235"/>
+    <mergeCell ref="J215:J217"/>
+    <mergeCell ref="L215:L217"/>
+    <mergeCell ref="H218:H241"/>
+    <mergeCell ref="I218:I241"/>
+    <mergeCell ref="J218:J220"/>
+    <mergeCell ref="L218:L220"/>
+    <mergeCell ref="J221:J223"/>
+    <mergeCell ref="L221:L223"/>
+    <mergeCell ref="J224:J226"/>
+    <mergeCell ref="L224:L226"/>
+    <mergeCell ref="J236:J238"/>
+    <mergeCell ref="L236:L238"/>
+    <mergeCell ref="J239:J241"/>
+    <mergeCell ref="L239:L241"/>
+    <mergeCell ref="H242:H265"/>
+    <mergeCell ref="I242:I265"/>
+    <mergeCell ref="J242:J244"/>
+    <mergeCell ref="L242:L244"/>
+    <mergeCell ref="J245:J247"/>
+    <mergeCell ref="L245:L247"/>
+    <mergeCell ref="J260:J262"/>
+    <mergeCell ref="L260:L262"/>
+    <mergeCell ref="J263:J265"/>
+    <mergeCell ref="L263:L265"/>
+    <mergeCell ref="J248:J250"/>
+    <mergeCell ref="L248:L250"/>
+    <mergeCell ref="J251:J253"/>
+    <mergeCell ref="L251:L253"/>
+    <mergeCell ref="J254:J256"/>
+    <mergeCell ref="L254:L256"/>
+    <mergeCell ref="H290:H313"/>
+    <mergeCell ref="I290:I313"/>
+    <mergeCell ref="J290:J292"/>
+    <mergeCell ref="L290:L292"/>
+    <mergeCell ref="J293:J295"/>
+    <mergeCell ref="L293:L295"/>
+    <mergeCell ref="J296:J298"/>
+    <mergeCell ref="L296:L298"/>
+    <mergeCell ref="J278:J280"/>
+    <mergeCell ref="L278:L280"/>
+    <mergeCell ref="J281:J283"/>
+    <mergeCell ref="L281:L283"/>
+    <mergeCell ref="J284:J286"/>
+    <mergeCell ref="L284:L286"/>
+    <mergeCell ref="H266:H289"/>
+    <mergeCell ref="I266:I289"/>
+    <mergeCell ref="J266:J268"/>
+    <mergeCell ref="L266:L268"/>
+    <mergeCell ref="J269:J271"/>
+    <mergeCell ref="L269:L271"/>
+    <mergeCell ref="J272:J274"/>
+    <mergeCell ref="L272:L274"/>
+    <mergeCell ref="J275:J277"/>
+    <mergeCell ref="L275:L277"/>
+    <mergeCell ref="N20:N25"/>
+    <mergeCell ref="M44:M46"/>
+    <mergeCell ref="N44:N49"/>
+    <mergeCell ref="M47:M49"/>
+    <mergeCell ref="J308:J310"/>
+    <mergeCell ref="L308:L310"/>
+    <mergeCell ref="J311:J313"/>
+    <mergeCell ref="L311:L313"/>
+    <mergeCell ref="M20:M22"/>
+    <mergeCell ref="M23:M25"/>
+    <mergeCell ref="M68:M70"/>
+    <mergeCell ref="M140:M142"/>
+    <mergeCell ref="M212:M214"/>
+    <mergeCell ref="M284:M286"/>
+    <mergeCell ref="J299:J301"/>
+    <mergeCell ref="L299:L301"/>
+    <mergeCell ref="J302:J304"/>
+    <mergeCell ref="L302:L304"/>
+    <mergeCell ref="J305:J307"/>
+    <mergeCell ref="L305:L307"/>
+    <mergeCell ref="J287:J289"/>
+    <mergeCell ref="L287:L289"/>
+    <mergeCell ref="J257:J259"/>
+    <mergeCell ref="L257:L259"/>
+    <mergeCell ref="M188:M190"/>
+    <mergeCell ref="N188:N193"/>
+    <mergeCell ref="M191:M193"/>
+    <mergeCell ref="N68:N73"/>
+    <mergeCell ref="M71:M73"/>
+    <mergeCell ref="M92:M94"/>
+    <mergeCell ref="N92:N97"/>
+    <mergeCell ref="M95:M97"/>
+    <mergeCell ref="M116:M118"/>
+    <mergeCell ref="N116:N121"/>
+    <mergeCell ref="M119:M121"/>
+    <mergeCell ref="AT6:AT7"/>
+    <mergeCell ref="AT8:AT9"/>
+    <mergeCell ref="AT10:AT11"/>
+    <mergeCell ref="AT12:AT13"/>
+    <mergeCell ref="AX38:AX49"/>
+    <mergeCell ref="AY38:AY49"/>
+    <mergeCell ref="N284:N289"/>
+    <mergeCell ref="M287:M289"/>
+    <mergeCell ref="M308:M310"/>
+    <mergeCell ref="N308:N313"/>
+    <mergeCell ref="M311:M313"/>
+    <mergeCell ref="N212:N217"/>
+    <mergeCell ref="M215:M217"/>
+    <mergeCell ref="M236:M238"/>
+    <mergeCell ref="N236:N241"/>
+    <mergeCell ref="M239:M241"/>
+    <mergeCell ref="M260:M262"/>
+    <mergeCell ref="N260:N265"/>
+    <mergeCell ref="M263:M265"/>
+    <mergeCell ref="N140:N145"/>
+    <mergeCell ref="M143:M145"/>
+    <mergeCell ref="M164:M166"/>
+    <mergeCell ref="N164:N169"/>
+    <mergeCell ref="M167:M169"/>
+    <mergeCell ref="AV2:AV3"/>
+    <mergeCell ref="AV4:AV5"/>
+    <mergeCell ref="AV6:AV7"/>
+    <mergeCell ref="AV8:AV9"/>
+    <mergeCell ref="AV10:AV11"/>
+    <mergeCell ref="AV12:AV13"/>
+    <mergeCell ref="AR14:AR25"/>
+    <mergeCell ref="AS14:AS25"/>
+    <mergeCell ref="AT14:AT15"/>
+    <mergeCell ref="AV14:AV15"/>
+    <mergeCell ref="AT16:AT17"/>
+    <mergeCell ref="AV16:AV17"/>
+    <mergeCell ref="AT18:AT19"/>
+    <mergeCell ref="AV18:AV19"/>
+    <mergeCell ref="AT20:AT21"/>
+    <mergeCell ref="AV20:AV21"/>
+    <mergeCell ref="AT22:AT23"/>
+    <mergeCell ref="AV22:AV23"/>
+    <mergeCell ref="AT24:AT25"/>
+    <mergeCell ref="AV24:AV25"/>
+    <mergeCell ref="AR2:AR13"/>
+    <mergeCell ref="AS2:AS13"/>
+    <mergeCell ref="AT2:AT3"/>
+    <mergeCell ref="AT4:AT5"/>
+    <mergeCell ref="AR26:AR37"/>
+    <mergeCell ref="AS26:AS37"/>
+    <mergeCell ref="AT26:AT27"/>
+    <mergeCell ref="AV26:AV27"/>
+    <mergeCell ref="AT28:AT29"/>
+    <mergeCell ref="AV28:AV29"/>
+    <mergeCell ref="AT30:AT31"/>
+    <mergeCell ref="AV30:AV31"/>
+    <mergeCell ref="AT32:AT33"/>
+    <mergeCell ref="AV32:AV33"/>
+    <mergeCell ref="AT34:AT35"/>
+    <mergeCell ref="AV34:AV35"/>
+    <mergeCell ref="AT36:AT37"/>
+    <mergeCell ref="AV36:AV37"/>
+    <mergeCell ref="AR38:AR49"/>
+    <mergeCell ref="AS38:AS49"/>
+    <mergeCell ref="AT38:AT39"/>
+    <mergeCell ref="AV38:AV39"/>
+    <mergeCell ref="AT40:AT41"/>
+    <mergeCell ref="AV40:AV41"/>
+    <mergeCell ref="AT42:AT43"/>
+    <mergeCell ref="AV42:AV43"/>
+    <mergeCell ref="AT44:AT45"/>
+    <mergeCell ref="AV44:AV45"/>
+    <mergeCell ref="AT46:AT47"/>
+    <mergeCell ref="AV46:AV47"/>
+    <mergeCell ref="AT48:AT49"/>
+    <mergeCell ref="AV48:AV49"/>
+    <mergeCell ref="AR50:AR61"/>
+    <mergeCell ref="AS50:AS61"/>
+    <mergeCell ref="AT50:AT51"/>
+    <mergeCell ref="AV50:AV51"/>
+    <mergeCell ref="AT52:AT53"/>
+    <mergeCell ref="AV52:AV53"/>
+    <mergeCell ref="AT54:AT55"/>
+    <mergeCell ref="AV54:AV55"/>
+    <mergeCell ref="AT56:AT57"/>
+    <mergeCell ref="AV56:AV57"/>
+    <mergeCell ref="AT58:AT59"/>
+    <mergeCell ref="AV58:AV59"/>
+    <mergeCell ref="AT60:AT61"/>
+    <mergeCell ref="AV60:AV61"/>
+    <mergeCell ref="AR62:AR73"/>
+    <mergeCell ref="AS62:AS73"/>
+    <mergeCell ref="AT62:AT63"/>
+    <mergeCell ref="AV62:AV63"/>
+    <mergeCell ref="AT64:AT65"/>
+    <mergeCell ref="AV64:AV65"/>
+    <mergeCell ref="AT66:AT67"/>
+    <mergeCell ref="AV66:AV67"/>
+    <mergeCell ref="AT68:AT69"/>
+    <mergeCell ref="AV68:AV69"/>
+    <mergeCell ref="AT70:AT71"/>
+    <mergeCell ref="AV70:AV71"/>
+    <mergeCell ref="AT72:AT73"/>
+    <mergeCell ref="AV72:AV73"/>
+    <mergeCell ref="AX14:AX25"/>
+    <mergeCell ref="AY14:AY25"/>
+    <mergeCell ref="AZ22:AZ23"/>
+    <mergeCell ref="BB22:BB23"/>
+    <mergeCell ref="AZ24:AZ25"/>
+    <mergeCell ref="BB24:BB25"/>
+    <mergeCell ref="AX2:AX13"/>
+    <mergeCell ref="AY2:AY13"/>
+    <mergeCell ref="AZ2:AZ3"/>
+    <mergeCell ref="BB2:BB3"/>
+    <mergeCell ref="AZ4:AZ5"/>
+    <mergeCell ref="BB4:BB5"/>
+    <mergeCell ref="AZ6:AZ7"/>
+    <mergeCell ref="BB6:BB7"/>
+    <mergeCell ref="AZ8:AZ9"/>
+    <mergeCell ref="BB8:BB9"/>
+    <mergeCell ref="AZ10:AZ11"/>
+    <mergeCell ref="BB10:BB11"/>
+    <mergeCell ref="AZ12:AZ13"/>
+    <mergeCell ref="BB12:BB13"/>
+    <mergeCell ref="AZ14:AZ15"/>
+    <mergeCell ref="BB14:BB15"/>
+    <mergeCell ref="AZ16:AZ17"/>
+    <mergeCell ref="BB16:BB17"/>
+    <mergeCell ref="AX26:AX37"/>
+    <mergeCell ref="AY26:AY37"/>
+    <mergeCell ref="AZ26:AZ27"/>
+    <mergeCell ref="BB26:BB27"/>
+    <mergeCell ref="AZ28:AZ29"/>
+    <mergeCell ref="BB28:BB29"/>
+    <mergeCell ref="AZ30:AZ31"/>
+    <mergeCell ref="BB30:BB31"/>
+    <mergeCell ref="AZ32:AZ33"/>
+    <mergeCell ref="BB32:BB33"/>
+    <mergeCell ref="AZ34:AZ35"/>
+    <mergeCell ref="BB34:BB35"/>
+    <mergeCell ref="AZ18:AZ19"/>
+    <mergeCell ref="BB18:BB19"/>
+    <mergeCell ref="AZ20:AZ21"/>
+    <mergeCell ref="BB20:BB21"/>
+    <mergeCell ref="AZ36:AZ37"/>
+    <mergeCell ref="BB36:BB37"/>
+    <mergeCell ref="AZ38:AZ39"/>
+    <mergeCell ref="BB38:BB39"/>
+    <mergeCell ref="AZ40:AZ41"/>
+    <mergeCell ref="BB40:BB41"/>
+    <mergeCell ref="AX50:AX61"/>
+    <mergeCell ref="AY50:AY61"/>
+    <mergeCell ref="AZ50:AZ51"/>
+    <mergeCell ref="BB50:BB51"/>
+    <mergeCell ref="AZ52:AZ53"/>
+    <mergeCell ref="BB52:BB53"/>
+    <mergeCell ref="AZ54:AZ55"/>
+    <mergeCell ref="BB54:BB55"/>
+    <mergeCell ref="AZ56:AZ57"/>
+    <mergeCell ref="BB56:BB57"/>
+    <mergeCell ref="AZ58:AZ59"/>
+    <mergeCell ref="BB58:BB59"/>
+    <mergeCell ref="AZ60:AZ61"/>
+    <mergeCell ref="BB60:BB61"/>
+    <mergeCell ref="AZ68:AZ69"/>
+    <mergeCell ref="BB68:BB69"/>
+    <mergeCell ref="AZ70:AZ71"/>
+    <mergeCell ref="BB70:BB71"/>
+    <mergeCell ref="AZ42:AZ43"/>
+    <mergeCell ref="BB42:BB43"/>
+    <mergeCell ref="AZ44:AZ45"/>
+    <mergeCell ref="BB44:BB45"/>
+    <mergeCell ref="AZ46:AZ47"/>
+    <mergeCell ref="BB46:BB47"/>
+    <mergeCell ref="AZ48:AZ49"/>
+    <mergeCell ref="BB48:BB49"/>
     <mergeCell ref="AZ72:AZ73"/>
     <mergeCell ref="BB72:BB73"/>
     <mergeCell ref="AX74:AX85"/>
@@ -10862,521 +11305,90 @@
     <mergeCell ref="BB64:BB65"/>
     <mergeCell ref="AZ66:AZ67"/>
     <mergeCell ref="BB66:BB67"/>
-    <mergeCell ref="AZ68:AZ69"/>
-    <mergeCell ref="BB68:BB69"/>
-    <mergeCell ref="AZ70:AZ71"/>
-    <mergeCell ref="BB70:BB71"/>
-    <mergeCell ref="AZ42:AZ43"/>
-    <mergeCell ref="BB42:BB43"/>
-    <mergeCell ref="AZ44:AZ45"/>
-    <mergeCell ref="BB44:BB45"/>
-    <mergeCell ref="AZ46:AZ47"/>
-    <mergeCell ref="BB46:BB47"/>
-    <mergeCell ref="AZ48:AZ49"/>
-    <mergeCell ref="BB48:BB49"/>
-    <mergeCell ref="AX50:AX61"/>
-    <mergeCell ref="AY50:AY61"/>
-    <mergeCell ref="AZ50:AZ51"/>
-    <mergeCell ref="BB50:BB51"/>
-    <mergeCell ref="AZ52:AZ53"/>
-    <mergeCell ref="BB52:BB53"/>
-    <mergeCell ref="AZ54:AZ55"/>
-    <mergeCell ref="BB54:BB55"/>
-    <mergeCell ref="AZ56:AZ57"/>
-    <mergeCell ref="BB56:BB57"/>
-    <mergeCell ref="AZ58:AZ59"/>
-    <mergeCell ref="BB58:BB59"/>
-    <mergeCell ref="AZ60:AZ61"/>
-    <mergeCell ref="BB60:BB61"/>
-    <mergeCell ref="AZ18:AZ19"/>
-    <mergeCell ref="BB18:BB19"/>
-    <mergeCell ref="AZ20:AZ21"/>
-    <mergeCell ref="BB20:BB21"/>
-    <mergeCell ref="AZ36:AZ37"/>
-    <mergeCell ref="BB36:BB37"/>
-    <mergeCell ref="AZ38:AZ39"/>
-    <mergeCell ref="BB38:BB39"/>
-    <mergeCell ref="AZ40:AZ41"/>
-    <mergeCell ref="BB40:BB41"/>
-    <mergeCell ref="AX26:AX37"/>
-    <mergeCell ref="AY26:AY37"/>
-    <mergeCell ref="AZ26:AZ27"/>
-    <mergeCell ref="BB26:BB27"/>
-    <mergeCell ref="AZ28:AZ29"/>
-    <mergeCell ref="BB28:BB29"/>
-    <mergeCell ref="AZ30:AZ31"/>
-    <mergeCell ref="BB30:BB31"/>
-    <mergeCell ref="AZ32:AZ33"/>
-    <mergeCell ref="BB32:BB33"/>
-    <mergeCell ref="AZ34:AZ35"/>
-    <mergeCell ref="BB34:BB35"/>
-    <mergeCell ref="AX14:AX25"/>
-    <mergeCell ref="AY14:AY25"/>
-    <mergeCell ref="AZ22:AZ23"/>
-    <mergeCell ref="BB22:BB23"/>
-    <mergeCell ref="AZ24:AZ25"/>
-    <mergeCell ref="BB24:BB25"/>
-    <mergeCell ref="AX2:AX13"/>
-    <mergeCell ref="AY2:AY13"/>
-    <mergeCell ref="AZ2:AZ3"/>
-    <mergeCell ref="BB2:BB3"/>
-    <mergeCell ref="AZ4:AZ5"/>
-    <mergeCell ref="BB4:BB5"/>
-    <mergeCell ref="AZ6:AZ7"/>
-    <mergeCell ref="BB6:BB7"/>
-    <mergeCell ref="AZ8:AZ9"/>
-    <mergeCell ref="BB8:BB9"/>
-    <mergeCell ref="AZ10:AZ11"/>
-    <mergeCell ref="BB10:BB11"/>
-    <mergeCell ref="AZ12:AZ13"/>
-    <mergeCell ref="BB12:BB13"/>
-    <mergeCell ref="AZ14:AZ15"/>
-    <mergeCell ref="BB14:BB15"/>
-    <mergeCell ref="AZ16:AZ17"/>
-    <mergeCell ref="BB16:BB17"/>
-    <mergeCell ref="AR62:AR73"/>
-    <mergeCell ref="AS62:AS73"/>
-    <mergeCell ref="AT62:AT63"/>
-    <mergeCell ref="AV62:AV63"/>
-    <mergeCell ref="AT64:AT65"/>
-    <mergeCell ref="AV64:AV65"/>
-    <mergeCell ref="AT66:AT67"/>
-    <mergeCell ref="AV66:AV67"/>
-    <mergeCell ref="AT68:AT69"/>
-    <mergeCell ref="AV68:AV69"/>
-    <mergeCell ref="AT70:AT71"/>
-    <mergeCell ref="AV70:AV71"/>
-    <mergeCell ref="AT72:AT73"/>
-    <mergeCell ref="AV72:AV73"/>
-    <mergeCell ref="AR50:AR61"/>
-    <mergeCell ref="AS50:AS61"/>
-    <mergeCell ref="AT50:AT51"/>
-    <mergeCell ref="AV50:AV51"/>
-    <mergeCell ref="AT52:AT53"/>
-    <mergeCell ref="AV52:AV53"/>
-    <mergeCell ref="AT54:AT55"/>
-    <mergeCell ref="AV54:AV55"/>
-    <mergeCell ref="AT56:AT57"/>
-    <mergeCell ref="AV56:AV57"/>
-    <mergeCell ref="AT58:AT59"/>
-    <mergeCell ref="AV58:AV59"/>
-    <mergeCell ref="AT60:AT61"/>
-    <mergeCell ref="AV60:AV61"/>
-    <mergeCell ref="AR38:AR49"/>
-    <mergeCell ref="AS38:AS49"/>
-    <mergeCell ref="AT38:AT39"/>
-    <mergeCell ref="AV38:AV39"/>
-    <mergeCell ref="AT40:AT41"/>
-    <mergeCell ref="AV40:AV41"/>
-    <mergeCell ref="AT42:AT43"/>
-    <mergeCell ref="AV42:AV43"/>
-    <mergeCell ref="AT44:AT45"/>
-    <mergeCell ref="AV44:AV45"/>
-    <mergeCell ref="AT46:AT47"/>
-    <mergeCell ref="AV46:AV47"/>
-    <mergeCell ref="AT48:AT49"/>
-    <mergeCell ref="AV48:AV49"/>
-    <mergeCell ref="AR26:AR37"/>
-    <mergeCell ref="AS26:AS37"/>
-    <mergeCell ref="AT26:AT27"/>
-    <mergeCell ref="AV26:AV27"/>
-    <mergeCell ref="AT28:AT29"/>
-    <mergeCell ref="AV28:AV29"/>
-    <mergeCell ref="AT30:AT31"/>
-    <mergeCell ref="AV30:AV31"/>
-    <mergeCell ref="AT32:AT33"/>
-    <mergeCell ref="AV32:AV33"/>
-    <mergeCell ref="AT34:AT35"/>
-    <mergeCell ref="AV34:AV35"/>
-    <mergeCell ref="AT36:AT37"/>
-    <mergeCell ref="AV36:AV37"/>
-    <mergeCell ref="AV2:AV3"/>
-    <mergeCell ref="AV4:AV5"/>
-    <mergeCell ref="AV6:AV7"/>
-    <mergeCell ref="AV8:AV9"/>
-    <mergeCell ref="AV10:AV11"/>
-    <mergeCell ref="AV12:AV13"/>
-    <mergeCell ref="AR14:AR25"/>
-    <mergeCell ref="AS14:AS25"/>
-    <mergeCell ref="AT14:AT15"/>
-    <mergeCell ref="AV14:AV15"/>
-    <mergeCell ref="AT16:AT17"/>
-    <mergeCell ref="AV16:AV17"/>
-    <mergeCell ref="AT18:AT19"/>
-    <mergeCell ref="AV18:AV19"/>
-    <mergeCell ref="AT20:AT21"/>
-    <mergeCell ref="AV20:AV21"/>
-    <mergeCell ref="AT22:AT23"/>
-    <mergeCell ref="AV22:AV23"/>
-    <mergeCell ref="AT24:AT25"/>
-    <mergeCell ref="AV24:AV25"/>
-    <mergeCell ref="AR2:AR13"/>
-    <mergeCell ref="AS2:AS13"/>
-    <mergeCell ref="AT2:AT3"/>
-    <mergeCell ref="AT4:AT5"/>
-    <mergeCell ref="AT6:AT7"/>
-    <mergeCell ref="AT8:AT9"/>
-    <mergeCell ref="AT10:AT11"/>
-    <mergeCell ref="AT12:AT13"/>
-    <mergeCell ref="AX38:AX49"/>
-    <mergeCell ref="AY38:AY49"/>
-    <mergeCell ref="N284:N289"/>
-    <mergeCell ref="M287:M289"/>
-    <mergeCell ref="M308:M310"/>
-    <mergeCell ref="N308:N313"/>
-    <mergeCell ref="M311:M313"/>
-    <mergeCell ref="N212:N217"/>
-    <mergeCell ref="M215:M217"/>
-    <mergeCell ref="M236:M238"/>
-    <mergeCell ref="N236:N241"/>
-    <mergeCell ref="M239:M241"/>
-    <mergeCell ref="M260:M262"/>
-    <mergeCell ref="N260:N265"/>
-    <mergeCell ref="M263:M265"/>
-    <mergeCell ref="N140:N145"/>
-    <mergeCell ref="M143:M145"/>
-    <mergeCell ref="M164:M166"/>
-    <mergeCell ref="N164:N169"/>
-    <mergeCell ref="M167:M169"/>
-    <mergeCell ref="M188:M190"/>
-    <mergeCell ref="N188:N193"/>
-    <mergeCell ref="M191:M193"/>
-    <mergeCell ref="N68:N73"/>
-    <mergeCell ref="M71:M73"/>
-    <mergeCell ref="M92:M94"/>
-    <mergeCell ref="N92:N97"/>
-    <mergeCell ref="M95:M97"/>
-    <mergeCell ref="M116:M118"/>
-    <mergeCell ref="N116:N121"/>
-    <mergeCell ref="M119:M121"/>
-    <mergeCell ref="N20:N25"/>
-    <mergeCell ref="M44:M46"/>
-    <mergeCell ref="N44:N49"/>
-    <mergeCell ref="M47:M49"/>
-    <mergeCell ref="J308:J310"/>
-    <mergeCell ref="L308:L310"/>
-    <mergeCell ref="J311:J313"/>
-    <mergeCell ref="L311:L313"/>
-    <mergeCell ref="M20:M22"/>
-    <mergeCell ref="M23:M25"/>
-    <mergeCell ref="M68:M70"/>
-    <mergeCell ref="M140:M142"/>
-    <mergeCell ref="M212:M214"/>
-    <mergeCell ref="M284:M286"/>
-    <mergeCell ref="J299:J301"/>
-    <mergeCell ref="L299:L301"/>
-    <mergeCell ref="J302:J304"/>
-    <mergeCell ref="L302:L304"/>
-    <mergeCell ref="J305:J307"/>
-    <mergeCell ref="L305:L307"/>
-    <mergeCell ref="J287:J289"/>
-    <mergeCell ref="L287:L289"/>
-    <mergeCell ref="J257:J259"/>
-    <mergeCell ref="L257:L259"/>
-    <mergeCell ref="H290:H313"/>
-    <mergeCell ref="I290:I313"/>
-    <mergeCell ref="J290:J292"/>
-    <mergeCell ref="L290:L292"/>
-    <mergeCell ref="J293:J295"/>
-    <mergeCell ref="L293:L295"/>
-    <mergeCell ref="J296:J298"/>
-    <mergeCell ref="L296:L298"/>
-    <mergeCell ref="J278:J280"/>
-    <mergeCell ref="L278:L280"/>
-    <mergeCell ref="J281:J283"/>
-    <mergeCell ref="L281:L283"/>
-    <mergeCell ref="J284:J286"/>
-    <mergeCell ref="L284:L286"/>
-    <mergeCell ref="H266:H289"/>
-    <mergeCell ref="I266:I289"/>
-    <mergeCell ref="J266:J268"/>
-    <mergeCell ref="L266:L268"/>
-    <mergeCell ref="J269:J271"/>
-    <mergeCell ref="L269:L271"/>
-    <mergeCell ref="J272:J274"/>
-    <mergeCell ref="L272:L274"/>
-    <mergeCell ref="J275:J277"/>
-    <mergeCell ref="L275:L277"/>
-    <mergeCell ref="H242:H265"/>
-    <mergeCell ref="I242:I265"/>
-    <mergeCell ref="J242:J244"/>
-    <mergeCell ref="L242:L244"/>
-    <mergeCell ref="J245:J247"/>
-    <mergeCell ref="L245:L247"/>
-    <mergeCell ref="J260:J262"/>
-    <mergeCell ref="L260:L262"/>
-    <mergeCell ref="J263:J265"/>
-    <mergeCell ref="L263:L265"/>
-    <mergeCell ref="J248:J250"/>
-    <mergeCell ref="L248:L250"/>
-    <mergeCell ref="J251:J253"/>
-    <mergeCell ref="L251:L253"/>
-    <mergeCell ref="J254:J256"/>
-    <mergeCell ref="L254:L256"/>
-    <mergeCell ref="J227:J229"/>
-    <mergeCell ref="L227:L229"/>
-    <mergeCell ref="J230:J232"/>
-    <mergeCell ref="L230:L232"/>
-    <mergeCell ref="J233:J235"/>
-    <mergeCell ref="L233:L235"/>
-    <mergeCell ref="J215:J217"/>
-    <mergeCell ref="L215:L217"/>
-    <mergeCell ref="H218:H241"/>
-    <mergeCell ref="I218:I241"/>
-    <mergeCell ref="J218:J220"/>
-    <mergeCell ref="L218:L220"/>
-    <mergeCell ref="J221:J223"/>
-    <mergeCell ref="L221:L223"/>
-    <mergeCell ref="J224:J226"/>
-    <mergeCell ref="L224:L226"/>
-    <mergeCell ref="J236:J238"/>
-    <mergeCell ref="L236:L238"/>
-    <mergeCell ref="J239:J241"/>
-    <mergeCell ref="L239:L241"/>
-    <mergeCell ref="J206:J208"/>
-    <mergeCell ref="L206:L208"/>
-    <mergeCell ref="J209:J211"/>
-    <mergeCell ref="L209:L211"/>
-    <mergeCell ref="J212:J214"/>
-    <mergeCell ref="L212:L214"/>
-    <mergeCell ref="H194:H217"/>
-    <mergeCell ref="I194:I217"/>
-    <mergeCell ref="J194:J196"/>
-    <mergeCell ref="L194:L196"/>
-    <mergeCell ref="J197:J199"/>
-    <mergeCell ref="L197:L199"/>
-    <mergeCell ref="J200:J202"/>
-    <mergeCell ref="L200:L202"/>
-    <mergeCell ref="J203:J205"/>
-    <mergeCell ref="L203:L205"/>
-    <mergeCell ref="H170:H193"/>
-    <mergeCell ref="I170:I193"/>
-    <mergeCell ref="J170:J172"/>
-    <mergeCell ref="L170:L172"/>
-    <mergeCell ref="J173:J175"/>
-    <mergeCell ref="L173:L175"/>
-    <mergeCell ref="J185:J187"/>
-    <mergeCell ref="L185:L187"/>
-    <mergeCell ref="J188:J190"/>
-    <mergeCell ref="L188:L190"/>
-    <mergeCell ref="J191:J193"/>
-    <mergeCell ref="L191:L193"/>
-    <mergeCell ref="J176:J178"/>
-    <mergeCell ref="L176:L178"/>
-    <mergeCell ref="J179:J181"/>
-    <mergeCell ref="L179:L181"/>
-    <mergeCell ref="J182:J184"/>
-    <mergeCell ref="L182:L184"/>
-    <mergeCell ref="J155:J157"/>
-    <mergeCell ref="L155:L157"/>
-    <mergeCell ref="J158:J160"/>
-    <mergeCell ref="L158:L160"/>
-    <mergeCell ref="J161:J163"/>
-    <mergeCell ref="L161:L163"/>
-    <mergeCell ref="J143:J145"/>
-    <mergeCell ref="L143:L145"/>
-    <mergeCell ref="H146:H169"/>
-    <mergeCell ref="I146:I169"/>
-    <mergeCell ref="J146:J148"/>
-    <mergeCell ref="L146:L148"/>
-    <mergeCell ref="J149:J151"/>
-    <mergeCell ref="L149:L151"/>
-    <mergeCell ref="J152:J154"/>
-    <mergeCell ref="L152:L154"/>
-    <mergeCell ref="J164:J166"/>
-    <mergeCell ref="L164:L166"/>
-    <mergeCell ref="J167:J169"/>
-    <mergeCell ref="L167:L169"/>
-    <mergeCell ref="J134:J136"/>
-    <mergeCell ref="L134:L136"/>
-    <mergeCell ref="J137:J139"/>
-    <mergeCell ref="L137:L139"/>
-    <mergeCell ref="J140:J142"/>
-    <mergeCell ref="L140:L142"/>
-    <mergeCell ref="H122:H145"/>
-    <mergeCell ref="I122:I145"/>
-    <mergeCell ref="J122:J124"/>
-    <mergeCell ref="L122:L124"/>
-    <mergeCell ref="J125:J127"/>
-    <mergeCell ref="L125:L127"/>
-    <mergeCell ref="J128:J130"/>
-    <mergeCell ref="L128:L130"/>
-    <mergeCell ref="J131:J133"/>
-    <mergeCell ref="L131:L133"/>
-    <mergeCell ref="L110:L112"/>
-    <mergeCell ref="J113:J115"/>
-    <mergeCell ref="L113:L115"/>
-    <mergeCell ref="J116:J118"/>
-    <mergeCell ref="L116:L118"/>
-    <mergeCell ref="J119:J121"/>
-    <mergeCell ref="L119:L121"/>
-    <mergeCell ref="I98:I121"/>
-    <mergeCell ref="J98:J100"/>
-    <mergeCell ref="L98:L100"/>
-    <mergeCell ref="J101:J103"/>
-    <mergeCell ref="L101:L103"/>
-    <mergeCell ref="J104:J106"/>
-    <mergeCell ref="L104:L106"/>
-    <mergeCell ref="J107:J109"/>
-    <mergeCell ref="L107:L109"/>
-    <mergeCell ref="J110:J112"/>
-    <mergeCell ref="I74:I97"/>
-    <mergeCell ref="J74:J76"/>
-    <mergeCell ref="L74:L76"/>
-    <mergeCell ref="J77:J79"/>
-    <mergeCell ref="L77:L79"/>
-    <mergeCell ref="J80:J82"/>
-    <mergeCell ref="L80:L82"/>
-    <mergeCell ref="J83:J85"/>
-    <mergeCell ref="L83:L85"/>
-    <mergeCell ref="J86:J88"/>
-    <mergeCell ref="J62:J64"/>
-    <mergeCell ref="L62:L64"/>
-    <mergeCell ref="L86:L88"/>
-    <mergeCell ref="J89:J91"/>
-    <mergeCell ref="L89:L91"/>
-    <mergeCell ref="J92:J94"/>
-    <mergeCell ref="L92:L94"/>
-    <mergeCell ref="J95:J97"/>
-    <mergeCell ref="L95:L97"/>
-    <mergeCell ref="J29:J31"/>
-    <mergeCell ref="L29:L31"/>
-    <mergeCell ref="J32:J34"/>
-    <mergeCell ref="L32:L34"/>
-    <mergeCell ref="J44:J46"/>
-    <mergeCell ref="L44:L46"/>
-    <mergeCell ref="J47:J49"/>
-    <mergeCell ref="L47:L49"/>
-    <mergeCell ref="H50:H73"/>
-    <mergeCell ref="I50:I73"/>
-    <mergeCell ref="J50:J52"/>
-    <mergeCell ref="L50:L52"/>
-    <mergeCell ref="J53:J55"/>
-    <mergeCell ref="L53:L55"/>
-    <mergeCell ref="J65:J67"/>
-    <mergeCell ref="L65:L67"/>
-    <mergeCell ref="J68:J70"/>
-    <mergeCell ref="L68:L70"/>
-    <mergeCell ref="J71:J73"/>
-    <mergeCell ref="L71:L73"/>
-    <mergeCell ref="J56:J58"/>
-    <mergeCell ref="L56:L58"/>
-    <mergeCell ref="J59:J61"/>
-    <mergeCell ref="L59:L61"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="L5:L7"/>
-    <mergeCell ref="L8:L10"/>
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="L14:L16"/>
-    <mergeCell ref="L17:L19"/>
-    <mergeCell ref="H2:H25"/>
-    <mergeCell ref="H74:H97"/>
-    <mergeCell ref="H98:H121"/>
-    <mergeCell ref="J20:J22"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="I2:I25"/>
-    <mergeCell ref="J35:J37"/>
-    <mergeCell ref="L35:L37"/>
-    <mergeCell ref="J38:J40"/>
-    <mergeCell ref="L38:L40"/>
-    <mergeCell ref="J41:J43"/>
-    <mergeCell ref="L41:L43"/>
-    <mergeCell ref="L20:L22"/>
-    <mergeCell ref="L23:L25"/>
-    <mergeCell ref="H26:H49"/>
-    <mergeCell ref="I26:I49"/>
-    <mergeCell ref="J26:J28"/>
-    <mergeCell ref="L26:L28"/>
-    <mergeCell ref="F92:F94"/>
-    <mergeCell ref="F95:F97"/>
-    <mergeCell ref="F98:F100"/>
-    <mergeCell ref="F101:F103"/>
-    <mergeCell ref="F104:F106"/>
-    <mergeCell ref="F107:F109"/>
-    <mergeCell ref="F74:F76"/>
-    <mergeCell ref="F77:F79"/>
-    <mergeCell ref="F80:F82"/>
-    <mergeCell ref="F83:F85"/>
-    <mergeCell ref="F86:F88"/>
-    <mergeCell ref="F89:F91"/>
-    <mergeCell ref="F59:F61"/>
-    <mergeCell ref="F62:F64"/>
-    <mergeCell ref="F65:F67"/>
-    <mergeCell ref="F68:F70"/>
-    <mergeCell ref="F71:F73"/>
-    <mergeCell ref="F38:F40"/>
-    <mergeCell ref="F41:F43"/>
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="F47:F49"/>
-    <mergeCell ref="F50:F52"/>
-    <mergeCell ref="F53:F55"/>
-    <mergeCell ref="F32:F34"/>
-    <mergeCell ref="F35:F37"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="F56:F58"/>
-    <mergeCell ref="B92:B109"/>
-    <mergeCell ref="C92:C109"/>
-    <mergeCell ref="D92:D94"/>
-    <mergeCell ref="D95:D97"/>
-    <mergeCell ref="D98:D100"/>
-    <mergeCell ref="D101:D103"/>
-    <mergeCell ref="D104:D106"/>
-    <mergeCell ref="D107:D109"/>
-    <mergeCell ref="B74:B91"/>
-    <mergeCell ref="C74:C91"/>
-    <mergeCell ref="D74:D76"/>
-    <mergeCell ref="D77:D79"/>
-    <mergeCell ref="D80:D82"/>
-    <mergeCell ref="D83:D85"/>
-    <mergeCell ref="D86:D88"/>
-    <mergeCell ref="D89:D91"/>
-    <mergeCell ref="B56:B73"/>
-    <mergeCell ref="C56:C73"/>
-    <mergeCell ref="D56:D58"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="D62:D64"/>
-    <mergeCell ref="D65:D67"/>
-    <mergeCell ref="D68:D70"/>
-    <mergeCell ref="D71:D73"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="B38:B55"/>
-    <mergeCell ref="C38:C55"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="D47:D49"/>
-    <mergeCell ref="D50:D52"/>
-    <mergeCell ref="D53:D55"/>
-    <mergeCell ref="B2:B19"/>
-    <mergeCell ref="B20:B37"/>
-    <mergeCell ref="C20:C37"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="J8:J10"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="C2:C19"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="AX86:AX97"/>
+    <mergeCell ref="AY86:AY97"/>
+    <mergeCell ref="AZ86:AZ87"/>
+    <mergeCell ref="BB86:BB87"/>
+    <mergeCell ref="AZ88:AZ89"/>
+    <mergeCell ref="BB88:BB89"/>
+    <mergeCell ref="AZ90:AZ91"/>
+    <mergeCell ref="BB90:BB91"/>
+    <mergeCell ref="AZ92:AZ93"/>
+    <mergeCell ref="BB92:BB93"/>
+    <mergeCell ref="AZ94:AZ95"/>
+    <mergeCell ref="BB94:BB95"/>
+    <mergeCell ref="AZ96:AZ97"/>
+    <mergeCell ref="BB96:BB97"/>
+    <mergeCell ref="AX98:AX109"/>
+    <mergeCell ref="AY98:AY109"/>
+    <mergeCell ref="AZ98:AZ99"/>
+    <mergeCell ref="BB98:BB99"/>
+    <mergeCell ref="AZ100:AZ101"/>
+    <mergeCell ref="BB100:BB101"/>
+    <mergeCell ref="AZ102:AZ103"/>
+    <mergeCell ref="BB102:BB103"/>
+    <mergeCell ref="AZ104:AZ105"/>
+    <mergeCell ref="BB104:BB105"/>
+    <mergeCell ref="AZ106:AZ107"/>
+    <mergeCell ref="BB106:BB107"/>
+    <mergeCell ref="AZ108:AZ109"/>
+    <mergeCell ref="BB108:BB109"/>
+    <mergeCell ref="AX110:AX121"/>
+    <mergeCell ref="AY110:AY121"/>
+    <mergeCell ref="AZ110:AZ111"/>
+    <mergeCell ref="BB110:BB111"/>
+    <mergeCell ref="AZ112:AZ113"/>
+    <mergeCell ref="BB112:BB113"/>
+    <mergeCell ref="AZ114:AZ115"/>
+    <mergeCell ref="BB114:BB115"/>
+    <mergeCell ref="AZ116:AZ117"/>
+    <mergeCell ref="BB116:BB117"/>
+    <mergeCell ref="AZ118:AZ119"/>
+    <mergeCell ref="BB118:BB119"/>
+    <mergeCell ref="AZ120:AZ121"/>
+    <mergeCell ref="BB120:BB121"/>
+    <mergeCell ref="AX122:AX133"/>
+    <mergeCell ref="AY122:AY133"/>
+    <mergeCell ref="AZ122:AZ123"/>
+    <mergeCell ref="BB122:BB123"/>
+    <mergeCell ref="AZ124:AZ125"/>
+    <mergeCell ref="BB124:BB125"/>
+    <mergeCell ref="AZ126:AZ127"/>
+    <mergeCell ref="BB126:BB127"/>
+    <mergeCell ref="AZ128:AZ129"/>
+    <mergeCell ref="BB128:BB129"/>
+    <mergeCell ref="AZ130:AZ131"/>
+    <mergeCell ref="BB130:BB131"/>
+    <mergeCell ref="AZ132:AZ133"/>
+    <mergeCell ref="BB132:BB133"/>
+    <mergeCell ref="AX134:AX145"/>
+    <mergeCell ref="AY134:AY145"/>
+    <mergeCell ref="AZ134:AZ135"/>
+    <mergeCell ref="BB134:BB135"/>
+    <mergeCell ref="AZ136:AZ137"/>
+    <mergeCell ref="BB136:BB137"/>
+    <mergeCell ref="AZ138:AZ139"/>
+    <mergeCell ref="BB138:BB139"/>
+    <mergeCell ref="AZ140:AZ141"/>
+    <mergeCell ref="BB140:BB141"/>
+    <mergeCell ref="AZ142:AZ143"/>
+    <mergeCell ref="BB142:BB143"/>
+    <mergeCell ref="AZ144:AZ145"/>
+    <mergeCell ref="BB144:BB145"/>
+    <mergeCell ref="AX146:AX157"/>
+    <mergeCell ref="AY146:AY157"/>
+    <mergeCell ref="AZ146:AZ147"/>
+    <mergeCell ref="BB146:BB147"/>
+    <mergeCell ref="AZ148:AZ149"/>
+    <mergeCell ref="BB148:BB149"/>
+    <mergeCell ref="AZ150:AZ151"/>
+    <mergeCell ref="BB150:BB151"/>
+    <mergeCell ref="AZ152:AZ153"/>
+    <mergeCell ref="BB152:BB153"/>
+    <mergeCell ref="AZ154:AZ155"/>
+    <mergeCell ref="BB154:BB155"/>
+    <mergeCell ref="AZ156:AZ157"/>
+    <mergeCell ref="BB156:BB157"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11391,9 +11403,9 @@
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
@@ -11407,7 +11419,7 @@
         <v>5.08</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -11421,7 +11433,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -11435,7 +11447,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -11449,7 +11461,7 @@
         <v>5.15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -11466,7 +11478,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -11483,7 +11495,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -11500,7 +11512,7 @@
         <v>2.57</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -11517,7 +11529,7 @@
         <v>2.59</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -11531,7 +11543,7 @@
         <v>2.56</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10</v>
       </c>
@@ -11545,7 +11557,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>11</v>
       </c>
@@ -11559,7 +11571,7 @@
         <v>2.56</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12</v>
       </c>
@@ -11586,7 +11598,7 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matej\PycharmProjects\pythonProject\Python_projects\HEXAGONS\Hexagons-Diploma_thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883923C8-0D6B-4EDA-9EC3-B0DDFB837B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D68946C-15FF-4626-BAA9-AFDB4BC66A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{735BFD8D-33DF-4D6F-9FA3-FBF8D607A82B}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{735BFD8D-33DF-4D6F-9FA3-FBF8D607A82B}"/>
   </bookViews>
   <sheets>
     <sheet name="tah poměry směrnice" sheetId="6" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="54">
   <si>
     <t>I</t>
   </si>
@@ -199,6 +199,12 @@
   </si>
   <si>
     <t>Dlouhý: 5</t>
+  </si>
+  <si>
+    <t>Krátký: 1</t>
+  </si>
+  <si>
+    <t>Dlouhý: 1</t>
   </si>
 </sst>
 </file>
@@ -507,10 +513,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5653,6 +5659,856 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="cs-CZ"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>List2!$T$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Krátký: 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>List2!$S$2:$S$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>List2!$T$2:$T$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>8.183E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2112999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3836999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5909000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.7694E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.8647999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0625999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.0536000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0067E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1015E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1979999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2902E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3892E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4859000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.5768999999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E457-49F3-8F18-B2C4485B3BD3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>List2!$U$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dlouhý: 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>List2!$S$2:$S$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>List2!$U$2:$U$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>4.8840000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0801999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6188999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1483000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6313E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1695E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.7217000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.2611999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.8025000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.3433999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.9310999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.463E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.0086999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.5737000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.1238999999999999E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E457-49F3-8F18-B2C4485B3BD3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>List2!$V$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Krátký: 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>List2!$S$2:$S$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>List2!$V$2:$V$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>9.936299999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2458000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4068000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5367000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.6131000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.5830000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.5224000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.4395000000000008E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.3699000000000005E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0279999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1091E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1682E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2322E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3034E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.3649E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E457-49F3-8F18-B2C4485B3BD3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>List2!$W$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dlouhý: 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>List2!$S$2:$S$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>List2!$W$2:$W$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>4.3307000000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0011E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5204999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0154999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5631999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0942000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.6194E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.2196000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.7507000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.3100999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.8687000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.3940000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.9702999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.5312E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.0703000000000007E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E457-49F3-8F18-B2C4485B3BD3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="15289999"/>
+        <c:axId val="1925648527"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="15289999"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1925648527"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1925648527"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="15289999"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="cs-CZ"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -5814,6 +6670,46 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8433,6 +9329,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -8615,6 +10027,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>573405</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Graf 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2DF25A8-2974-6D02-3490-01DFB3B1A8CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11588,15 +13036,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97EC7871-BAED-4147-8E82-DB1BEFFF687F}">
-  <dimension ref="A1:P47"/>
+  <dimension ref="A1:W47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AI8" sqref="AI8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="20" max="21" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>47</v>
       </c>
@@ -11615,8 +13066,20 @@
       <c r="P1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U1" t="s">
+        <v>53</v>
+      </c>
+      <c r="V1" t="s">
+        <v>47</v>
+      </c>
+      <c r="W1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -11639,8 +13102,25 @@
         <f>$P$1*B2</f>
         <v>4.0915E-4</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <f>B2</f>
+        <v>8.183E-4</v>
+      </c>
+      <c r="U2">
+        <f>C2</f>
+        <v>4.8840000000000005E-4</v>
+      </c>
+      <c r="V2">
+        <v>9.936299999999999E-4</v>
+      </c>
+      <c r="W2">
+        <v>4.3307000000000003E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -11663,8 +13143,25 @@
         <f t="shared" ref="P3:P16" si="0">$P$1*B3</f>
         <v>1.1056499999999999E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S3">
+        <v>2</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T16" si="1">B3</f>
+        <v>2.2112999999999998E-3</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ref="U3:U16" si="2">C3</f>
+        <v>1.0801999999999999E-3</v>
+      </c>
+      <c r="V3">
+        <v>2.2458000000000001E-3</v>
+      </c>
+      <c r="W3">
+        <v>1.0011E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -11687,8 +13184,25 @@
         <f t="shared" si="0"/>
         <v>1.69185E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S4">
+        <v>3</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="1"/>
+        <v>3.3836999999999999E-3</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="2"/>
+        <v>1.6188999999999999E-3</v>
+      </c>
+      <c r="V4">
+        <v>3.4068000000000002E-3</v>
+      </c>
+      <c r="W4">
+        <v>1.5204999999999999E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -11711,8 +13225,25 @@
         <f t="shared" si="0"/>
         <v>2.2954500000000001E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S5">
+        <v>4</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="1"/>
+        <v>4.5909000000000002E-3</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="2"/>
+        <v>2.1483000000000001E-3</v>
+      </c>
+      <c r="V5">
+        <v>4.5367000000000003E-3</v>
+      </c>
+      <c r="W5">
+        <v>2.0154999999999999E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -11735,8 +13266,25 @@
         <f t="shared" si="0"/>
         <v>2.8847E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S6">
+        <v>5</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="1"/>
+        <v>5.7694E-3</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="2"/>
+        <v>2.6313E-3</v>
+      </c>
+      <c r="V6">
+        <v>5.6131000000000002E-3</v>
+      </c>
+      <c r="W6">
+        <v>2.5631999999999999E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -11759,8 +13307,25 @@
         <f t="shared" si="0"/>
         <v>3.4323999999999999E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S7">
+        <v>6</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="1"/>
+        <v>6.8647999999999999E-3</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="2"/>
+        <v>3.1695E-3</v>
+      </c>
+      <c r="V7">
+        <v>6.5830000000000003E-3</v>
+      </c>
+      <c r="W7">
+        <v>3.0942000000000001E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -11783,8 +13348,25 @@
         <f t="shared" si="0"/>
         <v>4.0312999999999998E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S8">
+        <v>7</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="1"/>
+        <v>8.0625999999999996E-3</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="2"/>
+        <v>3.7217000000000001E-3</v>
+      </c>
+      <c r="V8">
+        <v>7.5224000000000003E-3</v>
+      </c>
+      <c r="W8">
+        <v>3.6194E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -11807,8 +13389,25 @@
         <f t="shared" si="0"/>
         <v>4.5268000000000001E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S9">
+        <v>8</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="1"/>
+        <v>9.0536000000000002E-3</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="2"/>
+        <v>4.2611999999999997E-3</v>
+      </c>
+      <c r="V9">
+        <v>8.4395000000000008E-3</v>
+      </c>
+      <c r="W9">
+        <v>4.2196000000000004E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -11831,8 +13430,25 @@
         <f t="shared" si="0"/>
         <v>5.0334999999999998E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S10">
+        <v>9</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="1"/>
+        <v>1.0067E-2</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="2"/>
+        <v>4.8025000000000003E-3</v>
+      </c>
+      <c r="V10">
+        <v>9.3699000000000005E-3</v>
+      </c>
+      <c r="W10">
+        <v>4.7507000000000001E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -11855,8 +13471,25 @@
         <f t="shared" si="0"/>
         <v>5.5075000000000002E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S11">
+        <v>10</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="1"/>
+        <v>1.1015E-2</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="2"/>
+        <v>5.3433999999999999E-3</v>
+      </c>
+      <c r="V11">
+        <v>1.0279999999999999E-2</v>
+      </c>
+      <c r="W11">
+        <v>5.3100999999999999E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -11879,8 +13512,25 @@
         <f t="shared" si="0"/>
         <v>5.9899999999999997E-3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S12">
+        <v>11</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="1"/>
+        <v>1.1979999999999999E-2</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="2"/>
+        <v>5.9310999999999999E-3</v>
+      </c>
+      <c r="V12">
+        <v>1.1091E-2</v>
+      </c>
+      <c r="W12">
+        <v>5.8687000000000001E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -11903,8 +13553,25 @@
         <f t="shared" si="0"/>
         <v>6.4510000000000001E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S13">
+        <v>12</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="1"/>
+        <v>1.2902E-2</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="2"/>
+        <v>6.463E-3</v>
+      </c>
+      <c r="V13">
+        <v>1.1682E-2</v>
+      </c>
+      <c r="W13">
+        <v>6.3940000000000004E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -11927,8 +13594,25 @@
         <f t="shared" si="0"/>
         <v>6.9459999999999999E-3</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S14">
+        <v>13</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="1"/>
+        <v>1.3892E-2</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="2"/>
+        <v>7.0086999999999997E-3</v>
+      </c>
+      <c r="V14">
+        <v>1.2322E-2</v>
+      </c>
+      <c r="W14">
+        <v>6.9702999999999996E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -11951,8 +13635,25 @@
         <f t="shared" si="0"/>
         <v>7.4295000000000003E-3</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S15">
+        <v>14</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="1"/>
+        <v>1.4859000000000001E-2</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="2"/>
+        <v>7.5737000000000001E-3</v>
+      </c>
+      <c r="V15">
+        <v>1.3034E-2</v>
+      </c>
+      <c r="W15">
+        <v>7.5312E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -11974,6 +13675,23 @@
       <c r="P16">
         <f t="shared" si="0"/>
         <v>7.8844999999999991E-3</v>
+      </c>
+      <c r="S16">
+        <v>15</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="1"/>
+        <v>1.5768999999999998E-2</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="2"/>
+        <v>8.1238999999999999E-3</v>
+      </c>
+      <c r="V16">
+        <v>1.3649E-2</v>
+      </c>
+      <c r="W16">
+        <v>8.0703000000000007E-3</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
@@ -14531,7 +16249,7 @@
       <c r="L20" s="33">
         <v>7</v>
       </c>
-      <c r="M20" s="36">
+      <c r="M20" s="35">
         <v>46.99</v>
       </c>
       <c r="N20" s="34">
@@ -14582,7 +16300,7 @@
         <v>2.52</v>
       </c>
       <c r="L21" s="33"/>
-      <c r="M21" s="36"/>
+      <c r="M21" s="35"/>
       <c r="N21" s="34"/>
       <c r="T21" s="11">
         <v>88.78</v>
@@ -14619,7 +16337,7 @@
         <v>2.54</v>
       </c>
       <c r="L22" s="33"/>
-      <c r="M22" s="36"/>
+      <c r="M22" s="35"/>
       <c r="N22" s="34"/>
       <c r="T22" s="11">
         <v>88.4</v>
@@ -14676,7 +16394,7 @@
       <c r="L23" s="33">
         <v>8</v>
       </c>
-      <c r="M23" s="35">
+      <c r="M23" s="36">
         <v>46.88</v>
       </c>
       <c r="N23" s="34"/>
@@ -14715,7 +16433,7 @@
         <v>2.5099999999999998</v>
       </c>
       <c r="L24" s="33"/>
-      <c r="M24" s="35"/>
+      <c r="M24" s="36"/>
       <c r="N24" s="34"/>
       <c r="T24" s="11">
         <v>87.77</v>
@@ -14762,7 +16480,7 @@
         <v>2.5</v>
       </c>
       <c r="L25" s="33"/>
-      <c r="M25" s="35"/>
+      <c r="M25" s="36"/>
       <c r="N25" s="34"/>
       <c r="T25" s="11">
         <v>87.81</v>
@@ -15584,7 +17302,7 @@
       <c r="L44" s="33">
         <v>7</v>
       </c>
-      <c r="M44" s="36">
+      <c r="M44" s="35">
         <v>47.1</v>
       </c>
       <c r="N44" s="34">
@@ -15632,7 +17350,7 @@
         <v>2.52</v>
       </c>
       <c r="L45" s="33"/>
-      <c r="M45" s="36"/>
+      <c r="M45" s="35"/>
       <c r="N45" s="34"/>
       <c r="AR45" s="31"/>
       <c r="AS45" s="32"/>
@@ -15666,7 +17384,7 @@
         <v>2.52</v>
       </c>
       <c r="L46" s="33"/>
-      <c r="M46" s="36"/>
+      <c r="M46" s="35"/>
       <c r="N46" s="34"/>
       <c r="AR46" s="31"/>
       <c r="AS46" s="32"/>
@@ -15720,7 +17438,7 @@
       <c r="L47" s="33">
         <v>8</v>
       </c>
-      <c r="M47" s="35">
+      <c r="M47" s="36">
         <v>47.01</v>
       </c>
       <c r="N47" s="34"/>
@@ -15756,7 +17474,7 @@
         <v>2.52</v>
       </c>
       <c r="L48" s="33"/>
-      <c r="M48" s="35"/>
+      <c r="M48" s="36"/>
       <c r="N48" s="34"/>
       <c r="AR48" s="31"/>
       <c r="AS48" s="32"/>
@@ -15800,7 +17518,7 @@
         <v>2.48</v>
       </c>
       <c r="L49" s="33"/>
-      <c r="M49" s="35"/>
+      <c r="M49" s="36"/>
       <c r="N49" s="34"/>
       <c r="AR49" s="31"/>
       <c r="AS49" s="32"/>
@@ -16606,7 +18324,7 @@
       <c r="L68" s="33">
         <v>7</v>
       </c>
-      <c r="M68" s="36">
+      <c r="M68" s="35">
         <v>46.79</v>
       </c>
       <c r="N68" s="34">
@@ -16654,7 +18372,7 @@
         <v>2.54</v>
       </c>
       <c r="L69" s="33"/>
-      <c r="M69" s="36"/>
+      <c r="M69" s="35"/>
       <c r="N69" s="34"/>
       <c r="AR69" s="31"/>
       <c r="AS69" s="32"/>
@@ -16688,7 +18406,7 @@
         <v>2.5099999999999998</v>
       </c>
       <c r="L70" s="33"/>
-      <c r="M70" s="36"/>
+      <c r="M70" s="35"/>
       <c r="N70" s="34"/>
       <c r="AR70" s="31"/>
       <c r="AS70" s="32"/>
@@ -16742,7 +18460,7 @@
       <c r="L71" s="33">
         <v>8</v>
       </c>
-      <c r="M71" s="35">
+      <c r="M71" s="36">
         <v>47.02</v>
       </c>
       <c r="N71" s="34"/>
@@ -16778,7 +18496,7 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="L72" s="33"/>
-      <c r="M72" s="35"/>
+      <c r="M72" s="36"/>
       <c r="N72" s="34"/>
       <c r="AR72" s="31"/>
       <c r="AS72" s="32"/>
@@ -16822,7 +18540,7 @@
         <v>2.52</v>
       </c>
       <c r="L73" s="33"/>
-      <c r="M73" s="35"/>
+      <c r="M73" s="36"/>
       <c r="N73" s="34"/>
       <c r="AR73" s="31"/>
       <c r="AS73" s="32"/>
@@ -17420,7 +19138,7 @@
       <c r="L92" s="33">
         <v>7</v>
       </c>
-      <c r="M92" s="36">
+      <c r="M92" s="35">
         <v>47.08</v>
       </c>
       <c r="N92" s="34">
@@ -17454,7 +19172,7 @@
         <v>2.5299999999999998</v>
       </c>
       <c r="L93" s="33"/>
-      <c r="M93" s="36"/>
+      <c r="M93" s="35"/>
       <c r="N93" s="34"/>
       <c r="AX93" s="31"/>
       <c r="AY93" s="32"/>
@@ -17479,7 +19197,7 @@
         <v>2.4700000000000002</v>
       </c>
       <c r="L94" s="33"/>
-      <c r="M94" s="36"/>
+      <c r="M94" s="35"/>
       <c r="N94" s="34"/>
       <c r="AX94" s="31"/>
       <c r="AY94" s="32"/>
@@ -17519,7 +19237,7 @@
       <c r="L95" s="33">
         <v>8</v>
       </c>
-      <c r="M95" s="35">
+      <c r="M95" s="36">
         <v>47.04</v>
       </c>
       <c r="N95" s="34"/>
@@ -17546,7 +19264,7 @@
         <v>2.54</v>
       </c>
       <c r="L96" s="33"/>
-      <c r="M96" s="35"/>
+      <c r="M96" s="36"/>
       <c r="N96" s="34"/>
       <c r="AX96" s="31"/>
       <c r="AY96" s="32"/>
@@ -17576,7 +19294,7 @@
         <v>2.4900000000000002</v>
       </c>
       <c r="L97" s="33"/>
-      <c r="M97" s="35"/>
+      <c r="M97" s="36"/>
       <c r="N97" s="34"/>
       <c r="AX97" s="31"/>
       <c r="AY97" s="32"/>
@@ -18103,7 +19821,7 @@
       <c r="L116" s="33">
         <v>7</v>
       </c>
-      <c r="M116" s="36">
+      <c r="M116" s="35">
         <v>47.06</v>
       </c>
       <c r="N116" s="34">
@@ -18131,7 +19849,7 @@
         <v>2.54</v>
       </c>
       <c r="L117" s="33"/>
-      <c r="M117" s="36"/>
+      <c r="M117" s="35"/>
       <c r="N117" s="34"/>
       <c r="AX117" s="31"/>
       <c r="AY117" s="32"/>
@@ -18150,7 +19868,7 @@
         <v>2.5299999999999998</v>
       </c>
       <c r="L118" s="33"/>
-      <c r="M118" s="36"/>
+      <c r="M118" s="35"/>
       <c r="N118" s="34"/>
       <c r="AX118" s="31"/>
       <c r="AY118" s="32"/>
@@ -18178,7 +19896,7 @@
       <c r="L119" s="33">
         <v>8</v>
       </c>
-      <c r="M119" s="35">
+      <c r="M119" s="36">
         <v>46.81</v>
       </c>
       <c r="N119" s="34"/>
@@ -18198,7 +19916,7 @@
         <v>2.5299999999999998</v>
       </c>
       <c r="L120" s="33"/>
-      <c r="M120" s="35"/>
+      <c r="M120" s="36"/>
       <c r="N120" s="34"/>
       <c r="AX120" s="31"/>
       <c r="AY120" s="32"/>
@@ -18221,7 +19939,7 @@
         <v>2.52</v>
       </c>
       <c r="L121" s="33"/>
-      <c r="M121" s="35"/>
+      <c r="M121" s="36"/>
       <c r="N121" s="34"/>
       <c r="AX121" s="31"/>
       <c r="AY121" s="32"/>
@@ -18628,7 +20346,7 @@
       <c r="L140" s="33">
         <v>7</v>
       </c>
-      <c r="M140" s="36">
+      <c r="M140" s="35">
         <v>47.01</v>
       </c>
       <c r="N140" s="34">
@@ -18655,7 +20373,7 @@
         <v>2.5099999999999998</v>
       </c>
       <c r="L141" s="33"/>
-      <c r="M141" s="36"/>
+      <c r="M141" s="35"/>
       <c r="N141" s="34"/>
       <c r="AX141" s="31"/>
       <c r="AY141" s="32"/>
@@ -18673,7 +20391,7 @@
         <v>2.5299999999999998</v>
       </c>
       <c r="L142" s="33"/>
-      <c r="M142" s="36"/>
+      <c r="M142" s="35"/>
       <c r="N142" s="34"/>
       <c r="AX142" s="31"/>
       <c r="AY142" s="32"/>
@@ -18701,7 +20419,7 @@
       <c r="L143" s="33">
         <v>8</v>
       </c>
-      <c r="M143" s="35">
+      <c r="M143" s="36">
         <v>46.96</v>
       </c>
       <c r="N143" s="34"/>
@@ -18721,7 +20439,7 @@
         <v>2.54</v>
       </c>
       <c r="L144" s="33"/>
-      <c r="M144" s="35"/>
+      <c r="M144" s="36"/>
       <c r="N144" s="34"/>
       <c r="AX144" s="31"/>
       <c r="AY144" s="32"/>
@@ -18744,7 +20462,7 @@
         <v>2.5099999999999998</v>
       </c>
       <c r="L145" s="33"/>
-      <c r="M145" s="35"/>
+      <c r="M145" s="36"/>
       <c r="N145" s="34"/>
       <c r="AX145" s="31"/>
       <c r="AY145" s="32"/>
@@ -19099,7 +20817,7 @@
       <c r="L164" s="33">
         <v>7</v>
       </c>
-      <c r="M164" s="36"/>
+      <c r="M164" s="35"/>
       <c r="N164" s="34"/>
     </row>
     <row r="165" spans="8:53" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -19110,7 +20828,7 @@
         <v>2.5299999999999998</v>
       </c>
       <c r="L165" s="33"/>
-      <c r="M165" s="36"/>
+      <c r="M165" s="35"/>
       <c r="N165" s="34"/>
     </row>
     <row r="166" spans="8:53" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -19121,7 +20839,7 @@
         <v>2.5</v>
       </c>
       <c r="L166" s="33"/>
-      <c r="M166" s="36"/>
+      <c r="M166" s="35"/>
       <c r="N166" s="34"/>
     </row>
     <row r="167" spans="8:53" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -19137,7 +20855,7 @@
       <c r="L167" s="33">
         <v>8</v>
       </c>
-      <c r="M167" s="35"/>
+      <c r="M167" s="36"/>
       <c r="N167" s="34"/>
     </row>
     <row r="168" spans="8:53" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -19148,7 +20866,7 @@
         <v>2.52</v>
       </c>
       <c r="L168" s="33"/>
-      <c r="M168" s="35"/>
+      <c r="M168" s="36"/>
       <c r="N168" s="34"/>
     </row>
     <row r="169" spans="8:53" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -19159,7 +20877,7 @@
         <v>2.48</v>
       </c>
       <c r="L169" s="33"/>
-      <c r="M169" s="35"/>
+      <c r="M169" s="36"/>
       <c r="N169" s="34"/>
     </row>
     <row r="170" spans="8:53" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -19378,7 +21096,7 @@
       <c r="L188" s="33">
         <v>7</v>
       </c>
-      <c r="M188" s="36"/>
+      <c r="M188" s="35"/>
       <c r="N188" s="34"/>
     </row>
     <row r="189" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -19389,7 +21107,7 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="L189" s="33"/>
-      <c r="M189" s="36"/>
+      <c r="M189" s="35"/>
       <c r="N189" s="34"/>
     </row>
     <row r="190" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -19400,7 +21118,7 @@
         <v>2.44</v>
       </c>
       <c r="L190" s="33"/>
-      <c r="M190" s="36"/>
+      <c r="M190" s="35"/>
       <c r="N190" s="34"/>
     </row>
     <row r="191" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -19416,7 +21134,7 @@
       <c r="L191" s="33">
         <v>8</v>
       </c>
-      <c r="M191" s="35"/>
+      <c r="M191" s="36"/>
       <c r="N191" s="34"/>
     </row>
     <row r="192" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -19427,7 +21145,7 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="L192" s="33"/>
-      <c r="M192" s="35"/>
+      <c r="M192" s="36"/>
       <c r="N192" s="34"/>
     </row>
     <row r="193" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -19438,7 +21156,7 @@
         <v>2.5099999999999998</v>
       </c>
       <c r="L193" s="33"/>
-      <c r="M193" s="35"/>
+      <c r="M193" s="36"/>
       <c r="N193" s="34"/>
     </row>
     <row r="194" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -19657,7 +21375,7 @@
       <c r="L212" s="33">
         <v>7</v>
       </c>
-      <c r="M212" s="36"/>
+      <c r="M212" s="35"/>
       <c r="N212" s="34"/>
     </row>
     <row r="213" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -19668,7 +21386,7 @@
         <v>2.56</v>
       </c>
       <c r="L213" s="33"/>
-      <c r="M213" s="36"/>
+      <c r="M213" s="35"/>
       <c r="N213" s="34"/>
     </row>
     <row r="214" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -19679,7 +21397,7 @@
         <v>2.52</v>
       </c>
       <c r="L214" s="33"/>
-      <c r="M214" s="36"/>
+      <c r="M214" s="35"/>
       <c r="N214" s="34"/>
     </row>
     <row r="215" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -19695,7 +21413,7 @@
       <c r="L215" s="33">
         <v>8</v>
       </c>
-      <c r="M215" s="35"/>
+      <c r="M215" s="36"/>
       <c r="N215" s="34"/>
     </row>
     <row r="216" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -19706,7 +21424,7 @@
         <v>2.56</v>
       </c>
       <c r="L216" s="33"/>
-      <c r="M216" s="35"/>
+      <c r="M216" s="36"/>
       <c r="N216" s="34"/>
     </row>
     <row r="217" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -19717,7 +21435,7 @@
         <v>2.46</v>
       </c>
       <c r="L217" s="33"/>
-      <c r="M217" s="35"/>
+      <c r="M217" s="36"/>
       <c r="N217" s="34"/>
     </row>
     <row r="218" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -19936,7 +21654,7 @@
       <c r="L236" s="33">
         <v>7</v>
       </c>
-      <c r="M236" s="36"/>
+      <c r="M236" s="35"/>
       <c r="N236" s="34"/>
     </row>
     <row r="237" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -19947,7 +21665,7 @@
         <v>2.57</v>
       </c>
       <c r="L237" s="33"/>
-      <c r="M237" s="36"/>
+      <c r="M237" s="35"/>
       <c r="N237" s="34"/>
     </row>
     <row r="238" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -19958,7 +21676,7 @@
         <v>2.52</v>
       </c>
       <c r="L238" s="33"/>
-      <c r="M238" s="36"/>
+      <c r="M238" s="35"/>
       <c r="N238" s="34"/>
     </row>
     <row r="239" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -19974,7 +21692,7 @@
       <c r="L239" s="33">
         <v>8</v>
       </c>
-      <c r="M239" s="35"/>
+      <c r="M239" s="36"/>
       <c r="N239" s="34"/>
     </row>
     <row r="240" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -19985,7 +21703,7 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="L240" s="33"/>
-      <c r="M240" s="35"/>
+      <c r="M240" s="36"/>
       <c r="N240" s="34"/>
     </row>
     <row r="241" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -19996,7 +21714,7 @@
         <v>2.5099999999999998</v>
       </c>
       <c r="L241" s="33"/>
-      <c r="M241" s="35"/>
+      <c r="M241" s="36"/>
       <c r="N241" s="34"/>
     </row>
     <row r="242" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -20215,7 +21933,7 @@
       <c r="L260" s="33">
         <v>7</v>
       </c>
-      <c r="M260" s="36"/>
+      <c r="M260" s="35"/>
       <c r="N260" s="34"/>
     </row>
     <row r="261" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -20226,7 +21944,7 @@
         <v>2.57</v>
       </c>
       <c r="L261" s="33"/>
-      <c r="M261" s="36"/>
+      <c r="M261" s="35"/>
       <c r="N261" s="34"/>
     </row>
     <row r="262" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -20237,7 +21955,7 @@
         <v>2.5</v>
       </c>
       <c r="L262" s="33"/>
-      <c r="M262" s="36"/>
+      <c r="M262" s="35"/>
       <c r="N262" s="34"/>
     </row>
     <row r="263" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -20253,7 +21971,7 @@
       <c r="L263" s="33">
         <v>8</v>
       </c>
-      <c r="M263" s="35"/>
+      <c r="M263" s="36"/>
       <c r="N263" s="34"/>
     </row>
     <row r="264" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -20264,7 +21982,7 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="L264" s="33"/>
-      <c r="M264" s="35"/>
+      <c r="M264" s="36"/>
       <c r="N264" s="34"/>
     </row>
     <row r="265" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -20275,7 +21993,7 @@
         <v>2.54</v>
       </c>
       <c r="L265" s="33"/>
-      <c r="M265" s="35"/>
+      <c r="M265" s="36"/>
       <c r="N265" s="34"/>
     </row>
     <row r="266" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -20494,7 +22212,7 @@
       <c r="L284" s="33">
         <v>7</v>
       </c>
-      <c r="M284" s="36"/>
+      <c r="M284" s="35"/>
       <c r="N284" s="34"/>
     </row>
     <row r="285" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -20505,7 +22223,7 @@
         <v>2.56</v>
       </c>
       <c r="L285" s="33"/>
-      <c r="M285" s="36"/>
+      <c r="M285" s="35"/>
       <c r="N285" s="34"/>
     </row>
     <row r="286" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -20516,7 +22234,7 @@
         <v>2.57</v>
       </c>
       <c r="L286" s="33"/>
-      <c r="M286" s="36"/>
+      <c r="M286" s="35"/>
       <c r="N286" s="34"/>
     </row>
     <row r="287" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -20532,7 +22250,7 @@
       <c r="L287" s="33">
         <v>8</v>
       </c>
-      <c r="M287" s="35"/>
+      <c r="M287" s="36"/>
       <c r="N287" s="34"/>
     </row>
     <row r="288" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -20543,7 +22261,7 @@
         <v>2.58</v>
       </c>
       <c r="L288" s="33"/>
-      <c r="M288" s="35"/>
+      <c r="M288" s="36"/>
       <c r="N288" s="34"/>
     </row>
     <row r="289" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -20554,7 +22272,7 @@
         <v>2.4500000000000002</v>
       </c>
       <c r="L289" s="33"/>
-      <c r="M289" s="35"/>
+      <c r="M289" s="36"/>
       <c r="N289" s="34"/>
     </row>
     <row r="290" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -20773,7 +22491,7 @@
       <c r="L308" s="33">
         <v>7</v>
       </c>
-      <c r="M308" s="36"/>
+      <c r="M308" s="35"/>
       <c r="N308" s="34"/>
     </row>
     <row r="309" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -20784,7 +22502,7 @@
         <v>2.57</v>
       </c>
       <c r="L309" s="33"/>
-      <c r="M309" s="36"/>
+      <c r="M309" s="35"/>
       <c r="N309" s="34"/>
     </row>
     <row r="310" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -20795,7 +22513,7 @@
         <v>2.54</v>
       </c>
       <c r="L310" s="33"/>
-      <c r="M310" s="36"/>
+      <c r="M310" s="35"/>
       <c r="N310" s="34"/>
     </row>
     <row r="311" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -20811,7 +22529,7 @@
       <c r="L311" s="33">
         <v>8</v>
       </c>
-      <c r="M311" s="35"/>
+      <c r="M311" s="36"/>
       <c r="N311" s="34"/>
     </row>
     <row r="312" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -20822,7 +22540,7 @@
         <v>2.57</v>
       </c>
       <c r="L312" s="33"/>
-      <c r="M312" s="35"/>
+      <c r="M312" s="36"/>
       <c r="N312" s="34"/>
     </row>
     <row r="313" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -20833,7 +22551,7 @@
         <v>2.52</v>
       </c>
       <c r="L313" s="33"/>
-      <c r="M313" s="35"/>
+      <c r="M313" s="36"/>
       <c r="N313" s="34"/>
     </row>
     <row r="317" spans="8:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -20858,6 +22576,605 @@
     </row>
   </sheetData>
   <mergeCells count="623">
+    <mergeCell ref="AX146:AX157"/>
+    <mergeCell ref="AY146:AY157"/>
+    <mergeCell ref="AZ146:AZ147"/>
+    <mergeCell ref="BB146:BB147"/>
+    <mergeCell ref="AZ148:AZ149"/>
+    <mergeCell ref="BB148:BB149"/>
+    <mergeCell ref="AZ150:AZ151"/>
+    <mergeCell ref="BB150:BB151"/>
+    <mergeCell ref="AZ152:AZ153"/>
+    <mergeCell ref="BB152:BB153"/>
+    <mergeCell ref="AZ154:AZ155"/>
+    <mergeCell ref="BB154:BB155"/>
+    <mergeCell ref="AZ156:AZ157"/>
+    <mergeCell ref="BB156:BB157"/>
+    <mergeCell ref="AX134:AX145"/>
+    <mergeCell ref="AY134:AY145"/>
+    <mergeCell ref="AZ134:AZ135"/>
+    <mergeCell ref="BB134:BB135"/>
+    <mergeCell ref="AZ136:AZ137"/>
+    <mergeCell ref="BB136:BB137"/>
+    <mergeCell ref="AZ138:AZ139"/>
+    <mergeCell ref="BB138:BB139"/>
+    <mergeCell ref="AZ140:AZ141"/>
+    <mergeCell ref="BB140:BB141"/>
+    <mergeCell ref="AZ142:AZ143"/>
+    <mergeCell ref="BB142:BB143"/>
+    <mergeCell ref="AZ144:AZ145"/>
+    <mergeCell ref="BB144:BB145"/>
+    <mergeCell ref="AX122:AX133"/>
+    <mergeCell ref="AY122:AY133"/>
+    <mergeCell ref="AZ122:AZ123"/>
+    <mergeCell ref="BB122:BB123"/>
+    <mergeCell ref="AZ124:AZ125"/>
+    <mergeCell ref="BB124:BB125"/>
+    <mergeCell ref="AZ126:AZ127"/>
+    <mergeCell ref="BB126:BB127"/>
+    <mergeCell ref="AZ128:AZ129"/>
+    <mergeCell ref="BB128:BB129"/>
+    <mergeCell ref="AZ130:AZ131"/>
+    <mergeCell ref="BB130:BB131"/>
+    <mergeCell ref="AZ132:AZ133"/>
+    <mergeCell ref="BB132:BB133"/>
+    <mergeCell ref="AX110:AX121"/>
+    <mergeCell ref="AY110:AY121"/>
+    <mergeCell ref="AZ110:AZ111"/>
+    <mergeCell ref="BB110:BB111"/>
+    <mergeCell ref="AZ112:AZ113"/>
+    <mergeCell ref="BB112:BB113"/>
+    <mergeCell ref="AZ114:AZ115"/>
+    <mergeCell ref="BB114:BB115"/>
+    <mergeCell ref="AZ116:AZ117"/>
+    <mergeCell ref="BB116:BB117"/>
+    <mergeCell ref="AZ118:AZ119"/>
+    <mergeCell ref="BB118:BB119"/>
+    <mergeCell ref="AZ120:AZ121"/>
+    <mergeCell ref="BB120:BB121"/>
+    <mergeCell ref="AX98:AX109"/>
+    <mergeCell ref="AY98:AY109"/>
+    <mergeCell ref="AZ98:AZ99"/>
+    <mergeCell ref="BB98:BB99"/>
+    <mergeCell ref="AZ100:AZ101"/>
+    <mergeCell ref="BB100:BB101"/>
+    <mergeCell ref="AZ102:AZ103"/>
+    <mergeCell ref="BB102:BB103"/>
+    <mergeCell ref="AZ104:AZ105"/>
+    <mergeCell ref="BB104:BB105"/>
+    <mergeCell ref="AZ106:AZ107"/>
+    <mergeCell ref="BB106:BB107"/>
+    <mergeCell ref="AZ108:AZ109"/>
+    <mergeCell ref="BB108:BB109"/>
+    <mergeCell ref="AX86:AX97"/>
+    <mergeCell ref="AY86:AY97"/>
+    <mergeCell ref="AZ86:AZ87"/>
+    <mergeCell ref="BB86:BB87"/>
+    <mergeCell ref="AZ88:AZ89"/>
+    <mergeCell ref="BB88:BB89"/>
+    <mergeCell ref="AZ90:AZ91"/>
+    <mergeCell ref="BB90:BB91"/>
+    <mergeCell ref="AZ92:AZ93"/>
+    <mergeCell ref="BB92:BB93"/>
+    <mergeCell ref="AZ94:AZ95"/>
+    <mergeCell ref="BB94:BB95"/>
+    <mergeCell ref="AZ96:AZ97"/>
+    <mergeCell ref="BB96:BB97"/>
+    <mergeCell ref="AZ72:AZ73"/>
+    <mergeCell ref="BB72:BB73"/>
+    <mergeCell ref="AX74:AX85"/>
+    <mergeCell ref="AY74:AY85"/>
+    <mergeCell ref="AZ74:AZ75"/>
+    <mergeCell ref="BB74:BB75"/>
+    <mergeCell ref="AZ76:AZ77"/>
+    <mergeCell ref="BB76:BB77"/>
+    <mergeCell ref="AZ78:AZ79"/>
+    <mergeCell ref="BB78:BB79"/>
+    <mergeCell ref="AZ80:AZ81"/>
+    <mergeCell ref="BB80:BB81"/>
+    <mergeCell ref="AZ82:AZ83"/>
+    <mergeCell ref="BB82:BB83"/>
+    <mergeCell ref="AZ84:AZ85"/>
+    <mergeCell ref="BB84:BB85"/>
+    <mergeCell ref="AX62:AX73"/>
+    <mergeCell ref="AY62:AY73"/>
+    <mergeCell ref="AZ62:AZ63"/>
+    <mergeCell ref="BB62:BB63"/>
+    <mergeCell ref="AZ64:AZ65"/>
+    <mergeCell ref="BB64:BB65"/>
+    <mergeCell ref="AZ66:AZ67"/>
+    <mergeCell ref="BB66:BB67"/>
+    <mergeCell ref="AZ68:AZ69"/>
+    <mergeCell ref="BB68:BB69"/>
+    <mergeCell ref="AZ70:AZ71"/>
+    <mergeCell ref="BB70:BB71"/>
+    <mergeCell ref="AZ42:AZ43"/>
+    <mergeCell ref="BB42:BB43"/>
+    <mergeCell ref="AZ44:AZ45"/>
+    <mergeCell ref="BB44:BB45"/>
+    <mergeCell ref="AZ46:AZ47"/>
+    <mergeCell ref="BB46:BB47"/>
+    <mergeCell ref="AZ48:AZ49"/>
+    <mergeCell ref="BB48:BB49"/>
+    <mergeCell ref="AX50:AX61"/>
+    <mergeCell ref="AY50:AY61"/>
+    <mergeCell ref="AZ50:AZ51"/>
+    <mergeCell ref="BB50:BB51"/>
+    <mergeCell ref="AZ52:AZ53"/>
+    <mergeCell ref="BB52:BB53"/>
+    <mergeCell ref="AZ54:AZ55"/>
+    <mergeCell ref="BB54:BB55"/>
+    <mergeCell ref="AZ56:AZ57"/>
+    <mergeCell ref="BB56:BB57"/>
+    <mergeCell ref="AZ58:AZ59"/>
+    <mergeCell ref="BB58:BB59"/>
+    <mergeCell ref="AZ60:AZ61"/>
+    <mergeCell ref="BB60:BB61"/>
+    <mergeCell ref="AZ18:AZ19"/>
+    <mergeCell ref="BB18:BB19"/>
+    <mergeCell ref="AZ20:AZ21"/>
+    <mergeCell ref="BB20:BB21"/>
+    <mergeCell ref="AZ36:AZ37"/>
+    <mergeCell ref="BB36:BB37"/>
+    <mergeCell ref="AZ38:AZ39"/>
+    <mergeCell ref="BB38:BB39"/>
+    <mergeCell ref="AZ40:AZ41"/>
+    <mergeCell ref="BB40:BB41"/>
+    <mergeCell ref="AX26:AX37"/>
+    <mergeCell ref="AY26:AY37"/>
+    <mergeCell ref="AZ26:AZ27"/>
+    <mergeCell ref="BB26:BB27"/>
+    <mergeCell ref="AZ28:AZ29"/>
+    <mergeCell ref="BB28:BB29"/>
+    <mergeCell ref="AZ30:AZ31"/>
+    <mergeCell ref="BB30:BB31"/>
+    <mergeCell ref="AZ32:AZ33"/>
+    <mergeCell ref="BB32:BB33"/>
+    <mergeCell ref="AZ34:AZ35"/>
+    <mergeCell ref="BB34:BB35"/>
+    <mergeCell ref="AX14:AX25"/>
+    <mergeCell ref="AY14:AY25"/>
+    <mergeCell ref="AZ22:AZ23"/>
+    <mergeCell ref="BB22:BB23"/>
+    <mergeCell ref="AZ24:AZ25"/>
+    <mergeCell ref="BB24:BB25"/>
+    <mergeCell ref="AX2:AX13"/>
+    <mergeCell ref="AY2:AY13"/>
+    <mergeCell ref="AZ2:AZ3"/>
+    <mergeCell ref="BB2:BB3"/>
+    <mergeCell ref="AZ4:AZ5"/>
+    <mergeCell ref="BB4:BB5"/>
+    <mergeCell ref="AZ6:AZ7"/>
+    <mergeCell ref="BB6:BB7"/>
+    <mergeCell ref="AZ8:AZ9"/>
+    <mergeCell ref="BB8:BB9"/>
+    <mergeCell ref="AZ10:AZ11"/>
+    <mergeCell ref="BB10:BB11"/>
+    <mergeCell ref="AZ12:AZ13"/>
+    <mergeCell ref="BB12:BB13"/>
+    <mergeCell ref="AZ14:AZ15"/>
+    <mergeCell ref="BB14:BB15"/>
+    <mergeCell ref="AZ16:AZ17"/>
+    <mergeCell ref="BB16:BB17"/>
+    <mergeCell ref="AR62:AR73"/>
+    <mergeCell ref="AS62:AS73"/>
+    <mergeCell ref="AT62:AT63"/>
+    <mergeCell ref="AV62:AV63"/>
+    <mergeCell ref="AT64:AT65"/>
+    <mergeCell ref="AV64:AV65"/>
+    <mergeCell ref="AT66:AT67"/>
+    <mergeCell ref="AV66:AV67"/>
+    <mergeCell ref="AT68:AT69"/>
+    <mergeCell ref="AV68:AV69"/>
+    <mergeCell ref="AT70:AT71"/>
+    <mergeCell ref="AV70:AV71"/>
+    <mergeCell ref="AT72:AT73"/>
+    <mergeCell ref="AV72:AV73"/>
+    <mergeCell ref="AR50:AR61"/>
+    <mergeCell ref="AS50:AS61"/>
+    <mergeCell ref="AT50:AT51"/>
+    <mergeCell ref="AV50:AV51"/>
+    <mergeCell ref="AT52:AT53"/>
+    <mergeCell ref="AV52:AV53"/>
+    <mergeCell ref="AT54:AT55"/>
+    <mergeCell ref="AV54:AV55"/>
+    <mergeCell ref="AT56:AT57"/>
+    <mergeCell ref="AV56:AV57"/>
+    <mergeCell ref="AT58:AT59"/>
+    <mergeCell ref="AV58:AV59"/>
+    <mergeCell ref="AT60:AT61"/>
+    <mergeCell ref="AV60:AV61"/>
+    <mergeCell ref="AR38:AR49"/>
+    <mergeCell ref="AS38:AS49"/>
+    <mergeCell ref="AT38:AT39"/>
+    <mergeCell ref="AV38:AV39"/>
+    <mergeCell ref="AT40:AT41"/>
+    <mergeCell ref="AV40:AV41"/>
+    <mergeCell ref="AT42:AT43"/>
+    <mergeCell ref="AV42:AV43"/>
+    <mergeCell ref="AT44:AT45"/>
+    <mergeCell ref="AV44:AV45"/>
+    <mergeCell ref="AT46:AT47"/>
+    <mergeCell ref="AV46:AV47"/>
+    <mergeCell ref="AT48:AT49"/>
+    <mergeCell ref="AV48:AV49"/>
+    <mergeCell ref="AR26:AR37"/>
+    <mergeCell ref="AS26:AS37"/>
+    <mergeCell ref="AT26:AT27"/>
+    <mergeCell ref="AV26:AV27"/>
+    <mergeCell ref="AT28:AT29"/>
+    <mergeCell ref="AV28:AV29"/>
+    <mergeCell ref="AT30:AT31"/>
+    <mergeCell ref="AV30:AV31"/>
+    <mergeCell ref="AT32:AT33"/>
+    <mergeCell ref="AV32:AV33"/>
+    <mergeCell ref="AT34:AT35"/>
+    <mergeCell ref="AV34:AV35"/>
+    <mergeCell ref="AT36:AT37"/>
+    <mergeCell ref="AV36:AV37"/>
+    <mergeCell ref="AV2:AV3"/>
+    <mergeCell ref="AV4:AV5"/>
+    <mergeCell ref="AV6:AV7"/>
+    <mergeCell ref="AV8:AV9"/>
+    <mergeCell ref="AV10:AV11"/>
+    <mergeCell ref="AV12:AV13"/>
+    <mergeCell ref="AR14:AR25"/>
+    <mergeCell ref="AS14:AS25"/>
+    <mergeCell ref="AT14:AT15"/>
+    <mergeCell ref="AV14:AV15"/>
+    <mergeCell ref="AT16:AT17"/>
+    <mergeCell ref="AV16:AV17"/>
+    <mergeCell ref="AT18:AT19"/>
+    <mergeCell ref="AV18:AV19"/>
+    <mergeCell ref="AT20:AT21"/>
+    <mergeCell ref="AV20:AV21"/>
+    <mergeCell ref="AT22:AT23"/>
+    <mergeCell ref="AV22:AV23"/>
+    <mergeCell ref="AT24:AT25"/>
+    <mergeCell ref="AV24:AV25"/>
+    <mergeCell ref="AR2:AR13"/>
+    <mergeCell ref="AS2:AS13"/>
+    <mergeCell ref="AT2:AT3"/>
+    <mergeCell ref="AT4:AT5"/>
+    <mergeCell ref="AT6:AT7"/>
+    <mergeCell ref="AT8:AT9"/>
+    <mergeCell ref="AT10:AT11"/>
+    <mergeCell ref="AT12:AT13"/>
+    <mergeCell ref="AX38:AX49"/>
+    <mergeCell ref="AY38:AY49"/>
+    <mergeCell ref="N284:N289"/>
+    <mergeCell ref="M287:M289"/>
+    <mergeCell ref="M308:M310"/>
+    <mergeCell ref="N308:N313"/>
+    <mergeCell ref="M311:M313"/>
+    <mergeCell ref="N212:N217"/>
+    <mergeCell ref="M215:M217"/>
+    <mergeCell ref="M236:M238"/>
+    <mergeCell ref="N236:N241"/>
+    <mergeCell ref="M239:M241"/>
+    <mergeCell ref="M260:M262"/>
+    <mergeCell ref="N260:N265"/>
+    <mergeCell ref="M263:M265"/>
+    <mergeCell ref="N140:N145"/>
+    <mergeCell ref="M143:M145"/>
+    <mergeCell ref="M164:M166"/>
+    <mergeCell ref="N164:N169"/>
+    <mergeCell ref="M167:M169"/>
+    <mergeCell ref="M188:M190"/>
+    <mergeCell ref="N188:N193"/>
+    <mergeCell ref="M191:M193"/>
+    <mergeCell ref="N68:N73"/>
+    <mergeCell ref="M71:M73"/>
+    <mergeCell ref="M92:M94"/>
+    <mergeCell ref="N92:N97"/>
+    <mergeCell ref="M95:M97"/>
+    <mergeCell ref="M116:M118"/>
+    <mergeCell ref="N116:N121"/>
+    <mergeCell ref="M119:M121"/>
+    <mergeCell ref="N20:N25"/>
+    <mergeCell ref="M44:M46"/>
+    <mergeCell ref="N44:N49"/>
+    <mergeCell ref="M47:M49"/>
+    <mergeCell ref="J308:J310"/>
+    <mergeCell ref="L308:L310"/>
+    <mergeCell ref="J311:J313"/>
+    <mergeCell ref="L311:L313"/>
+    <mergeCell ref="M20:M22"/>
+    <mergeCell ref="M23:M25"/>
+    <mergeCell ref="M68:M70"/>
+    <mergeCell ref="M140:M142"/>
+    <mergeCell ref="M212:M214"/>
+    <mergeCell ref="M284:M286"/>
+    <mergeCell ref="J299:J301"/>
+    <mergeCell ref="L299:L301"/>
+    <mergeCell ref="J302:J304"/>
+    <mergeCell ref="L302:L304"/>
+    <mergeCell ref="J305:J307"/>
+    <mergeCell ref="L305:L307"/>
+    <mergeCell ref="J287:J289"/>
+    <mergeCell ref="L287:L289"/>
+    <mergeCell ref="J257:J259"/>
+    <mergeCell ref="L257:L259"/>
+    <mergeCell ref="H290:H313"/>
+    <mergeCell ref="I290:I313"/>
+    <mergeCell ref="J290:J292"/>
+    <mergeCell ref="L290:L292"/>
+    <mergeCell ref="J293:J295"/>
+    <mergeCell ref="L293:L295"/>
+    <mergeCell ref="J296:J298"/>
+    <mergeCell ref="L296:L298"/>
+    <mergeCell ref="J278:J280"/>
+    <mergeCell ref="L278:L280"/>
+    <mergeCell ref="J281:J283"/>
+    <mergeCell ref="L281:L283"/>
+    <mergeCell ref="J284:J286"/>
+    <mergeCell ref="L284:L286"/>
+    <mergeCell ref="H266:H289"/>
+    <mergeCell ref="I266:I289"/>
+    <mergeCell ref="J266:J268"/>
+    <mergeCell ref="L266:L268"/>
+    <mergeCell ref="J269:J271"/>
+    <mergeCell ref="L269:L271"/>
+    <mergeCell ref="J272:J274"/>
+    <mergeCell ref="L272:L274"/>
+    <mergeCell ref="J275:J277"/>
+    <mergeCell ref="L275:L277"/>
+    <mergeCell ref="H242:H265"/>
+    <mergeCell ref="I242:I265"/>
+    <mergeCell ref="J242:J244"/>
+    <mergeCell ref="L242:L244"/>
+    <mergeCell ref="J245:J247"/>
+    <mergeCell ref="L245:L247"/>
+    <mergeCell ref="J260:J262"/>
+    <mergeCell ref="L260:L262"/>
+    <mergeCell ref="J263:J265"/>
+    <mergeCell ref="L263:L265"/>
+    <mergeCell ref="J248:J250"/>
+    <mergeCell ref="L248:L250"/>
+    <mergeCell ref="J251:J253"/>
+    <mergeCell ref="L251:L253"/>
+    <mergeCell ref="J254:J256"/>
+    <mergeCell ref="L254:L256"/>
+    <mergeCell ref="J227:J229"/>
+    <mergeCell ref="L227:L229"/>
+    <mergeCell ref="J230:J232"/>
+    <mergeCell ref="L230:L232"/>
+    <mergeCell ref="J233:J235"/>
+    <mergeCell ref="L233:L235"/>
+    <mergeCell ref="J215:J217"/>
+    <mergeCell ref="L215:L217"/>
+    <mergeCell ref="H218:H241"/>
+    <mergeCell ref="I218:I241"/>
+    <mergeCell ref="J218:J220"/>
+    <mergeCell ref="L218:L220"/>
+    <mergeCell ref="J221:J223"/>
+    <mergeCell ref="L221:L223"/>
+    <mergeCell ref="J224:J226"/>
+    <mergeCell ref="L224:L226"/>
+    <mergeCell ref="J236:J238"/>
+    <mergeCell ref="L236:L238"/>
+    <mergeCell ref="J239:J241"/>
+    <mergeCell ref="L239:L241"/>
+    <mergeCell ref="J206:J208"/>
+    <mergeCell ref="L206:L208"/>
+    <mergeCell ref="J209:J211"/>
+    <mergeCell ref="L209:L211"/>
+    <mergeCell ref="J212:J214"/>
+    <mergeCell ref="L212:L214"/>
+    <mergeCell ref="H194:H217"/>
+    <mergeCell ref="I194:I217"/>
+    <mergeCell ref="J194:J196"/>
+    <mergeCell ref="L194:L196"/>
+    <mergeCell ref="J197:J199"/>
+    <mergeCell ref="L197:L199"/>
+    <mergeCell ref="J200:J202"/>
+    <mergeCell ref="L200:L202"/>
+    <mergeCell ref="J203:J205"/>
+    <mergeCell ref="L203:L205"/>
+    <mergeCell ref="H170:H193"/>
+    <mergeCell ref="I170:I193"/>
+    <mergeCell ref="J170:J172"/>
+    <mergeCell ref="L170:L172"/>
+    <mergeCell ref="J173:J175"/>
+    <mergeCell ref="L173:L175"/>
+    <mergeCell ref="J185:J187"/>
+    <mergeCell ref="L185:L187"/>
+    <mergeCell ref="J188:J190"/>
+    <mergeCell ref="L188:L190"/>
+    <mergeCell ref="J191:J193"/>
+    <mergeCell ref="L191:L193"/>
+    <mergeCell ref="J176:J178"/>
+    <mergeCell ref="L176:L178"/>
+    <mergeCell ref="J179:J181"/>
+    <mergeCell ref="L179:L181"/>
+    <mergeCell ref="J182:J184"/>
+    <mergeCell ref="L182:L184"/>
+    <mergeCell ref="J155:J157"/>
+    <mergeCell ref="L155:L157"/>
+    <mergeCell ref="J158:J160"/>
+    <mergeCell ref="L158:L160"/>
+    <mergeCell ref="J161:J163"/>
+    <mergeCell ref="L161:L163"/>
+    <mergeCell ref="J143:J145"/>
+    <mergeCell ref="L143:L145"/>
+    <mergeCell ref="H146:H169"/>
+    <mergeCell ref="I146:I169"/>
+    <mergeCell ref="J146:J148"/>
+    <mergeCell ref="L146:L148"/>
+    <mergeCell ref="J149:J151"/>
+    <mergeCell ref="L149:L151"/>
+    <mergeCell ref="J152:J154"/>
+    <mergeCell ref="L152:L154"/>
+    <mergeCell ref="J164:J166"/>
+    <mergeCell ref="L164:L166"/>
+    <mergeCell ref="J167:J169"/>
+    <mergeCell ref="L167:L169"/>
+    <mergeCell ref="J134:J136"/>
+    <mergeCell ref="L134:L136"/>
+    <mergeCell ref="J137:J139"/>
+    <mergeCell ref="L137:L139"/>
+    <mergeCell ref="J140:J142"/>
+    <mergeCell ref="L140:L142"/>
+    <mergeCell ref="H122:H145"/>
+    <mergeCell ref="I122:I145"/>
+    <mergeCell ref="J122:J124"/>
+    <mergeCell ref="L122:L124"/>
+    <mergeCell ref="J125:J127"/>
+    <mergeCell ref="L125:L127"/>
+    <mergeCell ref="J128:J130"/>
+    <mergeCell ref="L128:L130"/>
+    <mergeCell ref="J131:J133"/>
+    <mergeCell ref="L131:L133"/>
+    <mergeCell ref="L110:L112"/>
+    <mergeCell ref="J113:J115"/>
+    <mergeCell ref="L113:L115"/>
+    <mergeCell ref="J116:J118"/>
+    <mergeCell ref="L116:L118"/>
+    <mergeCell ref="J119:J121"/>
+    <mergeCell ref="L119:L121"/>
+    <mergeCell ref="I98:I121"/>
+    <mergeCell ref="J98:J100"/>
+    <mergeCell ref="L98:L100"/>
+    <mergeCell ref="J101:J103"/>
+    <mergeCell ref="L101:L103"/>
+    <mergeCell ref="J104:J106"/>
+    <mergeCell ref="L104:L106"/>
+    <mergeCell ref="J107:J109"/>
+    <mergeCell ref="L107:L109"/>
+    <mergeCell ref="J110:J112"/>
+    <mergeCell ref="I74:I97"/>
+    <mergeCell ref="J74:J76"/>
+    <mergeCell ref="L74:L76"/>
+    <mergeCell ref="J77:J79"/>
+    <mergeCell ref="L77:L79"/>
+    <mergeCell ref="J80:J82"/>
+    <mergeCell ref="L80:L82"/>
+    <mergeCell ref="J83:J85"/>
+    <mergeCell ref="L83:L85"/>
+    <mergeCell ref="J86:J88"/>
+    <mergeCell ref="J62:J64"/>
+    <mergeCell ref="L62:L64"/>
+    <mergeCell ref="L86:L88"/>
+    <mergeCell ref="J89:J91"/>
+    <mergeCell ref="L89:L91"/>
+    <mergeCell ref="J92:J94"/>
+    <mergeCell ref="L92:L94"/>
+    <mergeCell ref="J95:J97"/>
+    <mergeCell ref="L95:L97"/>
+    <mergeCell ref="J29:J31"/>
+    <mergeCell ref="L29:L31"/>
+    <mergeCell ref="J32:J34"/>
+    <mergeCell ref="L32:L34"/>
+    <mergeCell ref="J44:J46"/>
+    <mergeCell ref="L44:L46"/>
+    <mergeCell ref="J47:J49"/>
+    <mergeCell ref="L47:L49"/>
+    <mergeCell ref="H50:H73"/>
+    <mergeCell ref="I50:I73"/>
+    <mergeCell ref="J50:J52"/>
+    <mergeCell ref="L50:L52"/>
+    <mergeCell ref="J53:J55"/>
+    <mergeCell ref="L53:L55"/>
+    <mergeCell ref="J65:J67"/>
+    <mergeCell ref="L65:L67"/>
+    <mergeCell ref="J68:J70"/>
+    <mergeCell ref="L68:L70"/>
+    <mergeCell ref="J71:J73"/>
+    <mergeCell ref="L71:L73"/>
+    <mergeCell ref="J56:J58"/>
+    <mergeCell ref="L56:L58"/>
+    <mergeCell ref="J59:J61"/>
+    <mergeCell ref="L59:L61"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="L5:L7"/>
+    <mergeCell ref="L8:L10"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="L14:L16"/>
+    <mergeCell ref="L17:L19"/>
+    <mergeCell ref="H2:H25"/>
+    <mergeCell ref="H74:H97"/>
+    <mergeCell ref="H98:H121"/>
+    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="I2:I25"/>
+    <mergeCell ref="J35:J37"/>
+    <mergeCell ref="L35:L37"/>
+    <mergeCell ref="J38:J40"/>
+    <mergeCell ref="L38:L40"/>
+    <mergeCell ref="J41:J43"/>
+    <mergeCell ref="L41:L43"/>
+    <mergeCell ref="L20:L22"/>
+    <mergeCell ref="L23:L25"/>
+    <mergeCell ref="H26:H49"/>
+    <mergeCell ref="I26:I49"/>
+    <mergeCell ref="J26:J28"/>
+    <mergeCell ref="L26:L28"/>
+    <mergeCell ref="F92:F94"/>
+    <mergeCell ref="F95:F97"/>
+    <mergeCell ref="F98:F100"/>
+    <mergeCell ref="F101:F103"/>
+    <mergeCell ref="F104:F106"/>
+    <mergeCell ref="F107:F109"/>
+    <mergeCell ref="F74:F76"/>
+    <mergeCell ref="F77:F79"/>
+    <mergeCell ref="F80:F82"/>
+    <mergeCell ref="F83:F85"/>
+    <mergeCell ref="F86:F88"/>
+    <mergeCell ref="F89:F91"/>
+    <mergeCell ref="F59:F61"/>
+    <mergeCell ref="F62:F64"/>
+    <mergeCell ref="F65:F67"/>
+    <mergeCell ref="F68:F70"/>
+    <mergeCell ref="F71:F73"/>
+    <mergeCell ref="F38:F40"/>
+    <mergeCell ref="F41:F43"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="F47:F49"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="F53:F55"/>
+    <mergeCell ref="F32:F34"/>
+    <mergeCell ref="F35:F37"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="F56:F58"/>
+    <mergeCell ref="B92:B109"/>
+    <mergeCell ref="C92:C109"/>
+    <mergeCell ref="D92:D94"/>
+    <mergeCell ref="D95:D97"/>
+    <mergeCell ref="D98:D100"/>
+    <mergeCell ref="D101:D103"/>
+    <mergeCell ref="D104:D106"/>
+    <mergeCell ref="D107:D109"/>
+    <mergeCell ref="B74:B91"/>
+    <mergeCell ref="C74:C91"/>
+    <mergeCell ref="D74:D76"/>
+    <mergeCell ref="D77:D79"/>
+    <mergeCell ref="D80:D82"/>
+    <mergeCell ref="D83:D85"/>
+    <mergeCell ref="D86:D88"/>
+    <mergeCell ref="D89:D91"/>
+    <mergeCell ref="B56:B73"/>
+    <mergeCell ref="C56:C73"/>
+    <mergeCell ref="D56:D58"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="D62:D64"/>
+    <mergeCell ref="D65:D67"/>
+    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="D71:D73"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="B38:B55"/>
+    <mergeCell ref="C38:C55"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="D47:D49"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="D53:D55"/>
     <mergeCell ref="B2:B19"/>
     <mergeCell ref="B20:B37"/>
     <mergeCell ref="C20:C37"/>
@@ -20882,605 +23199,6 @@
     <mergeCell ref="F23:F25"/>
     <mergeCell ref="F26:F28"/>
     <mergeCell ref="F29:F31"/>
-    <mergeCell ref="B56:B73"/>
-    <mergeCell ref="C56:C73"/>
-    <mergeCell ref="D56:D58"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="D62:D64"/>
-    <mergeCell ref="D65:D67"/>
-    <mergeCell ref="D68:D70"/>
-    <mergeCell ref="D71:D73"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="B38:B55"/>
-    <mergeCell ref="C38:C55"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="D47:D49"/>
-    <mergeCell ref="D50:D52"/>
-    <mergeCell ref="D53:D55"/>
-    <mergeCell ref="B92:B109"/>
-    <mergeCell ref="C92:C109"/>
-    <mergeCell ref="D92:D94"/>
-    <mergeCell ref="D95:D97"/>
-    <mergeCell ref="D98:D100"/>
-    <mergeCell ref="D101:D103"/>
-    <mergeCell ref="D104:D106"/>
-    <mergeCell ref="D107:D109"/>
-    <mergeCell ref="B74:B91"/>
-    <mergeCell ref="C74:C91"/>
-    <mergeCell ref="D74:D76"/>
-    <mergeCell ref="D77:D79"/>
-    <mergeCell ref="D80:D82"/>
-    <mergeCell ref="D83:D85"/>
-    <mergeCell ref="D86:D88"/>
-    <mergeCell ref="D89:D91"/>
-    <mergeCell ref="F32:F34"/>
-    <mergeCell ref="F35:F37"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="F56:F58"/>
-    <mergeCell ref="F59:F61"/>
-    <mergeCell ref="F62:F64"/>
-    <mergeCell ref="F65:F67"/>
-    <mergeCell ref="F68:F70"/>
-    <mergeCell ref="F71:F73"/>
-    <mergeCell ref="F38:F40"/>
-    <mergeCell ref="F41:F43"/>
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="F47:F49"/>
-    <mergeCell ref="F50:F52"/>
-    <mergeCell ref="F53:F55"/>
-    <mergeCell ref="F92:F94"/>
-    <mergeCell ref="F95:F97"/>
-    <mergeCell ref="F98:F100"/>
-    <mergeCell ref="F101:F103"/>
-    <mergeCell ref="F104:F106"/>
-    <mergeCell ref="F107:F109"/>
-    <mergeCell ref="F74:F76"/>
-    <mergeCell ref="F77:F79"/>
-    <mergeCell ref="F80:F82"/>
-    <mergeCell ref="F83:F85"/>
-    <mergeCell ref="F86:F88"/>
-    <mergeCell ref="F89:F91"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="L5:L7"/>
-    <mergeCell ref="L8:L10"/>
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="L14:L16"/>
-    <mergeCell ref="L17:L19"/>
-    <mergeCell ref="H2:H25"/>
-    <mergeCell ref="H74:H97"/>
-    <mergeCell ref="H98:H121"/>
-    <mergeCell ref="J20:J22"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="I2:I25"/>
-    <mergeCell ref="J35:J37"/>
-    <mergeCell ref="L35:L37"/>
-    <mergeCell ref="J38:J40"/>
-    <mergeCell ref="L38:L40"/>
-    <mergeCell ref="J41:J43"/>
-    <mergeCell ref="L41:L43"/>
-    <mergeCell ref="L20:L22"/>
-    <mergeCell ref="L23:L25"/>
-    <mergeCell ref="H26:H49"/>
-    <mergeCell ref="I26:I49"/>
-    <mergeCell ref="J26:J28"/>
-    <mergeCell ref="L26:L28"/>
-    <mergeCell ref="J29:J31"/>
-    <mergeCell ref="L29:L31"/>
-    <mergeCell ref="J32:J34"/>
-    <mergeCell ref="L32:L34"/>
-    <mergeCell ref="J44:J46"/>
-    <mergeCell ref="L44:L46"/>
-    <mergeCell ref="J47:J49"/>
-    <mergeCell ref="L47:L49"/>
-    <mergeCell ref="H50:H73"/>
-    <mergeCell ref="I50:I73"/>
-    <mergeCell ref="J50:J52"/>
-    <mergeCell ref="L50:L52"/>
-    <mergeCell ref="J53:J55"/>
-    <mergeCell ref="L53:L55"/>
-    <mergeCell ref="J65:J67"/>
-    <mergeCell ref="L65:L67"/>
-    <mergeCell ref="J68:J70"/>
-    <mergeCell ref="L68:L70"/>
-    <mergeCell ref="J71:J73"/>
-    <mergeCell ref="L71:L73"/>
-    <mergeCell ref="J56:J58"/>
-    <mergeCell ref="L56:L58"/>
-    <mergeCell ref="J59:J61"/>
-    <mergeCell ref="L59:L61"/>
-    <mergeCell ref="J62:J64"/>
-    <mergeCell ref="L62:L64"/>
-    <mergeCell ref="L86:L88"/>
-    <mergeCell ref="J89:J91"/>
-    <mergeCell ref="L89:L91"/>
-    <mergeCell ref="J92:J94"/>
-    <mergeCell ref="L92:L94"/>
-    <mergeCell ref="J95:J97"/>
-    <mergeCell ref="L95:L97"/>
-    <mergeCell ref="I74:I97"/>
-    <mergeCell ref="J74:J76"/>
-    <mergeCell ref="L74:L76"/>
-    <mergeCell ref="J77:J79"/>
-    <mergeCell ref="L77:L79"/>
-    <mergeCell ref="J80:J82"/>
-    <mergeCell ref="L80:L82"/>
-    <mergeCell ref="J83:J85"/>
-    <mergeCell ref="L83:L85"/>
-    <mergeCell ref="J86:J88"/>
-    <mergeCell ref="L110:L112"/>
-    <mergeCell ref="J113:J115"/>
-    <mergeCell ref="L113:L115"/>
-    <mergeCell ref="J116:J118"/>
-    <mergeCell ref="L116:L118"/>
-    <mergeCell ref="J119:J121"/>
-    <mergeCell ref="L119:L121"/>
-    <mergeCell ref="I98:I121"/>
-    <mergeCell ref="J98:J100"/>
-    <mergeCell ref="L98:L100"/>
-    <mergeCell ref="J101:J103"/>
-    <mergeCell ref="L101:L103"/>
-    <mergeCell ref="J104:J106"/>
-    <mergeCell ref="L104:L106"/>
-    <mergeCell ref="J107:J109"/>
-    <mergeCell ref="L107:L109"/>
-    <mergeCell ref="J110:J112"/>
-    <mergeCell ref="J134:J136"/>
-    <mergeCell ref="L134:L136"/>
-    <mergeCell ref="J137:J139"/>
-    <mergeCell ref="L137:L139"/>
-    <mergeCell ref="J140:J142"/>
-    <mergeCell ref="L140:L142"/>
-    <mergeCell ref="H122:H145"/>
-    <mergeCell ref="I122:I145"/>
-    <mergeCell ref="J122:J124"/>
-    <mergeCell ref="L122:L124"/>
-    <mergeCell ref="J125:J127"/>
-    <mergeCell ref="L125:L127"/>
-    <mergeCell ref="J128:J130"/>
-    <mergeCell ref="L128:L130"/>
-    <mergeCell ref="J131:J133"/>
-    <mergeCell ref="L131:L133"/>
-    <mergeCell ref="J155:J157"/>
-    <mergeCell ref="L155:L157"/>
-    <mergeCell ref="J158:J160"/>
-    <mergeCell ref="L158:L160"/>
-    <mergeCell ref="J161:J163"/>
-    <mergeCell ref="L161:L163"/>
-    <mergeCell ref="J143:J145"/>
-    <mergeCell ref="L143:L145"/>
-    <mergeCell ref="H146:H169"/>
-    <mergeCell ref="I146:I169"/>
-    <mergeCell ref="J146:J148"/>
-    <mergeCell ref="L146:L148"/>
-    <mergeCell ref="J149:J151"/>
-    <mergeCell ref="L149:L151"/>
-    <mergeCell ref="J152:J154"/>
-    <mergeCell ref="L152:L154"/>
-    <mergeCell ref="J164:J166"/>
-    <mergeCell ref="L164:L166"/>
-    <mergeCell ref="J167:J169"/>
-    <mergeCell ref="L167:L169"/>
-    <mergeCell ref="H170:H193"/>
-    <mergeCell ref="I170:I193"/>
-    <mergeCell ref="J170:J172"/>
-    <mergeCell ref="L170:L172"/>
-    <mergeCell ref="J173:J175"/>
-    <mergeCell ref="L173:L175"/>
-    <mergeCell ref="J185:J187"/>
-    <mergeCell ref="L185:L187"/>
-    <mergeCell ref="J188:J190"/>
-    <mergeCell ref="L188:L190"/>
-    <mergeCell ref="J191:J193"/>
-    <mergeCell ref="L191:L193"/>
-    <mergeCell ref="J176:J178"/>
-    <mergeCell ref="L176:L178"/>
-    <mergeCell ref="J179:J181"/>
-    <mergeCell ref="L179:L181"/>
-    <mergeCell ref="J182:J184"/>
-    <mergeCell ref="L182:L184"/>
-    <mergeCell ref="J206:J208"/>
-    <mergeCell ref="L206:L208"/>
-    <mergeCell ref="J209:J211"/>
-    <mergeCell ref="L209:L211"/>
-    <mergeCell ref="J212:J214"/>
-    <mergeCell ref="L212:L214"/>
-    <mergeCell ref="H194:H217"/>
-    <mergeCell ref="I194:I217"/>
-    <mergeCell ref="J194:J196"/>
-    <mergeCell ref="L194:L196"/>
-    <mergeCell ref="J197:J199"/>
-    <mergeCell ref="L197:L199"/>
-    <mergeCell ref="J200:J202"/>
-    <mergeCell ref="L200:L202"/>
-    <mergeCell ref="J203:J205"/>
-    <mergeCell ref="L203:L205"/>
-    <mergeCell ref="J227:J229"/>
-    <mergeCell ref="L227:L229"/>
-    <mergeCell ref="J230:J232"/>
-    <mergeCell ref="L230:L232"/>
-    <mergeCell ref="J233:J235"/>
-    <mergeCell ref="L233:L235"/>
-    <mergeCell ref="J215:J217"/>
-    <mergeCell ref="L215:L217"/>
-    <mergeCell ref="H218:H241"/>
-    <mergeCell ref="I218:I241"/>
-    <mergeCell ref="J218:J220"/>
-    <mergeCell ref="L218:L220"/>
-    <mergeCell ref="J221:J223"/>
-    <mergeCell ref="L221:L223"/>
-    <mergeCell ref="J224:J226"/>
-    <mergeCell ref="L224:L226"/>
-    <mergeCell ref="J236:J238"/>
-    <mergeCell ref="L236:L238"/>
-    <mergeCell ref="J239:J241"/>
-    <mergeCell ref="L239:L241"/>
-    <mergeCell ref="H242:H265"/>
-    <mergeCell ref="I242:I265"/>
-    <mergeCell ref="J242:J244"/>
-    <mergeCell ref="L242:L244"/>
-    <mergeCell ref="J245:J247"/>
-    <mergeCell ref="L245:L247"/>
-    <mergeCell ref="J260:J262"/>
-    <mergeCell ref="L260:L262"/>
-    <mergeCell ref="J263:J265"/>
-    <mergeCell ref="L263:L265"/>
-    <mergeCell ref="J248:J250"/>
-    <mergeCell ref="L248:L250"/>
-    <mergeCell ref="J251:J253"/>
-    <mergeCell ref="L251:L253"/>
-    <mergeCell ref="J254:J256"/>
-    <mergeCell ref="L254:L256"/>
-    <mergeCell ref="H290:H313"/>
-    <mergeCell ref="I290:I313"/>
-    <mergeCell ref="J290:J292"/>
-    <mergeCell ref="L290:L292"/>
-    <mergeCell ref="J293:J295"/>
-    <mergeCell ref="L293:L295"/>
-    <mergeCell ref="J296:J298"/>
-    <mergeCell ref="L296:L298"/>
-    <mergeCell ref="J278:J280"/>
-    <mergeCell ref="L278:L280"/>
-    <mergeCell ref="J281:J283"/>
-    <mergeCell ref="L281:L283"/>
-    <mergeCell ref="J284:J286"/>
-    <mergeCell ref="L284:L286"/>
-    <mergeCell ref="H266:H289"/>
-    <mergeCell ref="I266:I289"/>
-    <mergeCell ref="J266:J268"/>
-    <mergeCell ref="L266:L268"/>
-    <mergeCell ref="J269:J271"/>
-    <mergeCell ref="L269:L271"/>
-    <mergeCell ref="J272:J274"/>
-    <mergeCell ref="L272:L274"/>
-    <mergeCell ref="J275:J277"/>
-    <mergeCell ref="L275:L277"/>
-    <mergeCell ref="N20:N25"/>
-    <mergeCell ref="M44:M46"/>
-    <mergeCell ref="N44:N49"/>
-    <mergeCell ref="M47:M49"/>
-    <mergeCell ref="J308:J310"/>
-    <mergeCell ref="L308:L310"/>
-    <mergeCell ref="J311:J313"/>
-    <mergeCell ref="L311:L313"/>
-    <mergeCell ref="M20:M22"/>
-    <mergeCell ref="M23:M25"/>
-    <mergeCell ref="M68:M70"/>
-    <mergeCell ref="M140:M142"/>
-    <mergeCell ref="M212:M214"/>
-    <mergeCell ref="M284:M286"/>
-    <mergeCell ref="J299:J301"/>
-    <mergeCell ref="L299:L301"/>
-    <mergeCell ref="J302:J304"/>
-    <mergeCell ref="L302:L304"/>
-    <mergeCell ref="J305:J307"/>
-    <mergeCell ref="L305:L307"/>
-    <mergeCell ref="J287:J289"/>
-    <mergeCell ref="L287:L289"/>
-    <mergeCell ref="J257:J259"/>
-    <mergeCell ref="L257:L259"/>
-    <mergeCell ref="M188:M190"/>
-    <mergeCell ref="N188:N193"/>
-    <mergeCell ref="M191:M193"/>
-    <mergeCell ref="N68:N73"/>
-    <mergeCell ref="M71:M73"/>
-    <mergeCell ref="M92:M94"/>
-    <mergeCell ref="N92:N97"/>
-    <mergeCell ref="M95:M97"/>
-    <mergeCell ref="M116:M118"/>
-    <mergeCell ref="N116:N121"/>
-    <mergeCell ref="M119:M121"/>
-    <mergeCell ref="AT6:AT7"/>
-    <mergeCell ref="AT8:AT9"/>
-    <mergeCell ref="AT10:AT11"/>
-    <mergeCell ref="AT12:AT13"/>
-    <mergeCell ref="AX38:AX49"/>
-    <mergeCell ref="AY38:AY49"/>
-    <mergeCell ref="N284:N289"/>
-    <mergeCell ref="M287:M289"/>
-    <mergeCell ref="M308:M310"/>
-    <mergeCell ref="N308:N313"/>
-    <mergeCell ref="M311:M313"/>
-    <mergeCell ref="N212:N217"/>
-    <mergeCell ref="M215:M217"/>
-    <mergeCell ref="M236:M238"/>
-    <mergeCell ref="N236:N241"/>
-    <mergeCell ref="M239:M241"/>
-    <mergeCell ref="M260:M262"/>
-    <mergeCell ref="N260:N265"/>
-    <mergeCell ref="M263:M265"/>
-    <mergeCell ref="N140:N145"/>
-    <mergeCell ref="M143:M145"/>
-    <mergeCell ref="M164:M166"/>
-    <mergeCell ref="N164:N169"/>
-    <mergeCell ref="M167:M169"/>
-    <mergeCell ref="AV2:AV3"/>
-    <mergeCell ref="AV4:AV5"/>
-    <mergeCell ref="AV6:AV7"/>
-    <mergeCell ref="AV8:AV9"/>
-    <mergeCell ref="AV10:AV11"/>
-    <mergeCell ref="AV12:AV13"/>
-    <mergeCell ref="AR14:AR25"/>
-    <mergeCell ref="AS14:AS25"/>
-    <mergeCell ref="AT14:AT15"/>
-    <mergeCell ref="AV14:AV15"/>
-    <mergeCell ref="AT16:AT17"/>
-    <mergeCell ref="AV16:AV17"/>
-    <mergeCell ref="AT18:AT19"/>
-    <mergeCell ref="AV18:AV19"/>
-    <mergeCell ref="AT20:AT21"/>
-    <mergeCell ref="AV20:AV21"/>
-    <mergeCell ref="AT22:AT23"/>
-    <mergeCell ref="AV22:AV23"/>
-    <mergeCell ref="AT24:AT25"/>
-    <mergeCell ref="AV24:AV25"/>
-    <mergeCell ref="AR2:AR13"/>
-    <mergeCell ref="AS2:AS13"/>
-    <mergeCell ref="AT2:AT3"/>
-    <mergeCell ref="AT4:AT5"/>
-    <mergeCell ref="AR26:AR37"/>
-    <mergeCell ref="AS26:AS37"/>
-    <mergeCell ref="AT26:AT27"/>
-    <mergeCell ref="AV26:AV27"/>
-    <mergeCell ref="AT28:AT29"/>
-    <mergeCell ref="AV28:AV29"/>
-    <mergeCell ref="AT30:AT31"/>
-    <mergeCell ref="AV30:AV31"/>
-    <mergeCell ref="AT32:AT33"/>
-    <mergeCell ref="AV32:AV33"/>
-    <mergeCell ref="AT34:AT35"/>
-    <mergeCell ref="AV34:AV35"/>
-    <mergeCell ref="AT36:AT37"/>
-    <mergeCell ref="AV36:AV37"/>
-    <mergeCell ref="AR38:AR49"/>
-    <mergeCell ref="AS38:AS49"/>
-    <mergeCell ref="AT38:AT39"/>
-    <mergeCell ref="AV38:AV39"/>
-    <mergeCell ref="AT40:AT41"/>
-    <mergeCell ref="AV40:AV41"/>
-    <mergeCell ref="AT42:AT43"/>
-    <mergeCell ref="AV42:AV43"/>
-    <mergeCell ref="AT44:AT45"/>
-    <mergeCell ref="AV44:AV45"/>
-    <mergeCell ref="AT46:AT47"/>
-    <mergeCell ref="AV46:AV47"/>
-    <mergeCell ref="AT48:AT49"/>
-    <mergeCell ref="AV48:AV49"/>
-    <mergeCell ref="AR50:AR61"/>
-    <mergeCell ref="AS50:AS61"/>
-    <mergeCell ref="AT50:AT51"/>
-    <mergeCell ref="AV50:AV51"/>
-    <mergeCell ref="AT52:AT53"/>
-    <mergeCell ref="AV52:AV53"/>
-    <mergeCell ref="AT54:AT55"/>
-    <mergeCell ref="AV54:AV55"/>
-    <mergeCell ref="AT56:AT57"/>
-    <mergeCell ref="AV56:AV57"/>
-    <mergeCell ref="AT58:AT59"/>
-    <mergeCell ref="AV58:AV59"/>
-    <mergeCell ref="AT60:AT61"/>
-    <mergeCell ref="AV60:AV61"/>
-    <mergeCell ref="AR62:AR73"/>
-    <mergeCell ref="AS62:AS73"/>
-    <mergeCell ref="AT62:AT63"/>
-    <mergeCell ref="AV62:AV63"/>
-    <mergeCell ref="AT64:AT65"/>
-    <mergeCell ref="AV64:AV65"/>
-    <mergeCell ref="AT66:AT67"/>
-    <mergeCell ref="AV66:AV67"/>
-    <mergeCell ref="AT68:AT69"/>
-    <mergeCell ref="AV68:AV69"/>
-    <mergeCell ref="AT70:AT71"/>
-    <mergeCell ref="AV70:AV71"/>
-    <mergeCell ref="AT72:AT73"/>
-    <mergeCell ref="AV72:AV73"/>
-    <mergeCell ref="AX14:AX25"/>
-    <mergeCell ref="AY14:AY25"/>
-    <mergeCell ref="AZ22:AZ23"/>
-    <mergeCell ref="BB22:BB23"/>
-    <mergeCell ref="AZ24:AZ25"/>
-    <mergeCell ref="BB24:BB25"/>
-    <mergeCell ref="AX2:AX13"/>
-    <mergeCell ref="AY2:AY13"/>
-    <mergeCell ref="AZ2:AZ3"/>
-    <mergeCell ref="BB2:BB3"/>
-    <mergeCell ref="AZ4:AZ5"/>
-    <mergeCell ref="BB4:BB5"/>
-    <mergeCell ref="AZ6:AZ7"/>
-    <mergeCell ref="BB6:BB7"/>
-    <mergeCell ref="AZ8:AZ9"/>
-    <mergeCell ref="BB8:BB9"/>
-    <mergeCell ref="AZ10:AZ11"/>
-    <mergeCell ref="BB10:BB11"/>
-    <mergeCell ref="AZ12:AZ13"/>
-    <mergeCell ref="BB12:BB13"/>
-    <mergeCell ref="AZ14:AZ15"/>
-    <mergeCell ref="BB14:BB15"/>
-    <mergeCell ref="AZ16:AZ17"/>
-    <mergeCell ref="BB16:BB17"/>
-    <mergeCell ref="AX26:AX37"/>
-    <mergeCell ref="AY26:AY37"/>
-    <mergeCell ref="AZ26:AZ27"/>
-    <mergeCell ref="BB26:BB27"/>
-    <mergeCell ref="AZ28:AZ29"/>
-    <mergeCell ref="BB28:BB29"/>
-    <mergeCell ref="AZ30:AZ31"/>
-    <mergeCell ref="BB30:BB31"/>
-    <mergeCell ref="AZ32:AZ33"/>
-    <mergeCell ref="BB32:BB33"/>
-    <mergeCell ref="AZ34:AZ35"/>
-    <mergeCell ref="BB34:BB35"/>
-    <mergeCell ref="AZ18:AZ19"/>
-    <mergeCell ref="BB18:BB19"/>
-    <mergeCell ref="AZ20:AZ21"/>
-    <mergeCell ref="BB20:BB21"/>
-    <mergeCell ref="AZ36:AZ37"/>
-    <mergeCell ref="BB36:BB37"/>
-    <mergeCell ref="AZ38:AZ39"/>
-    <mergeCell ref="BB38:BB39"/>
-    <mergeCell ref="AZ40:AZ41"/>
-    <mergeCell ref="BB40:BB41"/>
-    <mergeCell ref="AX50:AX61"/>
-    <mergeCell ref="AY50:AY61"/>
-    <mergeCell ref="AZ50:AZ51"/>
-    <mergeCell ref="BB50:BB51"/>
-    <mergeCell ref="AZ52:AZ53"/>
-    <mergeCell ref="BB52:BB53"/>
-    <mergeCell ref="AZ54:AZ55"/>
-    <mergeCell ref="BB54:BB55"/>
-    <mergeCell ref="AZ56:AZ57"/>
-    <mergeCell ref="BB56:BB57"/>
-    <mergeCell ref="AZ58:AZ59"/>
-    <mergeCell ref="BB58:BB59"/>
-    <mergeCell ref="AZ60:AZ61"/>
-    <mergeCell ref="BB60:BB61"/>
-    <mergeCell ref="AZ68:AZ69"/>
-    <mergeCell ref="BB68:BB69"/>
-    <mergeCell ref="AZ70:AZ71"/>
-    <mergeCell ref="BB70:BB71"/>
-    <mergeCell ref="AZ42:AZ43"/>
-    <mergeCell ref="BB42:BB43"/>
-    <mergeCell ref="AZ44:AZ45"/>
-    <mergeCell ref="BB44:BB45"/>
-    <mergeCell ref="AZ46:AZ47"/>
-    <mergeCell ref="BB46:BB47"/>
-    <mergeCell ref="AZ48:AZ49"/>
-    <mergeCell ref="BB48:BB49"/>
-    <mergeCell ref="AZ72:AZ73"/>
-    <mergeCell ref="BB72:BB73"/>
-    <mergeCell ref="AX74:AX85"/>
-    <mergeCell ref="AY74:AY85"/>
-    <mergeCell ref="AZ74:AZ75"/>
-    <mergeCell ref="BB74:BB75"/>
-    <mergeCell ref="AZ76:AZ77"/>
-    <mergeCell ref="BB76:BB77"/>
-    <mergeCell ref="AZ78:AZ79"/>
-    <mergeCell ref="BB78:BB79"/>
-    <mergeCell ref="AZ80:AZ81"/>
-    <mergeCell ref="BB80:BB81"/>
-    <mergeCell ref="AZ82:AZ83"/>
-    <mergeCell ref="BB82:BB83"/>
-    <mergeCell ref="AZ84:AZ85"/>
-    <mergeCell ref="BB84:BB85"/>
-    <mergeCell ref="AX62:AX73"/>
-    <mergeCell ref="AY62:AY73"/>
-    <mergeCell ref="AZ62:AZ63"/>
-    <mergeCell ref="BB62:BB63"/>
-    <mergeCell ref="AZ64:AZ65"/>
-    <mergeCell ref="BB64:BB65"/>
-    <mergeCell ref="AZ66:AZ67"/>
-    <mergeCell ref="BB66:BB67"/>
-    <mergeCell ref="AX86:AX97"/>
-    <mergeCell ref="AY86:AY97"/>
-    <mergeCell ref="AZ86:AZ87"/>
-    <mergeCell ref="BB86:BB87"/>
-    <mergeCell ref="AZ88:AZ89"/>
-    <mergeCell ref="BB88:BB89"/>
-    <mergeCell ref="AZ90:AZ91"/>
-    <mergeCell ref="BB90:BB91"/>
-    <mergeCell ref="AZ92:AZ93"/>
-    <mergeCell ref="BB92:BB93"/>
-    <mergeCell ref="AZ94:AZ95"/>
-    <mergeCell ref="BB94:BB95"/>
-    <mergeCell ref="AZ96:AZ97"/>
-    <mergeCell ref="BB96:BB97"/>
-    <mergeCell ref="AX98:AX109"/>
-    <mergeCell ref="AY98:AY109"/>
-    <mergeCell ref="AZ98:AZ99"/>
-    <mergeCell ref="BB98:BB99"/>
-    <mergeCell ref="AZ100:AZ101"/>
-    <mergeCell ref="BB100:BB101"/>
-    <mergeCell ref="AZ102:AZ103"/>
-    <mergeCell ref="BB102:BB103"/>
-    <mergeCell ref="AZ104:AZ105"/>
-    <mergeCell ref="BB104:BB105"/>
-    <mergeCell ref="AZ106:AZ107"/>
-    <mergeCell ref="BB106:BB107"/>
-    <mergeCell ref="AZ108:AZ109"/>
-    <mergeCell ref="BB108:BB109"/>
-    <mergeCell ref="AX110:AX121"/>
-    <mergeCell ref="AY110:AY121"/>
-    <mergeCell ref="AZ110:AZ111"/>
-    <mergeCell ref="BB110:BB111"/>
-    <mergeCell ref="AZ112:AZ113"/>
-    <mergeCell ref="BB112:BB113"/>
-    <mergeCell ref="AZ114:AZ115"/>
-    <mergeCell ref="BB114:BB115"/>
-    <mergeCell ref="AZ116:AZ117"/>
-    <mergeCell ref="BB116:BB117"/>
-    <mergeCell ref="AZ118:AZ119"/>
-    <mergeCell ref="BB118:BB119"/>
-    <mergeCell ref="AZ120:AZ121"/>
-    <mergeCell ref="BB120:BB121"/>
-    <mergeCell ref="AX122:AX133"/>
-    <mergeCell ref="AY122:AY133"/>
-    <mergeCell ref="AZ122:AZ123"/>
-    <mergeCell ref="BB122:BB123"/>
-    <mergeCell ref="AZ124:AZ125"/>
-    <mergeCell ref="BB124:BB125"/>
-    <mergeCell ref="AZ126:AZ127"/>
-    <mergeCell ref="BB126:BB127"/>
-    <mergeCell ref="AZ128:AZ129"/>
-    <mergeCell ref="BB128:BB129"/>
-    <mergeCell ref="AZ130:AZ131"/>
-    <mergeCell ref="BB130:BB131"/>
-    <mergeCell ref="AZ132:AZ133"/>
-    <mergeCell ref="BB132:BB133"/>
-    <mergeCell ref="AX134:AX145"/>
-    <mergeCell ref="AY134:AY145"/>
-    <mergeCell ref="AZ134:AZ135"/>
-    <mergeCell ref="BB134:BB135"/>
-    <mergeCell ref="AZ136:AZ137"/>
-    <mergeCell ref="BB136:BB137"/>
-    <mergeCell ref="AZ138:AZ139"/>
-    <mergeCell ref="BB138:BB139"/>
-    <mergeCell ref="AZ140:AZ141"/>
-    <mergeCell ref="BB140:BB141"/>
-    <mergeCell ref="AZ142:AZ143"/>
-    <mergeCell ref="BB142:BB143"/>
-    <mergeCell ref="AZ144:AZ145"/>
-    <mergeCell ref="BB144:BB145"/>
-    <mergeCell ref="AX146:AX157"/>
-    <mergeCell ref="AY146:AY157"/>
-    <mergeCell ref="AZ146:AZ147"/>
-    <mergeCell ref="BB146:BB147"/>
-    <mergeCell ref="AZ148:AZ149"/>
-    <mergeCell ref="BB148:BB149"/>
-    <mergeCell ref="AZ150:AZ151"/>
-    <mergeCell ref="BB150:BB151"/>
-    <mergeCell ref="AZ152:AZ153"/>
-    <mergeCell ref="BB152:BB153"/>
-    <mergeCell ref="AZ154:AZ155"/>
-    <mergeCell ref="BB154:BB155"/>
-    <mergeCell ref="AZ156:AZ157"/>
-    <mergeCell ref="BB156:BB157"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
